--- a/trunk/SRS/Trazabilidad/SRS(Alimnova)TrazabilidadRequerimientosV1.3.0.xlsx
+++ b/trunk/SRS/Trazabilidad/SRS(Alimnova)TrazabilidadRequerimientosV1.3.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="3312" windowWidth="15408" windowHeight="3600" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="96" yWindow="-84" windowWidth="15408" windowHeight="3600" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADO DEL REQ" sheetId="1" r:id="rId1"/>
@@ -1563,6 +1563,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1726,9 +1729,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2052,88 +2052,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27" thickTop="1" thickBot="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="82" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
     </row>
     <row r="2" spans="1:20" ht="27" thickTop="1" thickBot="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="83" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="59"/>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="87"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="96" t="s">
+      <c r="A3" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="82"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="97"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="66" t="s">
         <v>213</v>
       </c>
@@ -8712,27 +8712,27 @@
       <c r="T125" s="53"/>
     </row>
     <row r="126" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A126" s="94" t="s">
+      <c r="A126" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="B126" s="95"/>
+      <c r="B126" s="96"/>
       <c r="C126" s="65">
         <f>SUM(C5:C125)</f>
         <v>12700</v>
       </c>
-      <c r="D126" s="74" t="s">
+      <c r="D126" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="E126" s="75"/>
-      <c r="F126" s="76"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="77"/>
       <c r="G126" s="49">
         <f>SUM(G5:G125)</f>
         <v>3350</v>
       </c>
-      <c r="H126" s="98" t="s">
+      <c r="H126" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="I126" s="99"/>
+      <c r="I126" s="100"/>
       <c r="J126" s="64">
         <f>(G126*100)/C126</f>
         <v>26.377952755905511</v>
@@ -8749,33 +8749,33 @@
       <c r="T126" s="53"/>
     </row>
     <row r="127" spans="1:20" ht="27" thickTop="1" thickBot="1">
-      <c r="A127" s="77" t="s">
+      <c r="A127" s="78" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
-      <c r="D127" s="79" t="s">
+      <c r="D127" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="E127" s="80"/>
-      <c r="F127" s="80"/>
-      <c r="G127" s="80"/>
-      <c r="H127" s="80"/>
-      <c r="I127" s="80"/>
-      <c r="J127" s="80"/>
-      <c r="K127" s="80"/>
-      <c r="L127" s="80"/>
-      <c r="M127" s="80"/>
-      <c r="N127" s="80"/>
-      <c r="O127" s="80"/>
-      <c r="P127" s="80"/>
-      <c r="Q127" s="80"/>
-      <c r="R127" s="80"/>
-      <c r="S127" s="80"/>
-      <c r="T127" s="81"/>
+      <c r="E127" s="81"/>
+      <c r="F127" s="81"/>
+      <c r="G127" s="81"/>
+      <c r="H127" s="81"/>
+      <c r="I127" s="81"/>
+      <c r="J127" s="81"/>
+      <c r="K127" s="81"/>
+      <c r="L127" s="81"/>
+      <c r="M127" s="81"/>
+      <c r="N127" s="81"/>
+      <c r="O127" s="81"/>
+      <c r="P127" s="81"/>
+      <c r="Q127" s="81"/>
+      <c r="R127" s="81"/>
+      <c r="S127" s="81"/>
+      <c r="T127" s="82"/>
     </row>
     <row r="128" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A128" s="78"/>
+      <c r="A128" s="79"/>
       <c r="B128" s="60" t="s">
         <v>214</v>
       </c>
@@ -10996,33 +10996,33 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" thickTop="1" thickBot="1">
       <c r="A1" s="29"/>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="103"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -11034,7 +11034,7 @@
     </row>
     <row r="2" spans="1:32" ht="29.4" thickBot="1">
       <c r="A2" s="29"/>
-      <c r="B2" s="105"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="22" t="s">
         <v>132</v>
       </c>
@@ -11054,15 +11054,15 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -11074,7 +11074,7 @@
     </row>
     <row r="3" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="29"/>
-      <c r="B3" s="105"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="11" t="s">
         <v>163</v>
       </c>
@@ -11143,7 +11143,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="107" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -11173,7 +11173,7 @@
       <c r="X4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A5" s="107"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -11245,7 +11245,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A6" s="107"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -11317,7 +11317,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A7" s="107"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -11389,7 +11389,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="107"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
@@ -11461,7 +11461,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A9" s="107"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -11533,7 +11533,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A10" s="107"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -11605,7 +11605,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A11" s="107"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -11677,7 +11677,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A12" s="107"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
@@ -11749,7 +11749,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A13" s="107"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
@@ -11777,7 +11777,7 @@
       <c r="X13" s="34"/>
     </row>
     <row r="14" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A14" s="107"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -11849,7 +11849,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A15" s="107"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
@@ -11921,7 +11921,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A16" s="107"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
@@ -11993,7 +11993,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A17" s="107"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
@@ -12065,7 +12065,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A18" s="107"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
@@ -12137,7 +12137,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A19" s="107"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -12209,7 +12209,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A20" s="107"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
@@ -12281,7 +12281,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A21" s="107"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
@@ -12353,7 +12353,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A22" s="107"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
@@ -12425,7 +12425,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A23" s="107"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
@@ -12453,7 +12453,7 @@
       <c r="X23" s="34"/>
     </row>
     <row r="24" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A24" s="107"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
@@ -12525,7 +12525,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A25" s="107"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
@@ -12597,7 +12597,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A26" s="107"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
@@ -12625,7 +12625,7 @@
       <c r="X26" s="34"/>
     </row>
     <row r="27" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A27" s="107"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
@@ -12697,7 +12697,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A28" s="107"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
@@ -12769,7 +12769,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A29" s="107"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
@@ -12841,7 +12841,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A30" s="107"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
@@ -12913,7 +12913,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A31" s="107"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
@@ -12985,7 +12985,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A32" s="107"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
@@ -13057,7 +13057,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A33" s="107"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
@@ -13129,7 +13129,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A34" s="107"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="4" t="s">
         <v>41</v>
       </c>
@@ -13201,7 +13201,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A35" s="107"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="4" t="s">
         <v>42</v>
       </c>
@@ -13273,7 +13273,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A36" s="107"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -13345,7 +13345,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A37" s="107"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="4" t="s">
         <v>44</v>
       </c>
@@ -13417,7 +13417,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A38" s="107"/>
+      <c r="A38" s="108"/>
       <c r="B38" s="4" t="s">
         <v>45</v>
       </c>
@@ -13489,7 +13489,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A39" s="107"/>
+      <c r="A39" s="108"/>
       <c r="B39" s="4" t="s">
         <v>46</v>
       </c>
@@ -13561,7 +13561,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A40" s="107"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
@@ -13633,7 +13633,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A41" s="107"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="4" t="s">
         <v>38</v>
       </c>
@@ -13705,7 +13705,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A42" s="107"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
@@ -13777,7 +13777,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A43" s="107"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
@@ -13805,7 +13805,7 @@
       <c r="X43" s="40"/>
     </row>
     <row r="44" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A44" s="107"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="4" t="s">
         <v>51</v>
       </c>
@@ -13877,7 +13877,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A45" s="107"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="4" t="s">
         <v>52</v>
       </c>
@@ -13949,7 +13949,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A46" s="107"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
@@ -14021,7 +14021,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A47" s="107"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="4" t="s">
         <v>54</v>
       </c>
@@ -14093,7 +14093,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A48" s="107"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
@@ -14121,7 +14121,7 @@
       <c r="X48" s="31"/>
     </row>
     <row r="49" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A49" s="107"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
@@ -14193,7 +14193,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A50" s="107"/>
+      <c r="A50" s="108"/>
       <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
@@ -14265,7 +14265,7 @@
       </c>
     </row>
     <row r="51" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A51" s="107"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
@@ -14337,7 +14337,7 @@
       </c>
     </row>
     <row r="52" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A52" s="107"/>
+      <c r="A52" s="108"/>
       <c r="B52" s="4" t="s">
         <v>59</v>
       </c>
@@ -14409,7 +14409,7 @@
       </c>
     </row>
     <row r="53" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A53" s="107"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="4" t="s">
         <v>60</v>
       </c>
@@ -14481,7 +14481,7 @@
       </c>
     </row>
     <row r="54" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A54" s="107"/>
+      <c r="A54" s="108"/>
       <c r="B54" s="4" t="s">
         <v>61</v>
       </c>
@@ -14553,7 +14553,7 @@
       </c>
     </row>
     <row r="55" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A55" s="107"/>
+      <c r="A55" s="108"/>
       <c r="B55" s="4" t="s">
         <v>62</v>
       </c>
@@ -14581,7 +14581,7 @@
       <c r="X55" s="31"/>
     </row>
     <row r="56" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A56" s="107"/>
+      <c r="A56" s="108"/>
       <c r="B56" s="4" t="s">
         <v>63</v>
       </c>
@@ -14653,7 +14653,7 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A57" s="107"/>
+      <c r="A57" s="108"/>
       <c r="B57" s="4" t="s">
         <v>64</v>
       </c>
@@ -14725,7 +14725,7 @@
       </c>
     </row>
     <row r="58" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A58" s="107"/>
+      <c r="A58" s="108"/>
       <c r="B58" s="4" t="s">
         <v>65</v>
       </c>
@@ -14797,7 +14797,7 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A59" s="107"/>
+      <c r="A59" s="108"/>
       <c r="B59" s="4" t="s">
         <v>66</v>
       </c>
@@ -14869,7 +14869,7 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A60" s="107"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
@@ -14941,7 +14941,7 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A61" s="107"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="4" t="s">
         <v>68</v>
       </c>
@@ -15013,7 +15013,7 @@
       </c>
     </row>
     <row r="62" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A62" s="107"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="4" t="s">
         <v>69</v>
       </c>
@@ -15041,7 +15041,7 @@
       <c r="X62" s="31"/>
     </row>
     <row r="63" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A63" s="107"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="4" t="s">
         <v>70</v>
       </c>
@@ -15069,7 +15069,7 @@
       <c r="X63" s="31"/>
     </row>
     <row r="64" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A64" s="107"/>
+      <c r="A64" s="108"/>
       <c r="B64" s="4" t="s">
         <v>31</v>
       </c>
@@ -15141,7 +15141,7 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A65" s="107"/>
+      <c r="A65" s="108"/>
       <c r="B65" s="4" t="s">
         <v>72</v>
       </c>
@@ -15213,7 +15213,7 @@
       </c>
     </row>
     <row r="66" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A66" s="107"/>
+      <c r="A66" s="108"/>
       <c r="B66" s="4" t="s">
         <v>73</v>
       </c>
@@ -15285,7 +15285,7 @@
       </c>
     </row>
     <row r="67" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A67" s="107"/>
+      <c r="A67" s="108"/>
       <c r="B67" s="4" t="s">
         <v>74</v>
       </c>
@@ -15357,7 +15357,7 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A68" s="107"/>
+      <c r="A68" s="108"/>
       <c r="B68" s="4" t="s">
         <v>75</v>
       </c>
@@ -15429,7 +15429,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A69" s="107"/>
+      <c r="A69" s="108"/>
       <c r="B69" s="5" t="s">
         <v>76</v>
       </c>
@@ -15501,7 +15501,7 @@
       </c>
     </row>
     <row r="70" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A70" s="107"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="5" t="s">
         <v>77</v>
       </c>
@@ -15573,7 +15573,7 @@
       </c>
     </row>
     <row r="71" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A71" s="107"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="5" t="s">
         <v>78</v>
       </c>
@@ -15605,7 +15605,7 @@
       <c r="X71" s="32"/>
     </row>
     <row r="72" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A72" s="107"/>
+      <c r="A72" s="108"/>
       <c r="B72" s="5" t="s">
         <v>79</v>
       </c>
@@ -15637,7 +15637,7 @@
       <c r="X72" s="32"/>
     </row>
     <row r="73" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A73" s="107"/>
+      <c r="A73" s="108"/>
       <c r="B73" s="5" t="s">
         <v>80</v>
       </c>
@@ -15669,7 +15669,7 @@
       <c r="X73" s="32"/>
     </row>
     <row r="74" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A74" s="107"/>
+      <c r="A74" s="108"/>
       <c r="B74" s="5" t="s">
         <v>81</v>
       </c>
@@ -15701,7 +15701,7 @@
       <c r="X74" s="32"/>
     </row>
     <row r="75" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A75" s="107"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="5" t="s">
         <v>82</v>
       </c>
@@ -15729,7 +15729,7 @@
       <c r="X75" s="31"/>
     </row>
     <row r="76" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A76" s="107"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="5" t="s">
         <v>83</v>
       </c>
@@ -15757,7 +15757,7 @@
       <c r="X76" s="31"/>
     </row>
     <row r="77" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A77" s="107"/>
+      <c r="A77" s="108"/>
       <c r="B77" s="5" t="s">
         <v>84</v>
       </c>
@@ -15785,7 +15785,7 @@
       <c r="X77" s="31"/>
     </row>
     <row r="78" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A78" s="107"/>
+      <c r="A78" s="108"/>
       <c r="B78" s="5" t="s">
         <v>85</v>
       </c>
@@ -15813,7 +15813,7 @@
       <c r="X78" s="31"/>
     </row>
     <row r="79" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A79" s="107"/>
+      <c r="A79" s="108"/>
       <c r="B79" s="5" t="s">
         <v>86</v>
       </c>
@@ -15841,7 +15841,7 @@
       <c r="X79" s="31"/>
     </row>
     <row r="80" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A80" s="107"/>
+      <c r="A80" s="108"/>
       <c r="B80" s="5" t="s">
         <v>87</v>
       </c>
@@ -15871,7 +15871,7 @@
       <c r="X80" s="32"/>
     </row>
     <row r="81" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A81" s="107"/>
+      <c r="A81" s="108"/>
       <c r="B81" s="5" t="s">
         <v>202</v>
       </c>
@@ -15901,7 +15901,7 @@
       <c r="X81" s="32"/>
     </row>
     <row r="82" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A82" s="107"/>
+      <c r="A82" s="108"/>
       <c r="B82" s="5" t="s">
         <v>89</v>
       </c>
@@ -15933,7 +15933,7 @@
       <c r="X82" s="32"/>
     </row>
     <row r="83" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A83" s="107"/>
+      <c r="A83" s="108"/>
       <c r="B83" s="5" t="s">
         <v>90</v>
       </c>
@@ -15963,7 +15963,7 @@
       <c r="X83" s="32"/>
     </row>
     <row r="84" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A84" s="107"/>
+      <c r="A84" s="108"/>
       <c r="B84" s="5" t="s">
         <v>91</v>
       </c>
@@ -15993,7 +15993,7 @@
       <c r="X84" s="32"/>
     </row>
     <row r="85" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A85" s="107"/>
+      <c r="A85" s="108"/>
       <c r="B85" s="5" t="s">
         <v>92</v>
       </c>
@@ -16025,7 +16025,7 @@
       <c r="X85" s="32"/>
     </row>
     <row r="86" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A86" s="107"/>
+      <c r="A86" s="108"/>
       <c r="B86" s="5" t="s">
         <v>93</v>
       </c>
@@ -16053,7 +16053,7 @@
       <c r="X86" s="31"/>
     </row>
     <row r="87" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A87" s="107"/>
+      <c r="A87" s="108"/>
       <c r="B87" s="5" t="s">
         <v>94</v>
       </c>
@@ -16085,7 +16085,7 @@
       <c r="X87" s="32"/>
     </row>
     <row r="88" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A88" s="107"/>
+      <c r="A88" s="108"/>
       <c r="B88" s="5" t="s">
         <v>95</v>
       </c>
@@ -16117,7 +16117,7 @@
       <c r="X88" s="32"/>
     </row>
     <row r="89" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A89" s="107"/>
+      <c r="A89" s="108"/>
       <c r="B89" s="5" t="s">
         <v>96</v>
       </c>
@@ -16153,7 +16153,7 @@
       <c r="X89" s="32"/>
     </row>
     <row r="90" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A90" s="107"/>
+      <c r="A90" s="108"/>
       <c r="B90" s="5" t="s">
         <v>97</v>
       </c>
@@ -16181,7 +16181,7 @@
       <c r="X90" s="31"/>
     </row>
     <row r="91" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A91" s="107"/>
+      <c r="A91" s="108"/>
       <c r="B91" s="5" t="s">
         <v>98</v>
       </c>
@@ -16253,7 +16253,7 @@
       </c>
     </row>
     <row r="92" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A92" s="107"/>
+      <c r="A92" s="108"/>
       <c r="B92" s="5" t="s">
         <v>99</v>
       </c>
@@ -16325,7 +16325,7 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A93" s="107"/>
+      <c r="A93" s="108"/>
       <c r="B93" s="5" t="s">
         <v>100</v>
       </c>
@@ -16397,7 +16397,7 @@
       </c>
     </row>
     <row r="94" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A94" s="107"/>
+      <c r="A94" s="108"/>
       <c r="B94" s="5" t="s">
         <v>101</v>
       </c>
@@ -16469,7 +16469,7 @@
       </c>
     </row>
     <row r="95" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A95" s="107"/>
+      <c r="A95" s="108"/>
       <c r="B95" s="5" t="s">
         <v>102</v>
       </c>
@@ -16541,7 +16541,7 @@
       </c>
     </row>
     <row r="96" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A96" s="107"/>
+      <c r="A96" s="108"/>
       <c r="B96" s="5" t="s">
         <v>103</v>
       </c>
@@ -16613,7 +16613,7 @@
       </c>
     </row>
     <row r="97" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A97" s="107"/>
+      <c r="A97" s="108"/>
       <c r="B97" s="5" t="s">
         <v>104</v>
       </c>
@@ -16685,7 +16685,7 @@
       </c>
     </row>
     <row r="98" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A98" s="107"/>
+      <c r="A98" s="108"/>
       <c r="B98" s="5" t="s">
         <v>105</v>
       </c>
@@ -16757,7 +16757,7 @@
       </c>
     </row>
     <row r="99" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A99" s="107"/>
+      <c r="A99" s="108"/>
       <c r="B99" s="5" t="s">
         <v>106</v>
       </c>
@@ -16829,7 +16829,7 @@
       </c>
     </row>
     <row r="100" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A100" s="107"/>
+      <c r="A100" s="108"/>
       <c r="B100" s="5" t="s">
         <v>107</v>
       </c>
@@ -16901,7 +16901,7 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A101" s="107"/>
+      <c r="A101" s="108"/>
       <c r="B101" s="5" t="s">
         <v>108</v>
       </c>
@@ -16973,7 +16973,7 @@
       </c>
     </row>
     <row r="102" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A102" s="107"/>
+      <c r="A102" s="108"/>
       <c r="B102" s="5" t="s">
         <v>109</v>
       </c>
@@ -17045,7 +17045,7 @@
       </c>
     </row>
     <row r="103" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A103" s="107"/>
+      <c r="A103" s="108"/>
       <c r="B103" s="5" t="s">
         <v>110</v>
       </c>
@@ -17117,7 +17117,7 @@
       </c>
     </row>
     <row r="104" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A104" s="107"/>
+      <c r="A104" s="108"/>
       <c r="B104" s="5" t="s">
         <v>111</v>
       </c>
@@ -17189,7 +17189,7 @@
       </c>
     </row>
     <row r="105" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A105" s="107"/>
+      <c r="A105" s="108"/>
       <c r="B105" s="5" t="s">
         <v>112</v>
       </c>
@@ -17217,7 +17217,7 @@
       <c r="X105" s="31"/>
     </row>
     <row r="106" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A106" s="107"/>
+      <c r="A106" s="108"/>
       <c r="B106" s="5" t="s">
         <v>113</v>
       </c>
@@ -17289,7 +17289,7 @@
       </c>
     </row>
     <row r="107" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A107" s="107"/>
+      <c r="A107" s="108"/>
       <c r="B107" s="5" t="s">
         <v>114</v>
       </c>
@@ -17317,7 +17317,7 @@
       <c r="X107" s="31"/>
     </row>
     <row r="108" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A108" s="107"/>
+      <c r="A108" s="108"/>
       <c r="B108" s="5" t="s">
         <v>115</v>
       </c>
@@ -17345,7 +17345,7 @@
       <c r="X108" s="31"/>
     </row>
     <row r="109" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A109" s="107"/>
+      <c r="A109" s="108"/>
       <c r="B109" s="5" t="s">
         <v>116</v>
       </c>
@@ -17373,7 +17373,7 @@
       <c r="X109" s="31"/>
     </row>
     <row r="110" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A110" s="107"/>
+      <c r="A110" s="108"/>
       <c r="B110" s="5" t="s">
         <v>117</v>
       </c>
@@ -17401,7 +17401,7 @@
       <c r="X110" s="31"/>
     </row>
     <row r="111" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A111" s="107"/>
+      <c r="A111" s="108"/>
       <c r="B111" s="5" t="s">
         <v>118</v>
       </c>
@@ -17429,7 +17429,7 @@
       <c r="X111" s="31"/>
     </row>
     <row r="112" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A112" s="107"/>
+      <c r="A112" s="108"/>
       <c r="B112" s="5" t="s">
         <v>119</v>
       </c>
@@ -17457,7 +17457,7 @@
       <c r="X112" s="31"/>
     </row>
     <row r="113" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A113" s="107"/>
+      <c r="A113" s="108"/>
       <c r="B113" s="5" t="s">
         <v>120</v>
       </c>
@@ -17485,7 +17485,7 @@
       <c r="X113" s="31"/>
     </row>
     <row r="114" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A114" s="107"/>
+      <c r="A114" s="108"/>
       <c r="B114" s="5" t="s">
         <v>121</v>
       </c>
@@ -17513,7 +17513,7 @@
       <c r="X114" s="31"/>
     </row>
     <row r="115" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A115" s="107"/>
+      <c r="A115" s="108"/>
       <c r="B115" s="5" t="s">
         <v>122</v>
       </c>
@@ -17541,7 +17541,7 @@
       <c r="X115" s="31"/>
     </row>
     <row r="116" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A116" s="107"/>
+      <c r="A116" s="108"/>
       <c r="B116" s="5" t="s">
         <v>205</v>
       </c>
@@ -17569,7 +17569,7 @@
       <c r="X116" s="31"/>
     </row>
     <row r="117" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A117" s="107"/>
+      <c r="A117" s="108"/>
       <c r="B117" s="5" t="s">
         <v>124</v>
       </c>
@@ -17597,7 +17597,7 @@
       <c r="X117" s="31"/>
     </row>
     <row r="118" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A118" s="107"/>
+      <c r="A118" s="108"/>
       <c r="B118" s="5" t="s">
         <v>125</v>
       </c>
@@ -17669,7 +17669,7 @@
       </c>
     </row>
     <row r="119" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A119" s="107"/>
+      <c r="A119" s="108"/>
       <c r="B119" s="6" t="s">
         <v>126</v>
       </c>
@@ -17697,7 +17697,7 @@
       <c r="X119" s="31"/>
     </row>
     <row r="120" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A120" s="107"/>
+      <c r="A120" s="108"/>
       <c r="B120" s="5" t="s">
         <v>127</v>
       </c>
@@ -17769,7 +17769,7 @@
       </c>
     </row>
     <row r="121" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A121" s="107"/>
+      <c r="A121" s="108"/>
       <c r="B121" s="5" t="s">
         <v>128</v>
       </c>
@@ -17841,7 +17841,7 @@
       </c>
     </row>
     <row r="122" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A122" s="107"/>
+      <c r="A122" s="108"/>
       <c r="B122" s="5" t="s">
         <v>129</v>
       </c>
@@ -17869,7 +17869,7 @@
       <c r="X122" s="31"/>
     </row>
     <row r="123" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A123" s="107"/>
+      <c r="A123" s="108"/>
       <c r="B123" s="7" t="s">
         <v>206</v>
       </c>
@@ -17897,7 +17897,7 @@
       <c r="X123" s="31"/>
     </row>
     <row r="124" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A124" s="108"/>
+      <c r="A124" s="109"/>
       <c r="B124" s="5" t="s">
         <v>131</v>
       </c>
@@ -17999,42 +17999,42 @@
     <row r="1" spans="1:123" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="113" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="116" t="s">
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="120"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="119"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
       <c r="AG1" s="36"/>
       <c r="AH1" s="36"/>
       <c r="AI1" s="36"/>
@@ -18495,7 +18495,7 @@
       </c>
     </row>
     <row r="3" spans="1:123" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>177</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -18834,7 +18834,7 @@
       </c>
     </row>
     <row r="4" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A4" s="112"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="19" t="s">
         <v>136</v>
       </c>
@@ -19171,7 +19171,7 @@
       </c>
     </row>
     <row r="5" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A5" s="112"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="19" t="s">
         <v>137</v>
       </c>
@@ -19508,7 +19508,7 @@
       </c>
     </row>
     <row r="6" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A6" s="112"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="19" t="s">
         <v>138</v>
       </c>
@@ -19845,7 +19845,7 @@
       </c>
     </row>
     <row r="7" spans="1:123" s="21" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A7" s="112"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="19" t="s">
         <v>139</v>
       </c>
@@ -20182,7 +20182,7 @@
       </c>
     </row>
     <row r="8" spans="1:123" s="21" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="112"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="19" t="s">
         <v>140</v>
       </c>
@@ -20521,7 +20521,7 @@
       </c>
     </row>
     <row r="9" spans="1:123" s="21" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A9" s="112"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="19" t="s">
         <v>141</v>
       </c>
@@ -20860,7 +20860,7 @@
       </c>
     </row>
     <row r="10" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A10" s="112"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="19" t="s">
         <v>142</v>
       </c>
@@ -21199,7 +21199,7 @@
       </c>
     </row>
     <row r="11" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A11" s="112"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="19" t="s">
         <v>143</v>
       </c>
@@ -21538,7 +21538,7 @@
       </c>
     </row>
     <row r="12" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A12" s="112"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="19" t="s">
         <v>145</v>
       </c>
@@ -21665,7 +21665,7 @@
       <c r="DS12" s="33"/>
     </row>
     <row r="13" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A13" s="112"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="19" t="s">
         <v>146</v>
       </c>
@@ -21792,7 +21792,7 @@
       <c r="DS13" s="33"/>
     </row>
     <row r="14" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A14" s="112"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="19" t="s">
         <v>147</v>
       </c>
@@ -21919,7 +21919,7 @@
       <c r="DS14" s="33"/>
     </row>
     <row r="15" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A15" s="112"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="19" t="s">
         <v>148</v>
       </c>
@@ -22046,7 +22046,7 @@
       <c r="DS15" s="33"/>
     </row>
     <row r="16" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A16" s="112"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="19" t="s">
         <v>149</v>
       </c>
@@ -22173,7 +22173,7 @@
       <c r="DS16" s="33"/>
     </row>
     <row r="17" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A17" s="112"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="19" t="s">
         <v>150</v>
       </c>
@@ -22300,7 +22300,7 @@
       <c r="DS17" s="33"/>
     </row>
     <row r="18" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A18" s="112"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="19" t="s">
         <v>151</v>
       </c>
@@ -22639,7 +22639,7 @@
       </c>
     </row>
     <row r="19" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A19" s="112"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="19" t="s">
         <v>152</v>
       </c>
@@ -22766,7 +22766,7 @@
       <c r="DS19" s="40"/>
     </row>
     <row r="20" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A20" s="112"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="19" t="s">
         <v>153</v>
       </c>
@@ -23105,7 +23105,7 @@
       </c>
     </row>
     <row r="21" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A21" s="112"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="19" t="s">
         <v>154</v>
       </c>
@@ -23444,7 +23444,7 @@
       </c>
     </row>
     <row r="22" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A22" s="112"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="19" t="s">
         <v>155</v>
       </c>
@@ -23783,7 +23783,7 @@
       </c>
     </row>
     <row r="23" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A23" s="112"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="19" t="s">
         <v>156</v>
       </c>
@@ -24122,7 +24122,7 @@
       </c>
     </row>
     <row r="24" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A24" s="112"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="19" t="s">
         <v>157</v>
       </c>
@@ -24453,7 +24453,7 @@
       <c r="DS24" s="33"/>
     </row>
     <row r="25" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A25" s="112"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="19" t="s">
         <v>158</v>
       </c>
@@ -24580,7 +24580,7 @@
       <c r="DS25" s="34"/>
     </row>
     <row r="26" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A26" s="112"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="19" t="s">
         <v>159</v>
       </c>
@@ -24707,7 +24707,7 @@
       <c r="DS26" s="34"/>
     </row>
     <row r="27" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A27" s="112"/>
+      <c r="A27" s="113"/>
       <c r="B27" s="19" t="s">
         <v>160</v>
       </c>
@@ -24834,7 +24834,7 @@
       <c r="DS27" s="34"/>
     </row>
     <row r="28" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A28" s="112"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="19" t="s">
         <v>208</v>
       </c>
@@ -25013,7 +25013,7 @@
       <c r="DS28" s="33"/>
     </row>
     <row r="29" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A29" s="112"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="19" t="s">
         <v>209</v>
       </c>
@@ -25192,7 +25192,7 @@
       <c r="DS29" s="33"/>
     </row>
     <row r="30" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A30" s="112"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="19" t="s">
         <v>210</v>
       </c>
@@ -25371,7 +25371,7 @@
       <c r="DS30" s="33"/>
     </row>
     <row r="31" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A31" s="112"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="19" t="s">
         <v>211</v>
       </c>
@@ -25550,7 +25550,7 @@
       <c r="DS31" s="33"/>
     </row>
     <row r="32" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A32" s="112"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="19" t="s">
         <v>212</v>
       </c>
@@ -25729,7 +25729,7 @@
       <c r="DS32" s="33"/>
     </row>
     <row r="33" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A33" s="112"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="19" t="s">
         <v>188</v>
       </c>
@@ -26064,7 +26064,7 @@
       </c>
     </row>
     <row r="34" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A34" s="112"/>
+      <c r="A34" s="113"/>
       <c r="B34" s="20" t="s">
         <v>189</v>
       </c>
@@ -26401,7 +26401,7 @@
       </c>
     </row>
     <row r="35" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A35" s="112"/>
+      <c r="A35" s="113"/>
       <c r="B35" s="20" t="s">
         <v>190</v>
       </c>
@@ -26740,7 +26740,7 @@
       </c>
     </row>
     <row r="36" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A36" s="112"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="20" t="s">
         <v>191</v>
       </c>
@@ -27079,7 +27079,7 @@
       </c>
     </row>
     <row r="37" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A37" s="112"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="20" t="s">
         <v>192</v>
       </c>
@@ -27755,8 +27755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC160"/>
   <sheetViews>
-    <sheetView topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -27769,18 +27769,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="34.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:55" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
       <c r="C2" s="70" t="s">
         <v>220</v>
       </c>
@@ -27844,7 +27844,7 @@
       <c r="BC2" s="13"/>
     </row>
     <row r="3" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="122" t="s">
         <v>165</v>
       </c>
       <c r="B3" s="68" t="s">
@@ -27856,7 +27856,7 @@
       <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A4" s="121"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="68" t="s">
         <v>12</v>
       </c>
@@ -27866,7 +27866,7 @@
       <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A5" s="121"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="68" t="s">
         <v>13</v>
       </c>
@@ -27876,7 +27876,7 @@
       <c r="F5" s="67"/>
     </row>
     <row r="6" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A6" s="121"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="68" t="s">
         <v>14</v>
       </c>
@@ -27886,7 +27886,7 @@
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A7" s="121"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="68" t="s">
         <v>15</v>
       </c>
@@ -27896,7 +27896,7 @@
       <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="121"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="68" t="s">
         <v>16</v>
       </c>
@@ -27906,17 +27906,19 @@
       <c r="F8" s="67"/>
     </row>
     <row r="9" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A9" s="121"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="74" t="s">
+        <v>235</v>
+      </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A10" s="121"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="68" t="s">
         <v>18</v>
       </c>
@@ -27926,7 +27928,7 @@
       <c r="F10" s="67"/>
     </row>
     <row r="11" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A11" s="121"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="68" t="s">
         <v>19</v>
       </c>
@@ -27936,7 +27938,7 @@
       <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A12" s="121"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="68" t="s">
         <v>20</v>
       </c>
@@ -27946,7 +27948,7 @@
       <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A13" s="121"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="68" t="s">
         <v>11</v>
       </c>
@@ -27956,7 +27958,7 @@
       <c r="F13" s="67"/>
     </row>
     <row r="14" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A14" s="121"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="68" t="s">
         <v>22</v>
       </c>
@@ -27966,7 +27968,7 @@
       <c r="F14" s="67"/>
     </row>
     <row r="15" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A15" s="121"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="68" t="s">
         <v>12</v>
       </c>
@@ -27976,7 +27978,7 @@
       <c r="F15" s="67"/>
     </row>
     <row r="16" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A16" s="121"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="68" t="s">
         <v>24</v>
       </c>
@@ -27986,7 +27988,7 @@
       <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A17" s="121"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="68" t="s">
         <v>25</v>
       </c>
@@ -27996,7 +27998,7 @@
       <c r="F17" s="67"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A18" s="121"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="68" t="s">
         <v>26</v>
       </c>
@@ -28006,7 +28008,7 @@
       <c r="F18" s="67"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A19" s="121"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="68" t="s">
         <v>27</v>
       </c>
@@ -28016,7 +28018,7 @@
       <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A20" s="121"/>
+      <c r="A20" s="122"/>
       <c r="B20" s="68" t="s">
         <v>28</v>
       </c>
@@ -28026,7 +28028,7 @@
       <c r="F20" s="67"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A21" s="121"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="68" t="s">
         <v>29</v>
       </c>
@@ -28036,7 +28038,7 @@
       <c r="F21" s="67"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A22" s="121"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="68" t="s">
         <v>30</v>
       </c>
@@ -28046,7 +28048,7 @@
       <c r="F22" s="67"/>
     </row>
     <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A23" s="121"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="68" t="s">
         <v>31</v>
       </c>
@@ -28056,7 +28058,7 @@
       <c r="F23" s="67"/>
     </row>
     <row r="24" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A24" s="121"/>
+      <c r="A24" s="122"/>
       <c r="B24" s="68" t="s">
         <v>32</v>
       </c>
@@ -28066,7 +28068,7 @@
       <c r="F24" s="67"/>
     </row>
     <row r="25" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A25" s="121"/>
+      <c r="A25" s="122"/>
       <c r="B25" s="68" t="s">
         <v>33</v>
       </c>
@@ -28076,7 +28078,7 @@
       <c r="F25" s="67"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A26" s="121"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="68" t="s">
         <v>34</v>
       </c>
@@ -28086,7 +28088,7 @@
       <c r="F26" s="67"/>
     </row>
     <row r="27" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A27" s="121"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="68" t="s">
         <v>35</v>
       </c>
@@ -28096,7 +28098,7 @@
       <c r="F27" s="67"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A28" s="121"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="68" t="s">
         <v>36</v>
       </c>
@@ -28106,7 +28108,7 @@
       <c r="F28" s="67"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A29" s="121"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="68" t="s">
         <v>37</v>
       </c>
@@ -28116,7 +28118,7 @@
       <c r="F29" s="67"/>
     </row>
     <row r="30" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A30" s="121"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="68" t="s">
         <v>38</v>
       </c>
@@ -28126,7 +28128,7 @@
       <c r="F30" s="67"/>
     </row>
     <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A31" s="121"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="68" t="s">
         <v>39</v>
       </c>
@@ -28136,7 +28138,7 @@
       <c r="F31" s="67"/>
     </row>
     <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A32" s="121"/>
+      <c r="A32" s="122"/>
       <c r="B32" s="68" t="s">
         <v>40</v>
       </c>
@@ -28146,7 +28148,7 @@
       <c r="F32" s="67"/>
     </row>
     <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A33" s="121"/>
+      <c r="A33" s="122"/>
       <c r="B33" s="68" t="s">
         <v>41</v>
       </c>
@@ -28156,7 +28158,7 @@
       <c r="F33" s="67"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A34" s="121"/>
+      <c r="A34" s="122"/>
       <c r="B34" s="68" t="s">
         <v>42</v>
       </c>
@@ -28166,7 +28168,7 @@
       <c r="F34" s="67"/>
     </row>
     <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A35" s="121"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="68" t="s">
         <v>43</v>
       </c>
@@ -28176,7 +28178,7 @@
       <c r="F35" s="67"/>
     </row>
     <row r="36" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A36" s="121"/>
+      <c r="A36" s="122"/>
       <c r="B36" s="68" t="s">
         <v>44</v>
       </c>
@@ -28186,7 +28188,7 @@
       <c r="F36" s="67"/>
     </row>
     <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A37" s="121"/>
+      <c r="A37" s="122"/>
       <c r="B37" s="68" t="s">
         <v>45</v>
       </c>
@@ -28196,7 +28198,7 @@
       <c r="F37" s="67"/>
     </row>
     <row r="38" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A38" s="121"/>
+      <c r="A38" s="122"/>
       <c r="B38" s="68" t="s">
         <v>46</v>
       </c>
@@ -28206,7 +28208,7 @@
       <c r="F38" s="67"/>
     </row>
     <row r="39" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A39" s="121"/>
+      <c r="A39" s="122"/>
       <c r="B39" s="68" t="s">
         <v>47</v>
       </c>
@@ -28216,7 +28218,7 @@
       <c r="F39" s="67"/>
     </row>
     <row r="40" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A40" s="121"/>
+      <c r="A40" s="122"/>
       <c r="B40" s="68" t="s">
         <v>38</v>
       </c>
@@ -28226,7 +28228,7 @@
       <c r="F40" s="67"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A41" s="121"/>
+      <c r="A41" s="122"/>
       <c r="B41" s="68" t="s">
         <v>49</v>
       </c>
@@ -28236,7 +28238,7 @@
       <c r="F41" s="67"/>
     </row>
     <row r="42" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A42" s="121"/>
+      <c r="A42" s="122"/>
       <c r="B42" s="68" t="s">
         <v>50</v>
       </c>
@@ -28246,7 +28248,7 @@
       <c r="F42" s="67"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A43" s="121"/>
+      <c r="A43" s="122"/>
       <c r="B43" s="68" t="s">
         <v>51</v>
       </c>
@@ -28256,7 +28258,7 @@
       <c r="F43" s="67"/>
     </row>
     <row r="44" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A44" s="121"/>
+      <c r="A44" s="122"/>
       <c r="B44" s="68" t="s">
         <v>52</v>
       </c>
@@ -28266,7 +28268,7 @@
       <c r="F44" s="67"/>
     </row>
     <row r="45" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A45" s="121"/>
+      <c r="A45" s="122"/>
       <c r="B45" s="68" t="s">
         <v>53</v>
       </c>
@@ -28276,7 +28278,7 @@
       <c r="F45" s="67"/>
     </row>
     <row r="46" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A46" s="121"/>
+      <c r="A46" s="122"/>
       <c r="B46" s="68" t="s">
         <v>54</v>
       </c>
@@ -28286,7 +28288,7 @@
       <c r="F46" s="67"/>
     </row>
     <row r="47" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A47" s="121"/>
+      <c r="A47" s="122"/>
       <c r="B47" s="68" t="s">
         <v>55</v>
       </c>
@@ -28296,7 +28298,7 @@
       <c r="F47" s="67"/>
     </row>
     <row r="48" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A48" s="121"/>
+      <c r="A48" s="122"/>
       <c r="B48" s="68" t="s">
         <v>56</v>
       </c>
@@ -28306,7 +28308,7 @@
       <c r="F48" s="67"/>
     </row>
     <row r="49" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A49" s="121"/>
+      <c r="A49" s="122"/>
       <c r="B49" s="68" t="s">
         <v>57</v>
       </c>
@@ -28316,7 +28318,7 @@
       <c r="F49" s="67"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A50" s="121"/>
+      <c r="A50" s="122"/>
       <c r="B50" s="68" t="s">
         <v>39</v>
       </c>
@@ -28326,7 +28328,7 @@
       <c r="F50" s="67"/>
     </row>
     <row r="51" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A51" s="121"/>
+      <c r="A51" s="122"/>
       <c r="B51" s="68" t="s">
         <v>59</v>
       </c>
@@ -28336,7 +28338,7 @@
       <c r="F51" s="67"/>
     </row>
     <row r="52" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A52" s="121"/>
+      <c r="A52" s="122"/>
       <c r="B52" s="68" t="s">
         <v>60</v>
       </c>
@@ -28346,7 +28348,7 @@
       <c r="F52" s="67"/>
     </row>
     <row r="53" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A53" s="121"/>
+      <c r="A53" s="122"/>
       <c r="B53" s="68" t="s">
         <v>61</v>
       </c>
@@ -28356,7 +28358,7 @@
       <c r="F53" s="67"/>
     </row>
     <row r="54" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A54" s="121"/>
+      <c r="A54" s="122"/>
       <c r="B54" s="68" t="s">
         <v>62</v>
       </c>
@@ -28366,7 +28368,7 @@
       <c r="F54" s="67"/>
     </row>
     <row r="55" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A55" s="121"/>
+      <c r="A55" s="122"/>
       <c r="B55" s="68" t="s">
         <v>63</v>
       </c>
@@ -28376,7 +28378,7 @@
       <c r="F55" s="67"/>
     </row>
     <row r="56" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A56" s="121"/>
+      <c r="A56" s="122"/>
       <c r="B56" s="68" t="s">
         <v>64</v>
       </c>
@@ -28386,7 +28388,7 @@
       <c r="F56" s="67"/>
     </row>
     <row r="57" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A57" s="121"/>
+      <c r="A57" s="122"/>
       <c r="B57" s="68" t="s">
         <v>65</v>
       </c>
@@ -28396,7 +28398,7 @@
       <c r="F57" s="67"/>
     </row>
     <row r="58" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A58" s="121"/>
+      <c r="A58" s="122"/>
       <c r="B58" s="68" t="s">
         <v>66</v>
       </c>
@@ -28406,7 +28408,7 @@
       <c r="F58" s="67"/>
     </row>
     <row r="59" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A59" s="121"/>
+      <c r="A59" s="122"/>
       <c r="B59" s="68" t="s">
         <v>67</v>
       </c>
@@ -28416,7 +28418,7 @@
       <c r="F59" s="67"/>
     </row>
     <row r="60" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A60" s="121"/>
+      <c r="A60" s="122"/>
       <c r="B60" s="68" t="s">
         <v>68</v>
       </c>
@@ -28426,7 +28428,7 @@
       <c r="F60" s="67"/>
     </row>
     <row r="61" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A61" s="121"/>
+      <c r="A61" s="122"/>
       <c r="B61" s="68" t="s">
         <v>69</v>
       </c>
@@ -28436,7 +28438,7 @@
       <c r="F61" s="67"/>
     </row>
     <row r="62" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A62" s="121"/>
+      <c r="A62" s="122"/>
       <c r="B62" s="68" t="s">
         <v>70</v>
       </c>
@@ -28446,7 +28448,7 @@
       <c r="F62" s="67"/>
     </row>
     <row r="63" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A63" s="121"/>
+      <c r="A63" s="122"/>
       <c r="B63" s="68" t="s">
         <v>31</v>
       </c>
@@ -28456,7 +28458,7 @@
       <c r="F63" s="67"/>
     </row>
     <row r="64" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A64" s="121"/>
+      <c r="A64" s="122"/>
       <c r="B64" s="68" t="s">
         <v>72</v>
       </c>
@@ -28466,7 +28468,7 @@
       <c r="F64" s="67"/>
     </row>
     <row r="65" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A65" s="121"/>
+      <c r="A65" s="122"/>
       <c r="B65" s="68" t="s">
         <v>73</v>
       </c>
@@ -28476,7 +28478,7 @@
       <c r="F65" s="67"/>
     </row>
     <row r="66" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A66" s="121"/>
+      <c r="A66" s="122"/>
       <c r="B66" s="68" t="s">
         <v>74</v>
       </c>
@@ -28486,7 +28488,7 @@
       <c r="F66" s="67"/>
     </row>
     <row r="67" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A67" s="121"/>
+      <c r="A67" s="122"/>
       <c r="B67" s="68" t="s">
         <v>75</v>
       </c>
@@ -28496,7 +28498,7 @@
       <c r="F67" s="67"/>
     </row>
     <row r="68" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A68" s="121"/>
+      <c r="A68" s="122"/>
       <c r="B68" s="69" t="s">
         <v>76</v>
       </c>
@@ -28506,7 +28508,7 @@
       <c r="F68" s="67"/>
     </row>
     <row r="69" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A69" s="121"/>
+      <c r="A69" s="122"/>
       <c r="B69" s="69" t="s">
         <v>77</v>
       </c>
@@ -28516,7 +28518,7 @@
       <c r="F69" s="67"/>
     </row>
     <row r="70" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A70" s="121"/>
+      <c r="A70" s="122"/>
       <c r="B70" s="69" t="s">
         <v>78</v>
       </c>
@@ -28526,7 +28528,7 @@
       <c r="F70" s="67"/>
     </row>
     <row r="71" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A71" s="121"/>
+      <c r="A71" s="122"/>
       <c r="B71" s="69" t="s">
         <v>79</v>
       </c>
@@ -28536,7 +28538,7 @@
       <c r="F71" s="67"/>
     </row>
     <row r="72" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A72" s="121"/>
+      <c r="A72" s="122"/>
       <c r="B72" s="69" t="s">
         <v>80</v>
       </c>
@@ -28546,7 +28548,7 @@
       <c r="F72" s="67"/>
     </row>
     <row r="73" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A73" s="121"/>
+      <c r="A73" s="122"/>
       <c r="B73" s="69" t="s">
         <v>81</v>
       </c>
@@ -28556,7 +28558,7 @@
       <c r="F73" s="67"/>
     </row>
     <row r="74" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A74" s="121"/>
+      <c r="A74" s="122"/>
       <c r="B74" s="69" t="s">
         <v>82</v>
       </c>
@@ -28566,7 +28568,7 @@
       <c r="F74" s="67"/>
     </row>
     <row r="75" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A75" s="121"/>
+      <c r="A75" s="122"/>
       <c r="B75" s="69" t="s">
         <v>83</v>
       </c>
@@ -28576,7 +28578,7 @@
       <c r="F75" s="67"/>
     </row>
     <row r="76" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A76" s="121"/>
+      <c r="A76" s="122"/>
       <c r="B76" s="69" t="s">
         <v>84</v>
       </c>
@@ -28586,7 +28588,7 @@
       <c r="F76" s="67"/>
     </row>
     <row r="77" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A77" s="121"/>
+      <c r="A77" s="122"/>
       <c r="B77" s="69" t="s">
         <v>85</v>
       </c>
@@ -28596,7 +28598,7 @@
       <c r="F77" s="67"/>
     </row>
     <row r="78" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A78" s="121"/>
+      <c r="A78" s="122"/>
       <c r="B78" s="69" t="s">
         <v>86</v>
       </c>
@@ -28606,7 +28608,7 @@
       <c r="F78" s="67"/>
     </row>
     <row r="79" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A79" s="121"/>
+      <c r="A79" s="122"/>
       <c r="B79" s="69" t="s">
         <v>87</v>
       </c>
@@ -28616,7 +28618,7 @@
       <c r="F79" s="67"/>
     </row>
     <row r="80" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A80" s="121"/>
+      <c r="A80" s="122"/>
       <c r="B80" s="69" t="s">
         <v>202</v>
       </c>
@@ -28626,7 +28628,7 @@
       <c r="F80" s="67"/>
     </row>
     <row r="81" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A81" s="121"/>
+      <c r="A81" s="122"/>
       <c r="B81" s="69" t="s">
         <v>89</v>
       </c>
@@ -28636,7 +28638,7 @@
       <c r="F81" s="67"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A82" s="121"/>
+      <c r="A82" s="122"/>
       <c r="B82" s="69" t="s">
         <v>90</v>
       </c>
@@ -28646,7 +28648,7 @@
       <c r="F82" s="67"/>
     </row>
     <row r="83" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A83" s="121"/>
+      <c r="A83" s="122"/>
       <c r="B83" s="69" t="s">
         <v>91</v>
       </c>
@@ -28656,7 +28658,7 @@
       <c r="F83" s="67"/>
     </row>
     <row r="84" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A84" s="121"/>
+      <c r="A84" s="122"/>
       <c r="B84" s="69" t="s">
         <v>92</v>
       </c>
@@ -28666,7 +28668,7 @@
       <c r="F84" s="67"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A85" s="121"/>
+      <c r="A85" s="122"/>
       <c r="B85" s="69" t="s">
         <v>93</v>
       </c>
@@ -28676,7 +28678,7 @@
       <c r="F85" s="67"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A86" s="121"/>
+      <c r="A86" s="122"/>
       <c r="B86" s="69" t="s">
         <v>94</v>
       </c>
@@ -28686,7 +28688,7 @@
       <c r="F86" s="67"/>
     </row>
     <row r="87" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A87" s="121"/>
+      <c r="A87" s="122"/>
       <c r="B87" s="69" t="s">
         <v>95</v>
       </c>
@@ -28696,7 +28698,7 @@
       <c r="F87" s="67"/>
     </row>
     <row r="88" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A88" s="121"/>
+      <c r="A88" s="122"/>
       <c r="B88" s="69" t="s">
         <v>96</v>
       </c>
@@ -28706,7 +28708,7 @@
       <c r="F88" s="67"/>
     </row>
     <row r="89" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A89" s="121"/>
+      <c r="A89" s="122"/>
       <c r="B89" s="69" t="s">
         <v>97</v>
       </c>
@@ -28716,7 +28718,7 @@
       <c r="F89" s="67"/>
     </row>
     <row r="90" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A90" s="121"/>
+      <c r="A90" s="122"/>
       <c r="B90" s="69" t="s">
         <v>98</v>
       </c>
@@ -28726,7 +28728,7 @@
       <c r="F90" s="67"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A91" s="121"/>
+      <c r="A91" s="122"/>
       <c r="B91" s="69" t="s">
         <v>99</v>
       </c>
@@ -28736,7 +28738,7 @@
       <c r="F91" s="67"/>
     </row>
     <row r="92" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A92" s="121"/>
+      <c r="A92" s="122"/>
       <c r="B92" s="69" t="s">
         <v>100</v>
       </c>
@@ -28746,7 +28748,7 @@
       <c r="F92" s="67"/>
     </row>
     <row r="93" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A93" s="121"/>
+      <c r="A93" s="122"/>
       <c r="B93" s="69" t="s">
         <v>101</v>
       </c>
@@ -28756,7 +28758,7 @@
       <c r="F93" s="67"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A94" s="121"/>
+      <c r="A94" s="122"/>
       <c r="B94" s="69" t="s">
         <v>102</v>
       </c>
@@ -28766,7 +28768,7 @@
       <c r="F94" s="67"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A95" s="121"/>
+      <c r="A95" s="122"/>
       <c r="B95" s="69" t="s">
         <v>103</v>
       </c>
@@ -28776,7 +28778,7 @@
       <c r="F95" s="67"/>
     </row>
     <row r="96" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A96" s="121"/>
+      <c r="A96" s="122"/>
       <c r="B96" s="69" t="s">
         <v>104</v>
       </c>
@@ -28786,7 +28788,7 @@
       <c r="F96" s="67"/>
     </row>
     <row r="97" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A97" s="121"/>
+      <c r="A97" s="122"/>
       <c r="B97" s="69" t="s">
         <v>105</v>
       </c>
@@ -28796,7 +28798,7 @@
       <c r="F97" s="67"/>
     </row>
     <row r="98" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A98" s="121"/>
+      <c r="A98" s="122"/>
       <c r="B98" s="69" t="s">
         <v>106</v>
       </c>
@@ -28806,7 +28808,7 @@
       <c r="F98" s="67"/>
     </row>
     <row r="99" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A99" s="121"/>
+      <c r="A99" s="122"/>
       <c r="B99" s="69" t="s">
         <v>107</v>
       </c>
@@ -28816,7 +28818,7 @@
       <c r="F99" s="67"/>
     </row>
     <row r="100" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A100" s="121"/>
+      <c r="A100" s="122"/>
       <c r="B100" s="69" t="s">
         <v>108</v>
       </c>
@@ -28826,7 +28828,7 @@
       <c r="F100" s="67"/>
     </row>
     <row r="101" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A101" s="121"/>
+      <c r="A101" s="122"/>
       <c r="B101" s="69" t="s">
         <v>109</v>
       </c>
@@ -28836,7 +28838,7 @@
       <c r="F101" s="67"/>
     </row>
     <row r="102" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A102" s="121"/>
+      <c r="A102" s="122"/>
       <c r="B102" s="69" t="s">
         <v>110</v>
       </c>
@@ -28846,7 +28848,7 @@
       <c r="F102" s="67"/>
     </row>
     <row r="103" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A103" s="121"/>
+      <c r="A103" s="122"/>
       <c r="B103" s="69" t="s">
         <v>111</v>
       </c>
@@ -28856,7 +28858,7 @@
       <c r="F103" s="67"/>
     </row>
     <row r="104" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A104" s="121"/>
+      <c r="A104" s="122"/>
       <c r="B104" s="69" t="s">
         <v>112</v>
       </c>
@@ -28866,7 +28868,7 @@
       <c r="F104" s="67"/>
     </row>
     <row r="105" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A105" s="121"/>
+      <c r="A105" s="122"/>
       <c r="B105" s="69" t="s">
         <v>113</v>
       </c>
@@ -28876,7 +28878,7 @@
       <c r="F105" s="67"/>
     </row>
     <row r="106" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A106" s="121"/>
+      <c r="A106" s="122"/>
       <c r="B106" s="69" t="s">
         <v>114</v>
       </c>
@@ -28886,7 +28888,7 @@
       <c r="F106" s="67"/>
     </row>
     <row r="107" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A107" s="121"/>
+      <c r="A107" s="122"/>
       <c r="B107" s="69" t="s">
         <v>115</v>
       </c>
@@ -28896,7 +28898,7 @@
       <c r="F107" s="67"/>
     </row>
     <row r="108" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A108" s="121"/>
+      <c r="A108" s="122"/>
       <c r="B108" s="69" t="s">
         <v>116</v>
       </c>
@@ -28906,7 +28908,7 @@
       <c r="F108" s="67"/>
     </row>
     <row r="109" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A109" s="121"/>
+      <c r="A109" s="122"/>
       <c r="B109" s="69" t="s">
         <v>117</v>
       </c>
@@ -28916,7 +28918,7 @@
       <c r="F109" s="67"/>
     </row>
     <row r="110" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A110" s="121"/>
+      <c r="A110" s="122"/>
       <c r="B110" s="69" t="s">
         <v>118</v>
       </c>
@@ -28926,7 +28928,7 @@
       <c r="F110" s="67"/>
     </row>
     <row r="111" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A111" s="121"/>
+      <c r="A111" s="122"/>
       <c r="B111" s="69" t="s">
         <v>119</v>
       </c>
@@ -28936,7 +28938,7 @@
       <c r="F111" s="67"/>
     </row>
     <row r="112" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A112" s="121"/>
+      <c r="A112" s="122"/>
       <c r="B112" s="69" t="s">
         <v>120</v>
       </c>
@@ -28946,7 +28948,7 @@
       <c r="F112" s="67"/>
     </row>
     <row r="113" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A113" s="121"/>
+      <c r="A113" s="122"/>
       <c r="B113" s="69" t="s">
         <v>121</v>
       </c>
@@ -28956,7 +28958,7 @@
       <c r="F113" s="67"/>
     </row>
     <row r="114" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A114" s="121"/>
+      <c r="A114" s="122"/>
       <c r="B114" s="69" t="s">
         <v>122</v>
       </c>
@@ -28966,7 +28968,7 @@
       <c r="F114" s="67"/>
     </row>
     <row r="115" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A115" s="121"/>
+      <c r="A115" s="122"/>
       <c r="B115" s="69" t="s">
         <v>205</v>
       </c>
@@ -28976,7 +28978,7 @@
       <c r="F115" s="67"/>
     </row>
     <row r="116" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A116" s="121"/>
+      <c r="A116" s="122"/>
       <c r="B116" s="69" t="s">
         <v>124</v>
       </c>
@@ -28986,7 +28988,7 @@
       <c r="F116" s="67"/>
     </row>
     <row r="117" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A117" s="121"/>
+      <c r="A117" s="122"/>
       <c r="B117" s="69" t="s">
         <v>125</v>
       </c>
@@ -28996,7 +28998,7 @@
       <c r="F117" s="67"/>
     </row>
     <row r="118" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A118" s="121"/>
+      <c r="A118" s="122"/>
       <c r="B118" s="69" t="s">
         <v>126</v>
       </c>
@@ -29006,7 +29008,7 @@
       <c r="F118" s="67"/>
     </row>
     <row r="119" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A119" s="121"/>
+      <c r="A119" s="122"/>
       <c r="B119" s="69" t="s">
         <v>127</v>
       </c>
@@ -29016,7 +29018,7 @@
       <c r="F119" s="67"/>
     </row>
     <row r="120" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A120" s="121"/>
+      <c r="A120" s="122"/>
       <c r="B120" s="69" t="s">
         <v>128</v>
       </c>
@@ -29026,7 +29028,7 @@
       <c r="F120" s="67"/>
     </row>
     <row r="121" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A121" s="121"/>
+      <c r="A121" s="122"/>
       <c r="B121" s="69" t="s">
         <v>129</v>
       </c>
@@ -29036,7 +29038,7 @@
       <c r="F121" s="67"/>
     </row>
     <row r="122" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A122" s="121"/>
+      <c r="A122" s="122"/>
       <c r="B122" s="69" t="s">
         <v>206</v>
       </c>
@@ -29046,7 +29048,7 @@
       <c r="F122" s="67"/>
     </row>
     <row r="123" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A123" s="121"/>
+      <c r="A123" s="122"/>
       <c r="B123" s="69" t="s">
         <v>131</v>
       </c>
@@ -29064,7 +29066,7 @@
       <c r="F124" s="67"/>
     </row>
     <row r="125" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A125" s="122" t="s">
+      <c r="A125" s="123" t="s">
         <v>177</v>
       </c>
       <c r="B125" s="68" t="s">
@@ -29076,7 +29078,7 @@
       <c r="F125" s="67"/>
     </row>
     <row r="126" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A126" s="122"/>
+      <c r="A126" s="123"/>
       <c r="B126" s="68" t="s">
         <v>136</v>
       </c>
@@ -29086,7 +29088,7 @@
       <c r="F126" s="67"/>
     </row>
     <row r="127" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A127" s="122"/>
+      <c r="A127" s="123"/>
       <c r="B127" s="68" t="s">
         <v>137</v>
       </c>
@@ -29096,7 +29098,7 @@
       <c r="F127" s="67"/>
     </row>
     <row r="128" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A128" s="122"/>
+      <c r="A128" s="123"/>
       <c r="B128" s="68" t="s">
         <v>138</v>
       </c>
@@ -29106,7 +29108,7 @@
       <c r="F128" s="67"/>
     </row>
     <row r="129" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A129" s="122"/>
+      <c r="A129" s="123"/>
       <c r="B129" s="68" t="s">
         <v>139</v>
       </c>
@@ -29116,7 +29118,7 @@
       <c r="F129" s="67"/>
     </row>
     <row r="130" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A130" s="122"/>
+      <c r="A130" s="123"/>
       <c r="B130" s="68" t="s">
         <v>140</v>
       </c>
@@ -29126,7 +29128,7 @@
       <c r="F130" s="67"/>
     </row>
     <row r="131" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A131" s="122"/>
+      <c r="A131" s="123"/>
       <c r="B131" s="68" t="s">
         <v>141</v>
       </c>
@@ -29136,7 +29138,7 @@
       <c r="F131" s="67"/>
     </row>
     <row r="132" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A132" s="122"/>
+      <c r="A132" s="123"/>
       <c r="B132" s="68" t="s">
         <v>142</v>
       </c>
@@ -29146,7 +29148,7 @@
       <c r="F132" s="67"/>
     </row>
     <row r="133" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A133" s="122"/>
+      <c r="A133" s="123"/>
       <c r="B133" s="68" t="s">
         <v>143</v>
       </c>
@@ -29156,7 +29158,7 @@
       <c r="F133" s="67"/>
     </row>
     <row r="134" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A134" s="122"/>
+      <c r="A134" s="123"/>
       <c r="B134" s="68" t="s">
         <v>145</v>
       </c>
@@ -29166,7 +29168,7 @@
       <c r="F134" s="67"/>
     </row>
     <row r="135" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A135" s="122"/>
+      <c r="A135" s="123"/>
       <c r="B135" s="68" t="s">
         <v>146</v>
       </c>
@@ -29176,7 +29178,7 @@
       <c r="F135" s="67"/>
     </row>
     <row r="136" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A136" s="122"/>
+      <c r="A136" s="123"/>
       <c r="B136" s="68" t="s">
         <v>147</v>
       </c>
@@ -29186,7 +29188,7 @@
       <c r="F136" s="67"/>
     </row>
     <row r="137" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A137" s="122"/>
+      <c r="A137" s="123"/>
       <c r="B137" s="68" t="s">
         <v>148</v>
       </c>
@@ -29196,7 +29198,7 @@
       <c r="F137" s="67"/>
     </row>
     <row r="138" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A138" s="122"/>
+      <c r="A138" s="123"/>
       <c r="B138" s="68" t="s">
         <v>149</v>
       </c>
@@ -29206,7 +29208,7 @@
       <c r="F138" s="67"/>
     </row>
     <row r="139" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A139" s="122"/>
+      <c r="A139" s="123"/>
       <c r="B139" s="68" t="s">
         <v>150</v>
       </c>
@@ -29216,7 +29218,7 @@
       <c r="F139" s="67"/>
     </row>
     <row r="140" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A140" s="122"/>
+      <c r="A140" s="123"/>
       <c r="B140" s="68" t="s">
         <v>151</v>
       </c>
@@ -29226,7 +29228,7 @@
       <c r="F140" s="67"/>
     </row>
     <row r="141" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A141" s="122"/>
+      <c r="A141" s="123"/>
       <c r="B141" s="68" t="s">
         <v>152</v>
       </c>
@@ -29236,7 +29238,7 @@
       <c r="F141" s="67"/>
     </row>
     <row r="142" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A142" s="122"/>
+      <c r="A142" s="123"/>
       <c r="B142" s="68" t="s">
         <v>153</v>
       </c>
@@ -29246,7 +29248,7 @@
       <c r="F142" s="67"/>
     </row>
     <row r="143" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A143" s="122"/>
+      <c r="A143" s="123"/>
       <c r="B143" s="68" t="s">
         <v>154</v>
       </c>
@@ -29256,7 +29258,7 @@
       <c r="F143" s="67"/>
     </row>
     <row r="144" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A144" s="122"/>
+      <c r="A144" s="123"/>
       <c r="B144" s="68" t="s">
         <v>155</v>
       </c>
@@ -29266,7 +29268,7 @@
       <c r="F144" s="67"/>
     </row>
     <row r="145" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A145" s="122"/>
+      <c r="A145" s="123"/>
       <c r="B145" s="68" t="s">
         <v>156</v>
       </c>
@@ -29276,7 +29278,7 @@
       <c r="F145" s="67"/>
     </row>
     <row r="146" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A146" s="122"/>
+      <c r="A146" s="123"/>
       <c r="B146" s="68" t="s">
         <v>157</v>
       </c>
@@ -29286,7 +29288,7 @@
       <c r="F146" s="67"/>
     </row>
     <row r="147" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A147" s="122"/>
+      <c r="A147" s="123"/>
       <c r="B147" s="68" t="s">
         <v>158</v>
       </c>
@@ -29296,7 +29298,7 @@
       <c r="F147" s="67"/>
     </row>
     <row r="148" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A148" s="122"/>
+      <c r="A148" s="123"/>
       <c r="B148" s="68" t="s">
         <v>159</v>
       </c>
@@ -29306,7 +29308,7 @@
       <c r="F148" s="67"/>
     </row>
     <row r="149" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A149" s="122"/>
+      <c r="A149" s="123"/>
       <c r="B149" s="68" t="s">
         <v>160</v>
       </c>
@@ -29316,7 +29318,7 @@
       <c r="F149" s="67"/>
     </row>
     <row r="150" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A150" s="122"/>
+      <c r="A150" s="123"/>
       <c r="B150" s="68" t="s">
         <v>208</v>
       </c>
@@ -29326,7 +29328,7 @@
       <c r="F150" s="67"/>
     </row>
     <row r="151" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A151" s="122"/>
+      <c r="A151" s="123"/>
       <c r="B151" s="68" t="s">
         <v>209</v>
       </c>
@@ -29336,7 +29338,7 @@
       <c r="F151" s="67"/>
     </row>
     <row r="152" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A152" s="122"/>
+      <c r="A152" s="123"/>
       <c r="B152" s="68" t="s">
         <v>210</v>
       </c>
@@ -29346,7 +29348,7 @@
       <c r="F152" s="67"/>
     </row>
     <row r="153" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A153" s="122"/>
+      <c r="A153" s="123"/>
       <c r="B153" s="68" t="s">
         <v>211</v>
       </c>
@@ -29356,7 +29358,7 @@
       <c r="F153" s="67"/>
     </row>
     <row r="154" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A154" s="122"/>
+      <c r="A154" s="123"/>
       <c r="B154" s="68" t="s">
         <v>212</v>
       </c>
@@ -29366,7 +29368,7 @@
       <c r="F154" s="67"/>
     </row>
     <row r="155" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A155" s="122"/>
+      <c r="A155" s="123"/>
       <c r="B155" s="68" t="s">
         <v>188</v>
       </c>
@@ -29376,7 +29378,7 @@
       <c r="F155" s="67"/>
     </row>
     <row r="156" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A156" s="122"/>
+      <c r="A156" s="123"/>
       <c r="B156" s="69" t="s">
         <v>189</v>
       </c>
@@ -29386,7 +29388,7 @@
       <c r="F156" s="67"/>
     </row>
     <row r="157" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A157" s="122"/>
+      <c r="A157" s="123"/>
       <c r="B157" s="69" t="s">
         <v>190</v>
       </c>
@@ -29396,7 +29398,7 @@
       <c r="F157" s="67"/>
     </row>
     <row r="158" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A158" s="122"/>
+      <c r="A158" s="123"/>
       <c r="B158" s="69" t="s">
         <v>191</v>
       </c>
@@ -29406,7 +29408,7 @@
       <c r="F158" s="67"/>
     </row>
     <row r="159" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A159" s="122"/>
+      <c r="A159" s="123"/>
       <c r="B159" s="69" t="s">
         <v>192</v>
       </c>
@@ -29432,8 +29434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -29445,26 +29447,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
     </row>
     <row r="3" spans="1:6" ht="22.2" thickTop="1" thickBot="1">
-      <c r="A3" s="127"/>
-      <c r="B3" s="128"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
       <c r="C3" s="70" t="s">
         <v>220</v>
       </c>
@@ -29479,1290 +29481,1287 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="122" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="74" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A5" s="121"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129" t="s">
+      <c r="E5" s="74"/>
+      <c r="F5" s="74" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A6" s="121"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129" t="s">
+      <c r="E6" s="74"/>
+      <c r="F6" s="74" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A7" s="121"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="121"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129" t="s">
+      <c r="E8" s="74"/>
+      <c r="F8" s="74" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A9" s="121"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129" t="s">
+      <c r="E9" s="74"/>
+      <c r="F9" s="74" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A10" s="121"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="129" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A11" s="121"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A12" s="121"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="129" t="s">
+      <c r="D12" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129" t="s">
+      <c r="E12" s="74"/>
+      <c r="F12" s="74" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A13" s="121"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="14" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A14" s="121"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="129" t="s">
+      <c r="D14" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129" t="s">
+      <c r="E14" s="74"/>
+      <c r="F14" s="74" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A15" s="121"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129" t="s">
+      <c r="E15" s="74"/>
+      <c r="F15" s="74" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A16" s="121"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="129" t="s">
+      <c r="D16" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129" t="s">
+      <c r="E16" s="74"/>
+      <c r="F16" s="74" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A17" s="121"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129" t="s">
+      <c r="E17" s="74"/>
+      <c r="F17" s="74" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A18" s="121"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A19" s="121"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A20" s="121"/>
+      <c r="A20" s="122"/>
       <c r="B20" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A21" s="121"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A22" s="121"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
     </row>
     <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A23" s="121"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
     </row>
     <row r="24" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A24" s="121"/>
+      <c r="A24" s="122"/>
       <c r="B24" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
     </row>
     <row r="25" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A25" s="121"/>
+      <c r="A25" s="122"/>
       <c r="B25" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A26" s="121"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
     </row>
     <row r="27" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A27" s="121"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A28" s="121"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A29" s="121"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
     </row>
     <row r="30" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A30" s="121"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
     </row>
     <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A31" s="121"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
     </row>
     <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A32" s="121"/>
+      <c r="A32" s="122"/>
       <c r="B32" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
     </row>
     <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A33" s="121"/>
+      <c r="A33" s="122"/>
       <c r="B33" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A34" s="121"/>
+      <c r="A34" s="122"/>
       <c r="B34" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
     </row>
     <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A35" s="121"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
     </row>
     <row r="36" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A36" s="121"/>
+      <c r="A36" s="122"/>
       <c r="B36" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
     </row>
     <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A37" s="121"/>
+      <c r="A37" s="122"/>
       <c r="B37" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
     </row>
     <row r="38" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A38" s="121"/>
+      <c r="A38" s="122"/>
       <c r="B38" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
     </row>
     <row r="39" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A39" s="121"/>
+      <c r="A39" s="122"/>
       <c r="B39" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
     </row>
     <row r="40" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A40" s="121"/>
+      <c r="A40" s="122"/>
       <c r="B40" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A41" s="121"/>
+      <c r="A41" s="122"/>
       <c r="B41" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
     </row>
     <row r="42" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A42" s="121"/>
+      <c r="A42" s="122"/>
       <c r="B42" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="129"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A43" s="121"/>
+      <c r="A43" s="122"/>
       <c r="B43" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
     </row>
     <row r="44" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A44" s="121"/>
+      <c r="A44" s="122"/>
       <c r="B44" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="129"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="129"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
     </row>
     <row r="45" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A45" s="121"/>
+      <c r="A45" s="122"/>
       <c r="B45" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
     </row>
     <row r="46" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A46" s="121"/>
+      <c r="A46" s="122"/>
       <c r="B46" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="129"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
     </row>
     <row r="47" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A47" s="121"/>
+      <c r="A47" s="122"/>
       <c r="B47" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="129"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
     </row>
     <row r="48" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A48" s="121"/>
+      <c r="A48" s="122"/>
       <c r="B48" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="129"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
     </row>
     <row r="49" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A49" s="121"/>
+      <c r="A49" s="122"/>
       <c r="B49" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="129"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A50" s="121"/>
+      <c r="A50" s="122"/>
       <c r="B50" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="129"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
     </row>
     <row r="51" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A51" s="121"/>
+      <c r="A51" s="122"/>
       <c r="B51" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
     </row>
     <row r="52" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A52" s="121"/>
+      <c r="A52" s="122"/>
       <c r="B52" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="129"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="129"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
     </row>
     <row r="53" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A53" s="121"/>
+      <c r="A53" s="122"/>
       <c r="B53" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="129"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
     </row>
     <row r="54" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A54" s="121"/>
+      <c r="A54" s="122"/>
       <c r="B54" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="129"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
     </row>
     <row r="55" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A55" s="121"/>
+      <c r="A55" s="122"/>
       <c r="B55" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="129"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
     </row>
     <row r="56" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A56" s="121"/>
+      <c r="A56" s="122"/>
       <c r="B56" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="129"/>
-      <c r="D56" s="129"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
     </row>
     <row r="57" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A57" s="121"/>
+      <c r="A57" s="122"/>
       <c r="B57" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="129"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="129"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
     </row>
     <row r="58" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A58" s="121"/>
+      <c r="A58" s="122"/>
       <c r="B58" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="129"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="129"/>
-      <c r="F58" s="129"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
     </row>
     <row r="59" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A59" s="121"/>
+      <c r="A59" s="122"/>
       <c r="B59" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="129"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
     </row>
     <row r="60" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A60" s="121"/>
+      <c r="A60" s="122"/>
       <c r="B60" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="129"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="129"/>
-      <c r="F60" s="129"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
     </row>
     <row r="61" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A61" s="121"/>
+      <c r="A61" s="122"/>
       <c r="B61" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="129"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="129"/>
-      <c r="F61" s="129"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
     </row>
     <row r="62" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A62" s="121"/>
+      <c r="A62" s="122"/>
       <c r="B62" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
     </row>
     <row r="63" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A63" s="121"/>
+      <c r="A63" s="122"/>
       <c r="B63" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="129"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="129"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
     </row>
     <row r="64" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A64" s="121"/>
+      <c r="A64" s="122"/>
       <c r="B64" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="129"/>
-      <c r="D64" s="129"/>
-      <c r="E64" s="129"/>
-      <c r="F64" s="129"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
     </row>
     <row r="65" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A65" s="121"/>
+      <c r="A65" s="122"/>
       <c r="B65" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="129"/>
-      <c r="D65" s="129"/>
-      <c r="E65" s="129"/>
-      <c r="F65" s="129"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
     </row>
     <row r="66" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A66" s="121"/>
+      <c r="A66" s="122"/>
       <c r="B66" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="129"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="129"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
     </row>
     <row r="67" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A67" s="121"/>
+      <c r="A67" s="122"/>
       <c r="B67" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="129"/>
-      <c r="D67" s="129"/>
-      <c r="E67" s="129"/>
-      <c r="F67" s="129"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
     </row>
     <row r="68" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A68" s="121"/>
+      <c r="A68" s="122"/>
       <c r="B68" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="129"/>
-      <c r="D68" s="129"/>
-      <c r="E68" s="129"/>
-      <c r="F68" s="129"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
     </row>
     <row r="69" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A69" s="121"/>
+      <c r="A69" s="122"/>
       <c r="B69" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="129"/>
-      <c r="D69" s="129"/>
-      <c r="E69" s="129"/>
-      <c r="F69" s="129"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
     </row>
     <row r="70" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A70" s="121"/>
+      <c r="A70" s="122"/>
       <c r="B70" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="129"/>
-      <c r="D70" s="129"/>
-      <c r="E70" s="129"/>
-      <c r="F70" s="129"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
     </row>
     <row r="71" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A71" s="121"/>
+      <c r="A71" s="122"/>
       <c r="B71" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="129"/>
-      <c r="D71" s="129"/>
-      <c r="E71" s="129"/>
-      <c r="F71" s="129"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
     </row>
     <row r="72" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A72" s="121"/>
+      <c r="A72" s="122"/>
       <c r="B72" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="129"/>
-      <c r="D72" s="129"/>
-      <c r="E72" s="129"/>
-      <c r="F72" s="129"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
     </row>
     <row r="73" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A73" s="121"/>
+      <c r="A73" s="122"/>
       <c r="B73" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="129"/>
-      <c r="D73" s="129"/>
-      <c r="E73" s="129"/>
-      <c r="F73" s="129"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
     </row>
     <row r="74" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A74" s="121"/>
+      <c r="A74" s="122"/>
       <c r="B74" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="129"/>
-      <c r="D74" s="129"/>
-      <c r="E74" s="129"/>
-      <c r="F74" s="129"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
     </row>
     <row r="75" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A75" s="121"/>
+      <c r="A75" s="122"/>
       <c r="B75" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="129"/>
-      <c r="D75" s="129"/>
-      <c r="E75" s="129"/>
-      <c r="F75" s="129"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
     </row>
     <row r="76" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A76" s="121"/>
+      <c r="A76" s="122"/>
       <c r="B76" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="129"/>
-      <c r="D76" s="129"/>
-      <c r="E76" s="129"/>
-      <c r="F76" s="129"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
     </row>
     <row r="77" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A77" s="121"/>
+      <c r="A77" s="122"/>
       <c r="B77" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="129"/>
-      <c r="D77" s="129"/>
-      <c r="E77" s="129"/>
-      <c r="F77" s="129"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
     </row>
     <row r="78" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A78" s="121"/>
+      <c r="A78" s="122"/>
       <c r="B78" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="129"/>
-      <c r="D78" s="129"/>
-      <c r="E78" s="129"/>
-      <c r="F78" s="129"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
     </row>
     <row r="79" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A79" s="121"/>
+      <c r="A79" s="122"/>
       <c r="B79" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="129"/>
-      <c r="D79" s="129"/>
-      <c r="E79" s="129"/>
-      <c r="F79" s="129"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
     </row>
     <row r="80" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A80" s="121"/>
+      <c r="A80" s="122"/>
       <c r="B80" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="129"/>
-      <c r="D80" s="129"/>
-      <c r="E80" s="129"/>
-      <c r="F80" s="129"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
     </row>
     <row r="81" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A81" s="121"/>
+      <c r="A81" s="122"/>
       <c r="B81" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="129"/>
-      <c r="D81" s="129"/>
-      <c r="E81" s="129"/>
-      <c r="F81" s="129"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A82" s="121"/>
+      <c r="A82" s="122"/>
       <c r="B82" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="129"/>
-      <c r="D82" s="129"/>
-      <c r="E82" s="129"/>
-      <c r="F82" s="129"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
     </row>
     <row r="83" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A83" s="121"/>
+      <c r="A83" s="122"/>
       <c r="B83" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="129"/>
-      <c r="D83" s="129"/>
-      <c r="E83" s="129"/>
-      <c r="F83" s="129"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
     </row>
     <row r="84" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A84" s="121"/>
+      <c r="A84" s="122"/>
       <c r="B84" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="129"/>
-      <c r="D84" s="129"/>
-      <c r="E84" s="129"/>
-      <c r="F84" s="129"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A85" s="121"/>
+      <c r="A85" s="122"/>
       <c r="B85" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="129"/>
-      <c r="D85" s="129"/>
-      <c r="E85" s="129"/>
-      <c r="F85" s="129"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A86" s="121"/>
+      <c r="A86" s="122"/>
       <c r="B86" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="129"/>
-      <c r="D86" s="129"/>
-      <c r="E86" s="129"/>
-      <c r="F86" s="129"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
     </row>
     <row r="87" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A87" s="121"/>
+      <c r="A87" s="122"/>
       <c r="B87" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="C87" s="129"/>
-      <c r="D87" s="129"/>
-      <c r="E87" s="129"/>
-      <c r="F87" s="129"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
     </row>
     <row r="88" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A88" s="121"/>
+      <c r="A88" s="122"/>
       <c r="B88" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="129"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="129"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
     </row>
     <row r="89" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A89" s="121"/>
+      <c r="A89" s="122"/>
       <c r="B89" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="129"/>
-      <c r="D89" s="129"/>
-      <c r="E89" s="129"/>
-      <c r="F89" s="129"/>
+      <c r="C89" s="74"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
     </row>
     <row r="90" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A90" s="121"/>
+      <c r="A90" s="122"/>
       <c r="B90" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="129"/>
-      <c r="D90" s="129"/>
-      <c r="E90" s="129"/>
-      <c r="F90" s="129"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A91" s="121"/>
+      <c r="A91" s="122"/>
       <c r="B91" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="129"/>
-      <c r="D91" s="129"/>
-      <c r="E91" s="129"/>
-      <c r="F91" s="129"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
     </row>
     <row r="92" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A92" s="121"/>
+      <c r="A92" s="122"/>
       <c r="B92" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="129"/>
-      <c r="D92" s="129"/>
-      <c r="E92" s="129"/>
-      <c r="F92" s="129"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="74"/>
     </row>
     <row r="93" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A93" s="121"/>
+      <c r="A93" s="122"/>
       <c r="B93" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="129"/>
-      <c r="D93" s="129"/>
-      <c r="E93" s="129"/>
-      <c r="F93" s="129"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="74"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A94" s="121"/>
+      <c r="A94" s="122"/>
       <c r="B94" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="129"/>
-      <c r="D94" s="129"/>
-      <c r="E94" s="129"/>
-      <c r="F94" s="129"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A95" s="121"/>
+      <c r="A95" s="122"/>
       <c r="B95" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="129"/>
-      <c r="D95" s="129"/>
-      <c r="E95" s="129"/>
-      <c r="F95" s="129"/>
+      <c r="C95" s="74"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
     </row>
     <row r="96" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A96" s="121"/>
+      <c r="A96" s="122"/>
       <c r="B96" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="129"/>
-      <c r="D96" s="129"/>
-      <c r="E96" s="129"/>
-      <c r="F96" s="129"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
     </row>
     <row r="97" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A97" s="121"/>
+      <c r="A97" s="122"/>
       <c r="B97" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="129"/>
-      <c r="D97" s="129"/>
-      <c r="E97" s="129"/>
-      <c r="F97" s="129"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="74"/>
     </row>
     <row r="98" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A98" s="121"/>
+      <c r="A98" s="122"/>
       <c r="B98" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="129"/>
-      <c r="D98" s="129"/>
-      <c r="E98" s="129"/>
-      <c r="F98" s="129"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="74"/>
     </row>
     <row r="99" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A99" s="121"/>
+      <c r="A99" s="122"/>
       <c r="B99" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="129"/>
-      <c r="D99" s="129"/>
-      <c r="E99" s="129"/>
-      <c r="F99" s="129"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="74"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
     </row>
     <row r="100" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A100" s="121"/>
+      <c r="A100" s="122"/>
       <c r="B100" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="129"/>
-      <c r="D100" s="129"/>
-      <c r="E100" s="129"/>
-      <c r="F100" s="129"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
     </row>
     <row r="101" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A101" s="121"/>
+      <c r="A101" s="122"/>
       <c r="B101" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="129"/>
-      <c r="D101" s="129"/>
-      <c r="E101" s="129"/>
-      <c r="F101" s="129"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
     </row>
     <row r="102" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A102" s="121"/>
+      <c r="A102" s="122"/>
       <c r="B102" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="129"/>
-      <c r="D102" s="129"/>
-      <c r="E102" s="129"/>
-      <c r="F102" s="129"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
     </row>
     <row r="103" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A103" s="121"/>
+      <c r="A103" s="122"/>
       <c r="B103" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="129"/>
-      <c r="D103" s="129"/>
-      <c r="E103" s="129"/>
-      <c r="F103" s="129"/>
+      <c r="C103" s="74"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="74"/>
     </row>
     <row r="104" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A104" s="121"/>
+      <c r="A104" s="122"/>
       <c r="B104" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="129"/>
-      <c r="D104" s="129"/>
-      <c r="E104" s="129"/>
-      <c r="F104" s="129"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
     </row>
     <row r="105" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A105" s="121"/>
+      <c r="A105" s="122"/>
       <c r="B105" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="129"/>
-      <c r="D105" s="129"/>
-      <c r="E105" s="129"/>
-      <c r="F105" s="129"/>
+      <c r="C105" s="74"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="74"/>
     </row>
     <row r="106" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A106" s="121"/>
+      <c r="A106" s="122"/>
       <c r="B106" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="129"/>
-      <c r="D106" s="129"/>
-      <c r="E106" s="129"/>
-      <c r="F106" s="129"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
     </row>
     <row r="107" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A107" s="121"/>
+      <c r="A107" s="122"/>
       <c r="B107" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="129"/>
-      <c r="D107" s="129"/>
-      <c r="E107" s="129"/>
-      <c r="F107" s="129"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
     </row>
     <row r="108" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A108" s="121"/>
+      <c r="A108" s="122"/>
       <c r="B108" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="129"/>
-      <c r="D108" s="129"/>
-      <c r="E108" s="129"/>
-      <c r="F108" s="129"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
     </row>
     <row r="109" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A109" s="121"/>
+      <c r="A109" s="122"/>
       <c r="B109" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="129"/>
-      <c r="D109" s="129"/>
-      <c r="E109" s="129"/>
-      <c r="F109" s="129"/>
+      <c r="C109" s="74"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="74"/>
     </row>
     <row r="110" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A110" s="121"/>
+      <c r="A110" s="122"/>
       <c r="B110" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C110" s="129"/>
-      <c r="D110" s="129"/>
-      <c r="E110" s="129"/>
-      <c r="F110" s="129"/>
+      <c r="C110" s="74"/>
+      <c r="D110" s="74"/>
+      <c r="E110" s="74"/>
+      <c r="F110" s="74"/>
     </row>
     <row r="111" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A111" s="121"/>
+      <c r="A111" s="122"/>
       <c r="B111" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="C111" s="129"/>
-      <c r="D111" s="129"/>
-      <c r="E111" s="129"/>
-      <c r="F111" s="129"/>
+      <c r="C111" s="74"/>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="74"/>
     </row>
     <row r="112" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A112" s="121"/>
+      <c r="A112" s="122"/>
       <c r="B112" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="129"/>
-      <c r="D112" s="129"/>
-      <c r="E112" s="129"/>
-      <c r="F112" s="129"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
     </row>
     <row r="113" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A113" s="121"/>
+      <c r="A113" s="122"/>
       <c r="B113" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="129"/>
-      <c r="D113" s="129"/>
-      <c r="E113" s="129"/>
-      <c r="F113" s="129"/>
+      <c r="C113" s="74"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
     </row>
     <row r="114" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A114" s="121"/>
+      <c r="A114" s="122"/>
       <c r="B114" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="C114" s="129"/>
-      <c r="D114" s="129"/>
-      <c r="E114" s="129"/>
-      <c r="F114" s="129"/>
+      <c r="C114" s="74"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="74"/>
     </row>
     <row r="115" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A115" s="121"/>
+      <c r="A115" s="122"/>
       <c r="B115" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="129"/>
-      <c r="D115" s="129"/>
-      <c r="E115" s="129"/>
-      <c r="F115" s="129"/>
+      <c r="C115" s="74"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
     </row>
     <row r="116" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A116" s="121"/>
+      <c r="A116" s="122"/>
       <c r="B116" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="C116" s="129"/>
-      <c r="D116" s="129"/>
-      <c r="E116" s="129"/>
-      <c r="F116" s="129"/>
+      <c r="C116" s="74"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="74"/>
+      <c r="F116" s="74"/>
     </row>
     <row r="117" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A117" s="121"/>
+      <c r="A117" s="122"/>
       <c r="B117" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="C117" s="129"/>
-      <c r="D117" s="129"/>
-      <c r="E117" s="129"/>
-      <c r="F117" s="129"/>
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
     </row>
     <row r="118" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A118" s="121"/>
+      <c r="A118" s="122"/>
       <c r="B118" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="129"/>
-      <c r="D118" s="129"/>
-      <c r="E118" s="129"/>
-      <c r="F118" s="129"/>
+      <c r="C118" s="74"/>
+      <c r="D118" s="74"/>
+      <c r="E118" s="74"/>
+      <c r="F118" s="74"/>
     </row>
     <row r="119" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A119" s="121"/>
+      <c r="A119" s="122"/>
       <c r="B119" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="C119" s="129"/>
-      <c r="D119" s="129"/>
-      <c r="E119" s="129"/>
-      <c r="F119" s="129"/>
+      <c r="C119" s="74"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="74"/>
     </row>
     <row r="120" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A120" s="121"/>
+      <c r="A120" s="122"/>
       <c r="B120" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="C120" s="129"/>
-      <c r="D120" s="129"/>
-      <c r="E120" s="129"/>
-      <c r="F120" s="129"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
     </row>
     <row r="121" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A121" s="121"/>
+      <c r="A121" s="122"/>
       <c r="B121" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="C121" s="129"/>
-      <c r="D121" s="129"/>
-      <c r="E121" s="129"/>
-      <c r="F121" s="129"/>
+      <c r="C121" s="74"/>
+      <c r="D121" s="74"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="74"/>
     </row>
     <row r="122" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A122" s="121"/>
+      <c r="A122" s="122"/>
       <c r="B122" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C122" s="129"/>
-      <c r="D122" s="129"/>
-      <c r="E122" s="129"/>
-      <c r="F122" s="129"/>
+      <c r="C122" s="74"/>
+      <c r="D122" s="74"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="74"/>
     </row>
     <row r="123" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A123" s="121"/>
+      <c r="A123" s="122"/>
       <c r="B123" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="C123" s="129"/>
-      <c r="D123" s="129"/>
-      <c r="E123" s="129"/>
-      <c r="F123" s="129"/>
+      <c r="C123" s="74"/>
+      <c r="D123" s="74"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="74"/>
     </row>
     <row r="124" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A124" s="121"/>
+      <c r="A124" s="122"/>
       <c r="B124" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="C124" s="129"/>
-      <c r="D124" s="129"/>
-      <c r="E124" s="129"/>
-      <c r="F124" s="129"/>
+      <c r="C124" s="74"/>
+      <c r="D124" s="74"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="74"/>
     </row>
     <row r="125" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="B125" s="21"/>
-      <c r="C125" s="129"/>
-      <c r="D125" s="129"/>
-      <c r="E125" s="129"/>
-      <c r="F125" s="129"/>
+      <c r="C125" s="74"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="74"/>
     </row>
     <row r="126" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A126" s="125" t="s">
+      <c r="A126" s="126" t="s">
         <v>177</v>
       </c>
       <c r="B126" s="68" t="s">
@@ -30770,350 +30769,350 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A127" s="126"/>
+      <c r="A127" s="127"/>
       <c r="B127" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="129"/>
-      <c r="D127" s="129"/>
-      <c r="E127" s="129"/>
-      <c r="F127" s="129"/>
+      <c r="C127" s="74"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="74"/>
     </row>
     <row r="128" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A128" s="126"/>
+      <c r="A128" s="127"/>
       <c r="B128" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="129"/>
-      <c r="D128" s="129"/>
-      <c r="E128" s="129"/>
-      <c r="F128" s="129"/>
+      <c r="C128" s="74"/>
+      <c r="D128" s="74"/>
+      <c r="E128" s="74"/>
+      <c r="F128" s="74"/>
     </row>
     <row r="129" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A129" s="126"/>
+      <c r="A129" s="127"/>
       <c r="B129" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="129"/>
-      <c r="D129" s="129"/>
-      <c r="E129" s="129"/>
-      <c r="F129" s="129"/>
+      <c r="C129" s="74"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="74"/>
     </row>
     <row r="130" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A130" s="126"/>
+      <c r="A130" s="127"/>
       <c r="B130" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="129"/>
-      <c r="D130" s="129"/>
-      <c r="E130" s="129"/>
-      <c r="F130" s="129"/>
+      <c r="C130" s="74"/>
+      <c r="D130" s="74"/>
+      <c r="E130" s="74"/>
+      <c r="F130" s="74"/>
     </row>
     <row r="131" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A131" s="126"/>
+      <c r="A131" s="127"/>
       <c r="B131" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="129"/>
-      <c r="D131" s="129"/>
-      <c r="E131" s="129"/>
-      <c r="F131" s="129"/>
+      <c r="C131" s="74"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="74"/>
     </row>
     <row r="132" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A132" s="126"/>
+      <c r="A132" s="127"/>
       <c r="B132" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="129"/>
-      <c r="D132" s="129"/>
-      <c r="E132" s="129"/>
-      <c r="F132" s="129"/>
+      <c r="C132" s="74"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="74"/>
+      <c r="F132" s="74"/>
     </row>
     <row r="133" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A133" s="126"/>
+      <c r="A133" s="127"/>
       <c r="B133" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C133" s="129"/>
-      <c r="D133" s="129"/>
-      <c r="E133" s="129"/>
-      <c r="F133" s="129"/>
+      <c r="C133" s="74"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="74"/>
+      <c r="F133" s="74"/>
     </row>
     <row r="134" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A134" s="126"/>
+      <c r="A134" s="127"/>
       <c r="B134" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="129"/>
-      <c r="D134" s="129"/>
-      <c r="E134" s="129"/>
-      <c r="F134" s="129"/>
+      <c r="C134" s="74"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="74"/>
+      <c r="F134" s="74"/>
     </row>
     <row r="135" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A135" s="126"/>
+      <c r="A135" s="127"/>
       <c r="B135" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="129"/>
-      <c r="D135" s="129"/>
-      <c r="E135" s="129"/>
-      <c r="F135" s="129"/>
+      <c r="C135" s="74"/>
+      <c r="D135" s="74"/>
+      <c r="E135" s="74"/>
+      <c r="F135" s="74"/>
     </row>
     <row r="136" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A136" s="126"/>
+      <c r="A136" s="127"/>
       <c r="B136" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="129"/>
-      <c r="D136" s="129"/>
-      <c r="E136" s="129"/>
-      <c r="F136" s="129"/>
+      <c r="C136" s="74"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="74"/>
     </row>
     <row r="137" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A137" s="126"/>
+      <c r="A137" s="127"/>
       <c r="B137" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C137" s="129"/>
-      <c r="D137" s="129"/>
-      <c r="E137" s="129"/>
-      <c r="F137" s="129"/>
+      <c r="C137" s="74"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="74"/>
     </row>
     <row r="138" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A138" s="126"/>
+      <c r="A138" s="127"/>
       <c r="B138" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="129"/>
-      <c r="D138" s="129"/>
-      <c r="E138" s="129"/>
-      <c r="F138" s="129"/>
+      <c r="C138" s="74"/>
+      <c r="D138" s="74"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="74"/>
     </row>
     <row r="139" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A139" s="126"/>
+      <c r="A139" s="127"/>
       <c r="B139" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="129"/>
-      <c r="D139" s="129"/>
-      <c r="E139" s="129"/>
-      <c r="F139" s="129"/>
+      <c r="C139" s="74"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="74"/>
     </row>
     <row r="140" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A140" s="126"/>
+      <c r="A140" s="127"/>
       <c r="B140" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="C140" s="129"/>
-      <c r="D140" s="129"/>
-      <c r="E140" s="129"/>
-      <c r="F140" s="129"/>
+      <c r="C140" s="74"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="74"/>
+      <c r="F140" s="74"/>
     </row>
     <row r="141" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A141" s="126"/>
+      <c r="A141" s="127"/>
       <c r="B141" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="C141" s="129"/>
-      <c r="D141" s="129"/>
-      <c r="E141" s="129"/>
-      <c r="F141" s="129"/>
+      <c r="C141" s="74"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="74"/>
+      <c r="F141" s="74"/>
     </row>
     <row r="142" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A142" s="126"/>
+      <c r="A142" s="127"/>
       <c r="B142" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="C142" s="129"/>
-      <c r="D142" s="129"/>
-      <c r="E142" s="129"/>
-      <c r="F142" s="129"/>
+      <c r="C142" s="74"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="74"/>
+      <c r="F142" s="74"/>
     </row>
     <row r="143" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A143" s="126"/>
+      <c r="A143" s="127"/>
       <c r="B143" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="C143" s="129"/>
-      <c r="D143" s="129"/>
-      <c r="E143" s="129"/>
-      <c r="F143" s="129"/>
+      <c r="C143" s="74"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="74"/>
+      <c r="F143" s="74"/>
     </row>
     <row r="144" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A144" s="126"/>
+      <c r="A144" s="127"/>
       <c r="B144" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="C144" s="129"/>
-      <c r="D144" s="129"/>
-      <c r="E144" s="129"/>
-      <c r="F144" s="129"/>
+      <c r="C144" s="74"/>
+      <c r="D144" s="74"/>
+      <c r="E144" s="74"/>
+      <c r="F144" s="74"/>
     </row>
     <row r="145" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A145" s="126"/>
+      <c r="A145" s="127"/>
       <c r="B145" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C145" s="129"/>
-      <c r="D145" s="129"/>
-      <c r="E145" s="129"/>
-      <c r="F145" s="129"/>
+      <c r="C145" s="74"/>
+      <c r="D145" s="74"/>
+      <c r="E145" s="74"/>
+      <c r="F145" s="74"/>
     </row>
     <row r="146" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A146" s="126"/>
+      <c r="A146" s="127"/>
       <c r="B146" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="C146" s="129"/>
-      <c r="D146" s="129"/>
-      <c r="E146" s="129"/>
-      <c r="F146" s="129"/>
+      <c r="C146" s="74"/>
+      <c r="D146" s="74"/>
+      <c r="E146" s="74"/>
+      <c r="F146" s="74"/>
     </row>
     <row r="147" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A147" s="126"/>
+      <c r="A147" s="127"/>
       <c r="B147" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C147" s="129"/>
-      <c r="D147" s="129"/>
-      <c r="E147" s="129"/>
-      <c r="F147" s="129"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="74"/>
+      <c r="F147" s="74"/>
     </row>
     <row r="148" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A148" s="126"/>
+      <c r="A148" s="127"/>
       <c r="B148" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="C148" s="129"/>
-      <c r="D148" s="129"/>
-      <c r="E148" s="129"/>
-      <c r="F148" s="129"/>
+      <c r="C148" s="74"/>
+      <c r="D148" s="74"/>
+      <c r="E148" s="74"/>
+      <c r="F148" s="74"/>
     </row>
     <row r="149" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A149" s="126"/>
+      <c r="A149" s="127"/>
       <c r="B149" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="C149" s="129"/>
-      <c r="D149" s="129"/>
-      <c r="E149" s="129"/>
-      <c r="F149" s="129"/>
+      <c r="C149" s="74"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="74"/>
     </row>
     <row r="150" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A150" s="126"/>
+      <c r="A150" s="127"/>
       <c r="B150" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="129"/>
-      <c r="D150" s="129"/>
-      <c r="E150" s="129"/>
-      <c r="F150" s="129"/>
+      <c r="C150" s="74"/>
+      <c r="D150" s="74"/>
+      <c r="E150" s="74"/>
+      <c r="F150" s="74"/>
     </row>
     <row r="151" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A151" s="126"/>
+      <c r="A151" s="127"/>
       <c r="B151" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C151" s="129"/>
-      <c r="D151" s="129"/>
-      <c r="E151" s="129"/>
-      <c r="F151" s="129"/>
+      <c r="C151" s="74"/>
+      <c r="D151" s="74"/>
+      <c r="E151" s="74"/>
+      <c r="F151" s="74"/>
     </row>
     <row r="152" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A152" s="126"/>
+      <c r="A152" s="127"/>
       <c r="B152" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="C152" s="129"/>
-      <c r="D152" s="129"/>
-      <c r="E152" s="129"/>
-      <c r="F152" s="129"/>
+      <c r="C152" s="74"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="74"/>
     </row>
     <row r="153" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A153" s="126"/>
+      <c r="A153" s="127"/>
       <c r="B153" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="C153" s="129"/>
-      <c r="D153" s="129"/>
-      <c r="E153" s="129"/>
-      <c r="F153" s="129"/>
+      <c r="C153" s="74"/>
+      <c r="D153" s="74"/>
+      <c r="E153" s="74"/>
+      <c r="F153" s="74"/>
     </row>
     <row r="154" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A154" s="126"/>
+      <c r="A154" s="127"/>
       <c r="B154" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="C154" s="129"/>
-      <c r="D154" s="129"/>
-      <c r="E154" s="129"/>
-      <c r="F154" s="129"/>
+      <c r="C154" s="74"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="74"/>
+      <c r="F154" s="74"/>
     </row>
     <row r="155" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A155" s="126"/>
+      <c r="A155" s="127"/>
       <c r="B155" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="C155" s="129"/>
-      <c r="D155" s="129"/>
-      <c r="E155" s="129"/>
-      <c r="F155" s="129"/>
+      <c r="C155" s="74"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="74"/>
     </row>
     <row r="156" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A156" s="126"/>
+      <c r="A156" s="127"/>
       <c r="B156" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="C156" s="129"/>
-      <c r="D156" s="129"/>
-      <c r="E156" s="129"/>
-      <c r="F156" s="129"/>
+      <c r="C156" s="74"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74"/>
+      <c r="F156" s="74"/>
     </row>
     <row r="157" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A157" s="126"/>
+      <c r="A157" s="127"/>
       <c r="B157" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="129"/>
-      <c r="D157" s="129"/>
-      <c r="E157" s="129"/>
-      <c r="F157" s="129"/>
+      <c r="C157" s="74"/>
+      <c r="D157" s="74"/>
+      <c r="E157" s="74"/>
+      <c r="F157" s="74"/>
     </row>
     <row r="158" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A158" s="126"/>
+      <c r="A158" s="127"/>
       <c r="B158" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="129"/>
-      <c r="D158" s="129"/>
-      <c r="E158" s="129"/>
-      <c r="F158" s="129"/>
+      <c r="C158" s="74"/>
+      <c r="D158" s="74"/>
+      <c r="E158" s="74"/>
+      <c r="F158" s="74"/>
     </row>
     <row r="159" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A159" s="126"/>
+      <c r="A159" s="127"/>
       <c r="B159" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="129"/>
-      <c r="D159" s="129"/>
-      <c r="E159" s="129"/>
-      <c r="F159" s="129"/>
+      <c r="C159" s="74"/>
+      <c r="D159" s="74"/>
+      <c r="E159" s="74"/>
+      <c r="F159" s="74"/>
     </row>
     <row r="160" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A160" s="126"/>
+      <c r="A160" s="127"/>
       <c r="B160" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="129"/>
-      <c r="D160" s="129"/>
-      <c r="E160" s="129"/>
-      <c r="F160" s="129"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="74"/>
+      <c r="E160" s="74"/>
+      <c r="F160" s="74"/>
     </row>
     <row r="161" spans="3:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="C161" s="129"/>
-      <c r="D161" s="129"/>
-      <c r="E161" s="129"/>
-      <c r="F161" s="129"/>
+      <c r="C161" s="74"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="74"/>
     </row>
     <row r="162" spans="3:6" ht="15" thickTop="1"/>
   </sheetData>

--- a/trunk/SRS/Trazabilidad/SRS(Alimnova)TrazabilidadRequerimientosV1.3.0.xlsx
+++ b/trunk/SRS/Trazabilidad/SRS(Alimnova)TrazabilidadRequerimientosV1.3.0.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="245">
   <si>
     <t>ID</t>
   </si>
@@ -748,6 +748,12 @@
   <si>
     <t>debitar</t>
   </si>
+  <si>
+    <t xml:space="preserve">Subsistema Cliente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsistema Servidor </t>
+  </si>
 </sst>
 </file>
 
@@ -947,7 +953,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1026,8 +1032,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1360,11 +1372,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1729,6 +1759,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -27755,8 +27821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -27850,60 +27916,62 @@
       <c r="B3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="C3" s="133" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
     </row>
     <row r="4" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="122"/>
       <c r="B4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138"/>
     </row>
     <row r="5" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="122"/>
       <c r="B5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="138"/>
     </row>
     <row r="6" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="122"/>
       <c r="B6" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="138"/>
     </row>
     <row r="7" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="122"/>
       <c r="B7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="138"/>
     </row>
     <row r="8" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="122"/>
       <c r="B8" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="122"/>
@@ -29419,11 +29487,12 @@
     </row>
     <row r="160" spans="1:6" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:A123"/>
     <mergeCell ref="A125:A159"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C3:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29435,7 +29504,7 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -29579,9 +29648,12 @@
       <c r="B10" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="C10" s="130" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="132"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="122"/>
@@ -31116,11 +31188,12 @@
     </row>
     <row r="162" spans="3:6" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:A124"/>
     <mergeCell ref="A126:A160"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/SRS/Trazabilidad/SRS(Alimnova)TrazabilidadRequerimientosV1.3.0.xlsx
+++ b/trunk/SRS/Trazabilidad/SRS(Alimnova)TrazabilidadRequerimientosV1.3.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="-84" windowWidth="15408" windowHeight="3600" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-132" yWindow="3276" windowWidth="15408" windowHeight="3600" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADO DEL REQ" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4552" uniqueCount="249">
   <si>
     <t>ID</t>
   </si>
@@ -704,9 +704,6 @@
     <t>Partida, Banco</t>
   </si>
   <si>
-    <t>Solicitar Subasta (Partida)</t>
-  </si>
-  <si>
     <t>Banco</t>
   </si>
   <si>
@@ -752,7 +749,22 @@
     <t xml:space="preserve">Subsistema Cliente </t>
   </si>
   <si>
-    <t xml:space="preserve">Subsistema Servidor </t>
+    <t>NO APLICA</t>
+  </si>
+  <si>
+    <t>Solicitar Subasta</t>
+  </si>
+  <si>
+    <t>asignarPropiedad, buscarPropAsignar, estaDisponible</t>
+  </si>
+  <si>
+    <t>OpciónCasilla</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>TableroPrincipal</t>
   </si>
 </sst>
 </file>
@@ -953,7 +965,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,6 +1047,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,7 +1412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1770,32 +1788,50 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -27821,8 +27857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F8"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -27847,16 +27883,16 @@
     <row r="2" spans="1:55" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="125"/>
       <c r="B2" s="125"/>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="134" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="134" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="134" t="s">
         <v>223</v>
       </c>
       <c r="G2" s="71"/>
@@ -27913,73 +27949,71 @@
       <c r="A3" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="133" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="122"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="138"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="122"/>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="138"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="122"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="138"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="122"/>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="138"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="122"/>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="141"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="122"/>
       <c r="B9" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="74" t="s">
-        <v>235</v>
+      <c r="C9" s="135" t="s">
+        <v>234</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
@@ -29487,12 +29521,11 @@
     </row>
     <row r="160" spans="1:6" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A3:A123"/>
     <mergeCell ref="A125:A159"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C3:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29503,8 +29536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -29512,7 +29545,7 @@
     <col min="3" max="3" width="22.88671875" style="21" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="45.77734375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
@@ -29560,11 +29593,11 @@
         <v>226</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="74" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
@@ -29576,11 +29609,11 @@
         <v>226</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
@@ -29592,11 +29625,11 @@
         <v>226</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="74"/>
       <c r="F6" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
@@ -29624,7 +29657,7 @@
       </c>
       <c r="E8" s="74"/>
       <c r="F8" s="74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
@@ -29636,11 +29669,11 @@
         <v>226</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
@@ -29649,7 +29682,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="130" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -29674,11 +29707,11 @@
         <v>226</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" s="74"/>
       <c r="F12" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
@@ -29700,11 +29733,11 @@
         <v>226</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E14" s="74"/>
       <c r="F14" s="74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
@@ -29716,11 +29749,11 @@
         <v>226</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" s="74"/>
       <c r="F15" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
@@ -29732,11 +29765,11 @@
         <v>226</v>
       </c>
       <c r="D16" s="74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="74"/>
       <c r="F16" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
@@ -29745,14 +29778,14 @@
         <v>24</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E17" s="74"/>
       <c r="F17" s="74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
@@ -29875,15 +29908,21 @@
       <c r="E29" s="74"/>
       <c r="F29" s="74"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
+    <row r="30" spans="1:6" ht="17.399999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="A30" s="122"/>
       <c r="B30" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
+      <c r="C30" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>238</v>
+      </c>
       <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
+      <c r="F30" s="61" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="122"/>
@@ -30510,8 +30549,12 @@
       <c r="B93" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="74"/>
-      <c r="D93" s="74"/>
+      <c r="C93" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D93" s="74" t="s">
+        <v>246</v>
+      </c>
       <c r="E93" s="74"/>
       <c r="F93" s="74"/>
     </row>
@@ -30520,8 +30563,12 @@
       <c r="B94" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="74"/>
-      <c r="D94" s="74"/>
+      <c r="C94" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" s="74" t="s">
+        <v>246</v>
+      </c>
       <c r="E94" s="74"/>
       <c r="F94" s="74"/>
     </row>
@@ -30530,8 +30577,12 @@
       <c r="B95" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="74"/>
-      <c r="D95" s="74"/>
+      <c r="C95" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D95" s="74" t="s">
+        <v>246</v>
+      </c>
       <c r="E95" s="74"/>
       <c r="F95" s="74"/>
     </row>
@@ -30540,8 +30591,12 @@
       <c r="B96" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="74"/>
-      <c r="D96" s="74"/>
+      <c r="C96" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D96" s="74" t="s">
+        <v>246</v>
+      </c>
       <c r="E96" s="74"/>
       <c r="F96" s="74"/>
     </row>
@@ -30550,8 +30605,12 @@
       <c r="B97" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="74"/>
-      <c r="D97" s="74"/>
+      <c r="C97" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D97" s="74" t="s">
+        <v>248</v>
+      </c>
       <c r="E97" s="74"/>
       <c r="F97" s="74"/>
     </row>
@@ -30560,8 +30619,12 @@
       <c r="B98" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="74"/>
-      <c r="D98" s="74"/>
+      <c r="C98" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D98" s="74" t="s">
+        <v>248</v>
+      </c>
       <c r="E98" s="74"/>
       <c r="F98" s="74"/>
     </row>
@@ -30570,8 +30633,12 @@
       <c r="B99" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="74"/>
-      <c r="D99" s="74"/>
+      <c r="C99" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D99" s="74" t="s">
+        <v>248</v>
+      </c>
       <c r="E99" s="74"/>
       <c r="F99" s="74"/>
     </row>
@@ -30580,8 +30647,12 @@
       <c r="B100" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
+      <c r="C100" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D100" s="74" t="s">
+        <v>248</v>
+      </c>
       <c r="E100" s="74"/>
       <c r="F100" s="74"/>
     </row>
@@ -30630,8 +30701,12 @@
       <c r="B105" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
+      <c r="C105" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D105" s="74" t="s">
+        <v>248</v>
+      </c>
       <c r="E105" s="74"/>
       <c r="F105" s="74"/>
     </row>
@@ -30839,26 +30914,32 @@
       <c r="B126" s="68" t="s">
         <v>135</v>
       </c>
+      <c r="C126" s="137" t="s">
+        <v>243</v>
+      </c>
+      <c r="D126" s="138"/>
+      <c r="E126" s="138"/>
+      <c r="F126" s="138"/>
     </row>
     <row r="127" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A127" s="127"/>
       <c r="B127" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="74"/>
-      <c r="D127" s="74"/>
-      <c r="E127" s="74"/>
-      <c r="F127" s="74"/>
+      <c r="C127" s="141"/>
+      <c r="D127" s="142"/>
+      <c r="E127" s="142"/>
+      <c r="F127" s="142"/>
     </row>
     <row r="128" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A128" s="127"/>
       <c r="B128" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="74"/>
-      <c r="D128" s="74"/>
-      <c r="E128" s="74"/>
-      <c r="F128" s="74"/>
+      <c r="C128" s="139"/>
+      <c r="D128" s="140"/>
+      <c r="E128" s="140"/>
+      <c r="F128" s="140"/>
     </row>
     <row r="129" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A129" s="127"/>
@@ -30885,10 +30966,12 @@
       <c r="B131" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="74"/>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="74"/>
+      <c r="C131" s="136" t="s">
+        <v>243</v>
+      </c>
+      <c r="D131" s="143"/>
+      <c r="E131" s="143"/>
+      <c r="F131" s="144"/>
     </row>
     <row r="132" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A132" s="127"/>
@@ -30925,30 +31008,32 @@
       <c r="B135" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="74"/>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="74"/>
+      <c r="C135" s="137" t="s">
+        <v>243</v>
+      </c>
+      <c r="D135" s="138"/>
+      <c r="E135" s="138"/>
+      <c r="F135" s="145"/>
     </row>
     <row r="136" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A136" s="127"/>
       <c r="B136" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="74"/>
-      <c r="D136" s="74"/>
-      <c r="E136" s="74"/>
-      <c r="F136" s="74"/>
+      <c r="C136" s="141"/>
+      <c r="D136" s="142"/>
+      <c r="E136" s="142"/>
+      <c r="F136" s="147"/>
     </row>
     <row r="137" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A137" s="127"/>
       <c r="B137" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="74"/>
+      <c r="C137" s="139"/>
+      <c r="D137" s="140"/>
+      <c r="E137" s="140"/>
+      <c r="F137" s="146"/>
     </row>
     <row r="138" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A138" s="127"/>
@@ -31065,20 +31150,22 @@
       <c r="B149" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="C149" s="74"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74"/>
-      <c r="F149" s="74"/>
+      <c r="C149" s="137" t="s">
+        <v>243</v>
+      </c>
+      <c r="D149" s="138"/>
+      <c r="E149" s="138"/>
+      <c r="F149" s="145"/>
     </row>
     <row r="150" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A150" s="127"/>
       <c r="B150" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="74"/>
-      <c r="D150" s="74"/>
-      <c r="E150" s="74"/>
-      <c r="F150" s="74"/>
+      <c r="C150" s="139"/>
+      <c r="D150" s="140"/>
+      <c r="E150" s="140"/>
+      <c r="F150" s="146"/>
     </row>
     <row r="151" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A151" s="127"/>
@@ -31095,10 +31182,12 @@
       <c r="B152" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="C152" s="74"/>
-      <c r="D152" s="74"/>
-      <c r="E152" s="74"/>
-      <c r="F152" s="74"/>
+      <c r="C152" s="136" t="s">
+        <v>243</v>
+      </c>
+      <c r="D152" s="143"/>
+      <c r="E152" s="143"/>
+      <c r="F152" s="144"/>
     </row>
     <row r="153" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A153" s="127"/>
@@ -31125,10 +31214,12 @@
       <c r="B155" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="C155" s="74"/>
-      <c r="D155" s="74"/>
-      <c r="E155" s="74"/>
-      <c r="F155" s="74"/>
+      <c r="C155" s="136" t="s">
+        <v>243</v>
+      </c>
+      <c r="D155" s="143"/>
+      <c r="E155" s="143"/>
+      <c r="F155" s="144"/>
     </row>
     <row r="156" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A156" s="127"/>
@@ -31188,12 +31279,18 @@
     </row>
     <row r="162" spans="3:6" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="C135:F137"/>
+    <mergeCell ref="C155:F155"/>
     <mergeCell ref="A4:A124"/>
     <mergeCell ref="A126:A160"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C126:F128"/>
+    <mergeCell ref="C131:F131"/>
+    <mergeCell ref="C149:F150"/>
+    <mergeCell ref="C152:F152"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/SRS/Trazabilidad/SRS(Alimnova)TrazabilidadRequerimientosV1.3.0.xlsx
+++ b/trunk/SRS/Trazabilidad/SRS(Alimnova)TrazabilidadRequerimientosV1.3.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="3276" windowWidth="15408" windowHeight="3600" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="15408" windowHeight="3420"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADO DEL REQ" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="SUBSISTEMA CLIENTE" sheetId="4" r:id="rId4"/>
     <sheet name="SUBSISTEMA SERVIDOR" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="B">'ESTADO DEL REQ'!$D:$D</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -771,6 +774,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -1588,9 +1594,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1613,6 +1616,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1767,6 +1782,42 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1787,51 +1838,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2140,13 +2146,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="2" width="10.88671875" customWidth="1"/>
     <col min="6" max="7" width="12.44140625" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
     <col min="15" max="15" width="13.44140625" customWidth="1"/>
@@ -2154,89 +2161,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27" thickTop="1" thickBot="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="83" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
     </row>
     <row r="2" spans="1:20" ht="27" thickTop="1" thickBot="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="84" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="59"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="91"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="97" t="s">
+      <c r="A3" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="82"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="85"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="66" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="65" t="s">
         <v>213</v>
       </c>
       <c r="D4" s="44" t="s">
@@ -2425,11 +2432,11 @@
         <v>40261</v>
       </c>
       <c r="F7" s="49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G7" s="49">
         <f t="shared" ref="G7:G70" si="1">F7*B7</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7" s="56">
         <v>40303</v>
@@ -2527,11 +2534,11 @@
         <v>40261</v>
       </c>
       <c r="F9" s="49">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G9" s="49">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H9" s="56">
         <v>40303</v>
@@ -2681,15 +2688,17 @@
         <v>40261</v>
       </c>
       <c r="F12" s="49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="56"/>
+        <v>200</v>
+      </c>
+      <c r="H12" s="55">
+        <v>40306</v>
+      </c>
       <c r="I12" s="49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="49">
@@ -2731,11 +2740,11 @@
         <v>40261</v>
       </c>
       <c r="F13" s="49">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G13" s="49">
-        <f t="shared" si="1"/>
-        <v>210</v>
+        <f>F13*B13</f>
+        <v>300</v>
       </c>
       <c r="H13" s="56">
         <v>40303</v>
@@ -2847,11 +2856,11 @@
         <v>40261</v>
       </c>
       <c r="F15" s="49">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G15" s="49">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H15" s="56">
         <v>40303</v>
@@ -3581,13 +3590,15 @@
         <v>40262</v>
       </c>
       <c r="F29" s="49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G29" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="53"/>
+        <v>50</v>
+      </c>
+      <c r="H29" s="52">
+        <v>40306</v>
+      </c>
       <c r="I29" s="49">
         <v>0</v>
       </c>
@@ -3681,13 +3692,15 @@
         <v>40262</v>
       </c>
       <c r="F31" s="49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G31" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="53"/>
+        <v>100</v>
+      </c>
+      <c r="H31" s="52">
+        <v>40306</v>
+      </c>
       <c r="I31" s="49">
         <v>0</v>
       </c>
@@ -5903,11 +5916,11 @@
         <v>40262</v>
       </c>
       <c r="F74" s="49">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G74" s="49">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H74" s="56">
         <v>40303</v>
@@ -8814,30 +8827,30 @@
       <c r="T125" s="53"/>
     </row>
     <row r="126" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A126" s="95" t="s">
+      <c r="A126" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="B126" s="96"/>
-      <c r="C126" s="65">
+      <c r="B126" s="99"/>
+      <c r="C126" s="64">
         <f>SUM(C5:C125)</f>
         <v>12700</v>
       </c>
-      <c r="D126" s="75" t="s">
+      <c r="D126" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="E126" s="76"/>
-      <c r="F126" s="77"/>
+      <c r="E126" s="79"/>
+      <c r="F126" s="80"/>
       <c r="G126" s="49">
         <f>SUM(G5:G125)</f>
-        <v>3350</v>
-      </c>
-      <c r="H126" s="99" t="s">
+        <v>4380</v>
+      </c>
+      <c r="H126" s="102" t="s">
         <v>218</v>
       </c>
-      <c r="I126" s="100"/>
-      <c r="J126" s="64">
+      <c r="I126" s="103"/>
+      <c r="J126" s="77">
         <f>(G126*100)/C126</f>
-        <v>26.377952755905511</v>
+        <v>34.488188976377955</v>
       </c>
       <c r="K126" s="49"/>
       <c r="L126" s="53"/>
@@ -8851,33 +8864,33 @@
       <c r="T126" s="53"/>
     </row>
     <row r="127" spans="1:20" ht="27" thickTop="1" thickBot="1">
-      <c r="A127" s="78" t="s">
+      <c r="A127" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
-      <c r="D127" s="80" t="s">
+      <c r="D127" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="E127" s="81"/>
-      <c r="F127" s="81"/>
-      <c r="G127" s="81"/>
-      <c r="H127" s="81"/>
-      <c r="I127" s="81"/>
-      <c r="J127" s="81"/>
-      <c r="K127" s="81"/>
-      <c r="L127" s="81"/>
-      <c r="M127" s="81"/>
-      <c r="N127" s="81"/>
-      <c r="O127" s="81"/>
-      <c r="P127" s="81"/>
-      <c r="Q127" s="81"/>
-      <c r="R127" s="81"/>
-      <c r="S127" s="81"/>
-      <c r="T127" s="82"/>
+      <c r="E127" s="84"/>
+      <c r="F127" s="84"/>
+      <c r="G127" s="84"/>
+      <c r="H127" s="84"/>
+      <c r="I127" s="84"/>
+      <c r="J127" s="84"/>
+      <c r="K127" s="84"/>
+      <c r="L127" s="84"/>
+      <c r="M127" s="84"/>
+      <c r="N127" s="84"/>
+      <c r="O127" s="84"/>
+      <c r="P127" s="84"/>
+      <c r="Q127" s="84"/>
+      <c r="R127" s="84"/>
+      <c r="S127" s="84"/>
+      <c r="T127" s="85"/>
     </row>
     <row r="128" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A128" s="79"/>
+      <c r="A128" s="82"/>
       <c r="B128" s="60" t="s">
         <v>214</v>
       </c>
@@ -11098,33 +11111,33 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" thickTop="1" thickBot="1">
       <c r="A1" s="29"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="103"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="106"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -11136,7 +11149,7 @@
     </row>
     <row r="2" spans="1:32" ht="29.4" thickBot="1">
       <c r="A2" s="29"/>
-      <c r="B2" s="106"/>
+      <c r="B2" s="109"/>
       <c r="C2" s="22" t="s">
         <v>132</v>
       </c>
@@ -11156,15 +11169,15 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -11176,7 +11189,7 @@
     </row>
     <row r="3" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="29"/>
-      <c r="B3" s="106"/>
+      <c r="B3" s="109"/>
       <c r="C3" s="11" t="s">
         <v>163</v>
       </c>
@@ -11245,7 +11258,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="110" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -11275,7 +11288,7 @@
       <c r="X4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A5" s="108"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -11347,7 +11360,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A6" s="108"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -11419,7 +11432,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A7" s="108"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -11491,7 +11504,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="108"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
@@ -11563,7 +11576,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A9" s="108"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -11635,7 +11648,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A10" s="108"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -11707,7 +11720,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A11" s="108"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -11779,7 +11792,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A12" s="108"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
@@ -11851,7 +11864,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A13" s="108"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
@@ -11879,7 +11892,7 @@
       <c r="X13" s="34"/>
     </row>
     <row r="14" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A14" s="108"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -11951,7 +11964,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A15" s="108"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
@@ -12023,7 +12036,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A16" s="108"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
@@ -12095,7 +12108,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A17" s="108"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
@@ -12167,7 +12180,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A18" s="108"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
@@ -12239,7 +12252,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A19" s="108"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -12311,7 +12324,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A20" s="108"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
@@ -12383,7 +12396,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A21" s="108"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
@@ -12455,7 +12468,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A22" s="108"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
@@ -12527,7 +12540,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A23" s="108"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
@@ -12555,7 +12568,7 @@
       <c r="X23" s="34"/>
     </row>
     <row r="24" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A24" s="108"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
@@ -12627,7 +12640,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A25" s="108"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
@@ -12699,7 +12712,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A26" s="108"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
@@ -12727,7 +12740,7 @@
       <c r="X26" s="34"/>
     </row>
     <row r="27" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A27" s="108"/>
+      <c r="A27" s="111"/>
       <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
@@ -12799,7 +12812,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A28" s="108"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
@@ -12871,7 +12884,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A29" s="108"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
@@ -12943,7 +12956,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A30" s="108"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
@@ -13015,7 +13028,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A31" s="108"/>
+      <c r="A31" s="111"/>
       <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
@@ -13087,7 +13100,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A32" s="108"/>
+      <c r="A32" s="111"/>
       <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
@@ -13159,7 +13172,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A33" s="108"/>
+      <c r="A33" s="111"/>
       <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
@@ -13231,7 +13244,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A34" s="108"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="4" t="s">
         <v>41</v>
       </c>
@@ -13303,7 +13316,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A35" s="108"/>
+      <c r="A35" s="111"/>
       <c r="B35" s="4" t="s">
         <v>42</v>
       </c>
@@ -13375,7 +13388,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A36" s="108"/>
+      <c r="A36" s="111"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -13447,7 +13460,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A37" s="108"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="4" t="s">
         <v>44</v>
       </c>
@@ -13519,7 +13532,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A38" s="108"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="4" t="s">
         <v>45</v>
       </c>
@@ -13591,7 +13604,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A39" s="108"/>
+      <c r="A39" s="111"/>
       <c r="B39" s="4" t="s">
         <v>46</v>
       </c>
@@ -13663,7 +13676,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A40" s="108"/>
+      <c r="A40" s="111"/>
       <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
@@ -13735,7 +13748,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A41" s="108"/>
+      <c r="A41" s="111"/>
       <c r="B41" s="4" t="s">
         <v>38</v>
       </c>
@@ -13807,7 +13820,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A42" s="108"/>
+      <c r="A42" s="111"/>
       <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
@@ -13879,7 +13892,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A43" s="108"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
@@ -13907,7 +13920,7 @@
       <c r="X43" s="40"/>
     </row>
     <row r="44" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A44" s="108"/>
+      <c r="A44" s="111"/>
       <c r="B44" s="4" t="s">
         <v>51</v>
       </c>
@@ -13979,7 +13992,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A45" s="108"/>
+      <c r="A45" s="111"/>
       <c r="B45" s="4" t="s">
         <v>52</v>
       </c>
@@ -14051,7 +14064,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A46" s="108"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
@@ -14123,7 +14136,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A47" s="108"/>
+      <c r="A47" s="111"/>
       <c r="B47" s="4" t="s">
         <v>54</v>
       </c>
@@ -14195,7 +14208,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A48" s="108"/>
+      <c r="A48" s="111"/>
       <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
@@ -14223,7 +14236,7 @@
       <c r="X48" s="31"/>
     </row>
     <row r="49" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A49" s="108"/>
+      <c r="A49" s="111"/>
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
@@ -14295,7 +14308,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A50" s="108"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
@@ -14367,7 +14380,7 @@
       </c>
     </row>
     <row r="51" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A51" s="108"/>
+      <c r="A51" s="111"/>
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
@@ -14439,7 +14452,7 @@
       </c>
     </row>
     <row r="52" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A52" s="108"/>
+      <c r="A52" s="111"/>
       <c r="B52" s="4" t="s">
         <v>59</v>
       </c>
@@ -14511,7 +14524,7 @@
       </c>
     </row>
     <row r="53" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A53" s="108"/>
+      <c r="A53" s="111"/>
       <c r="B53" s="4" t="s">
         <v>60</v>
       </c>
@@ -14583,7 +14596,7 @@
       </c>
     </row>
     <row r="54" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A54" s="108"/>
+      <c r="A54" s="111"/>
       <c r="B54" s="4" t="s">
         <v>61</v>
       </c>
@@ -14655,7 +14668,7 @@
       </c>
     </row>
     <row r="55" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A55" s="108"/>
+      <c r="A55" s="111"/>
       <c r="B55" s="4" t="s">
         <v>62</v>
       </c>
@@ -14683,7 +14696,7 @@
       <c r="X55" s="31"/>
     </row>
     <row r="56" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A56" s="108"/>
+      <c r="A56" s="111"/>
       <c r="B56" s="4" t="s">
         <v>63</v>
       </c>
@@ -14755,7 +14768,7 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A57" s="108"/>
+      <c r="A57" s="111"/>
       <c r="B57" s="4" t="s">
         <v>64</v>
       </c>
@@ -14827,7 +14840,7 @@
       </c>
     </row>
     <row r="58" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A58" s="108"/>
+      <c r="A58" s="111"/>
       <c r="B58" s="4" t="s">
         <v>65</v>
       </c>
@@ -14899,7 +14912,7 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A59" s="108"/>
+      <c r="A59" s="111"/>
       <c r="B59" s="4" t="s">
         <v>66</v>
       </c>
@@ -14971,7 +14984,7 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A60" s="108"/>
+      <c r="A60" s="111"/>
       <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
@@ -15043,7 +15056,7 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A61" s="108"/>
+      <c r="A61" s="111"/>
       <c r="B61" s="4" t="s">
         <v>68</v>
       </c>
@@ -15115,7 +15128,7 @@
       </c>
     </row>
     <row r="62" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A62" s="108"/>
+      <c r="A62" s="111"/>
       <c r="B62" s="4" t="s">
         <v>69</v>
       </c>
@@ -15143,7 +15156,7 @@
       <c r="X62" s="31"/>
     </row>
     <row r="63" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A63" s="108"/>
+      <c r="A63" s="111"/>
       <c r="B63" s="4" t="s">
         <v>70</v>
       </c>
@@ -15171,7 +15184,7 @@
       <c r="X63" s="31"/>
     </row>
     <row r="64" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A64" s="108"/>
+      <c r="A64" s="111"/>
       <c r="B64" s="4" t="s">
         <v>31</v>
       </c>
@@ -15243,7 +15256,7 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A65" s="108"/>
+      <c r="A65" s="111"/>
       <c r="B65" s="4" t="s">
         <v>72</v>
       </c>
@@ -15315,7 +15328,7 @@
       </c>
     </row>
     <row r="66" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A66" s="108"/>
+      <c r="A66" s="111"/>
       <c r="B66" s="4" t="s">
         <v>73</v>
       </c>
@@ -15387,7 +15400,7 @@
       </c>
     </row>
     <row r="67" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A67" s="108"/>
+      <c r="A67" s="111"/>
       <c r="B67" s="4" t="s">
         <v>74</v>
       </c>
@@ -15459,7 +15472,7 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A68" s="108"/>
+      <c r="A68" s="111"/>
       <c r="B68" s="4" t="s">
         <v>75</v>
       </c>
@@ -15531,7 +15544,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A69" s="108"/>
+      <c r="A69" s="111"/>
       <c r="B69" s="5" t="s">
         <v>76</v>
       </c>
@@ -15603,7 +15616,7 @@
       </c>
     </row>
     <row r="70" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A70" s="108"/>
+      <c r="A70" s="111"/>
       <c r="B70" s="5" t="s">
         <v>77</v>
       </c>
@@ -15675,7 +15688,7 @@
       </c>
     </row>
     <row r="71" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A71" s="108"/>
+      <c r="A71" s="111"/>
       <c r="B71" s="5" t="s">
         <v>78</v>
       </c>
@@ -15707,7 +15720,7 @@
       <c r="X71" s="32"/>
     </row>
     <row r="72" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A72" s="108"/>
+      <c r="A72" s="111"/>
       <c r="B72" s="5" t="s">
         <v>79</v>
       </c>
@@ -15739,7 +15752,7 @@
       <c r="X72" s="32"/>
     </row>
     <row r="73" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A73" s="108"/>
+      <c r="A73" s="111"/>
       <c r="B73" s="5" t="s">
         <v>80</v>
       </c>
@@ -15771,7 +15784,7 @@
       <c r="X73" s="32"/>
     </row>
     <row r="74" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A74" s="108"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="5" t="s">
         <v>81</v>
       </c>
@@ -15803,7 +15816,7 @@
       <c r="X74" s="32"/>
     </row>
     <row r="75" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A75" s="108"/>
+      <c r="A75" s="111"/>
       <c r="B75" s="5" t="s">
         <v>82</v>
       </c>
@@ -15831,7 +15844,7 @@
       <c r="X75" s="31"/>
     </row>
     <row r="76" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A76" s="108"/>
+      <c r="A76" s="111"/>
       <c r="B76" s="5" t="s">
         <v>83</v>
       </c>
@@ -15859,7 +15872,7 @@
       <c r="X76" s="31"/>
     </row>
     <row r="77" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A77" s="108"/>
+      <c r="A77" s="111"/>
       <c r="B77" s="5" t="s">
         <v>84</v>
       </c>
@@ -15887,7 +15900,7 @@
       <c r="X77" s="31"/>
     </row>
     <row r="78" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A78" s="108"/>
+      <c r="A78" s="111"/>
       <c r="B78" s="5" t="s">
         <v>85</v>
       </c>
@@ -15915,7 +15928,7 @@
       <c r="X78" s="31"/>
     </row>
     <row r="79" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A79" s="108"/>
+      <c r="A79" s="111"/>
       <c r="B79" s="5" t="s">
         <v>86</v>
       </c>
@@ -15943,7 +15956,7 @@
       <c r="X79" s="31"/>
     </row>
     <row r="80" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A80" s="108"/>
+      <c r="A80" s="111"/>
       <c r="B80" s="5" t="s">
         <v>87</v>
       </c>
@@ -15973,7 +15986,7 @@
       <c r="X80" s="32"/>
     </row>
     <row r="81" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A81" s="108"/>
+      <c r="A81" s="111"/>
       <c r="B81" s="5" t="s">
         <v>202</v>
       </c>
@@ -16003,7 +16016,7 @@
       <c r="X81" s="32"/>
     </row>
     <row r="82" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A82" s="108"/>
+      <c r="A82" s="111"/>
       <c r="B82" s="5" t="s">
         <v>89</v>
       </c>
@@ -16035,7 +16048,7 @@
       <c r="X82" s="32"/>
     </row>
     <row r="83" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A83" s="108"/>
+      <c r="A83" s="111"/>
       <c r="B83" s="5" t="s">
         <v>90</v>
       </c>
@@ -16065,7 +16078,7 @@
       <c r="X83" s="32"/>
     </row>
     <row r="84" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A84" s="108"/>
+      <c r="A84" s="111"/>
       <c r="B84" s="5" t="s">
         <v>91</v>
       </c>
@@ -16095,7 +16108,7 @@
       <c r="X84" s="32"/>
     </row>
     <row r="85" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A85" s="108"/>
+      <c r="A85" s="111"/>
       <c r="B85" s="5" t="s">
         <v>92</v>
       </c>
@@ -16127,7 +16140,7 @@
       <c r="X85" s="32"/>
     </row>
     <row r="86" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A86" s="108"/>
+      <c r="A86" s="111"/>
       <c r="B86" s="5" t="s">
         <v>93</v>
       </c>
@@ -16155,7 +16168,7 @@
       <c r="X86" s="31"/>
     </row>
     <row r="87" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A87" s="108"/>
+      <c r="A87" s="111"/>
       <c r="B87" s="5" t="s">
         <v>94</v>
       </c>
@@ -16187,7 +16200,7 @@
       <c r="X87" s="32"/>
     </row>
     <row r="88" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A88" s="108"/>
+      <c r="A88" s="111"/>
       <c r="B88" s="5" t="s">
         <v>95</v>
       </c>
@@ -16219,7 +16232,7 @@
       <c r="X88" s="32"/>
     </row>
     <row r="89" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A89" s="108"/>
+      <c r="A89" s="111"/>
       <c r="B89" s="5" t="s">
         <v>96</v>
       </c>
@@ -16255,7 +16268,7 @@
       <c r="X89" s="32"/>
     </row>
     <row r="90" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A90" s="108"/>
+      <c r="A90" s="111"/>
       <c r="B90" s="5" t="s">
         <v>97</v>
       </c>
@@ -16283,7 +16296,7 @@
       <c r="X90" s="31"/>
     </row>
     <row r="91" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A91" s="108"/>
+      <c r="A91" s="111"/>
       <c r="B91" s="5" t="s">
         <v>98</v>
       </c>
@@ -16355,7 +16368,7 @@
       </c>
     </row>
     <row r="92" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A92" s="108"/>
+      <c r="A92" s="111"/>
       <c r="B92" s="5" t="s">
         <v>99</v>
       </c>
@@ -16427,7 +16440,7 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A93" s="108"/>
+      <c r="A93" s="111"/>
       <c r="B93" s="5" t="s">
         <v>100</v>
       </c>
@@ -16499,7 +16512,7 @@
       </c>
     </row>
     <row r="94" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A94" s="108"/>
+      <c r="A94" s="111"/>
       <c r="B94" s="5" t="s">
         <v>101</v>
       </c>
@@ -16571,7 +16584,7 @@
       </c>
     </row>
     <row r="95" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A95" s="108"/>
+      <c r="A95" s="111"/>
       <c r="B95" s="5" t="s">
         <v>102</v>
       </c>
@@ -16643,7 +16656,7 @@
       </c>
     </row>
     <row r="96" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A96" s="108"/>
+      <c r="A96" s="111"/>
       <c r="B96" s="5" t="s">
         <v>103</v>
       </c>
@@ -16715,7 +16728,7 @@
       </c>
     </row>
     <row r="97" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A97" s="108"/>
+      <c r="A97" s="111"/>
       <c r="B97" s="5" t="s">
         <v>104</v>
       </c>
@@ -16787,7 +16800,7 @@
       </c>
     </row>
     <row r="98" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A98" s="108"/>
+      <c r="A98" s="111"/>
       <c r="B98" s="5" t="s">
         <v>105</v>
       </c>
@@ -16859,7 +16872,7 @@
       </c>
     </row>
     <row r="99" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A99" s="108"/>
+      <c r="A99" s="111"/>
       <c r="B99" s="5" t="s">
         <v>106</v>
       </c>
@@ -16931,7 +16944,7 @@
       </c>
     </row>
     <row r="100" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A100" s="108"/>
+      <c r="A100" s="111"/>
       <c r="B100" s="5" t="s">
         <v>107</v>
       </c>
@@ -17003,7 +17016,7 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A101" s="108"/>
+      <c r="A101" s="111"/>
       <c r="B101" s="5" t="s">
         <v>108</v>
       </c>
@@ -17075,7 +17088,7 @@
       </c>
     </row>
     <row r="102" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A102" s="108"/>
+      <c r="A102" s="111"/>
       <c r="B102" s="5" t="s">
         <v>109</v>
       </c>
@@ -17147,7 +17160,7 @@
       </c>
     </row>
     <row r="103" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A103" s="108"/>
+      <c r="A103" s="111"/>
       <c r="B103" s="5" t="s">
         <v>110</v>
       </c>
@@ -17219,7 +17232,7 @@
       </c>
     </row>
     <row r="104" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A104" s="108"/>
+      <c r="A104" s="111"/>
       <c r="B104" s="5" t="s">
         <v>111</v>
       </c>
@@ -17291,7 +17304,7 @@
       </c>
     </row>
     <row r="105" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A105" s="108"/>
+      <c r="A105" s="111"/>
       <c r="B105" s="5" t="s">
         <v>112</v>
       </c>
@@ -17319,7 +17332,7 @@
       <c r="X105" s="31"/>
     </row>
     <row r="106" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A106" s="108"/>
+      <c r="A106" s="111"/>
       <c r="B106" s="5" t="s">
         <v>113</v>
       </c>
@@ -17391,7 +17404,7 @@
       </c>
     </row>
     <row r="107" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A107" s="108"/>
+      <c r="A107" s="111"/>
       <c r="B107" s="5" t="s">
         <v>114</v>
       </c>
@@ -17419,7 +17432,7 @@
       <c r="X107" s="31"/>
     </row>
     <row r="108" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A108" s="108"/>
+      <c r="A108" s="111"/>
       <c r="B108" s="5" t="s">
         <v>115</v>
       </c>
@@ -17447,7 +17460,7 @@
       <c r="X108" s="31"/>
     </row>
     <row r="109" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A109" s="108"/>
+      <c r="A109" s="111"/>
       <c r="B109" s="5" t="s">
         <v>116</v>
       </c>
@@ -17475,7 +17488,7 @@
       <c r="X109" s="31"/>
     </row>
     <row r="110" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A110" s="108"/>
+      <c r="A110" s="111"/>
       <c r="B110" s="5" t="s">
         <v>117</v>
       </c>
@@ -17503,7 +17516,7 @@
       <c r="X110" s="31"/>
     </row>
     <row r="111" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A111" s="108"/>
+      <c r="A111" s="111"/>
       <c r="B111" s="5" t="s">
         <v>118</v>
       </c>
@@ -17531,7 +17544,7 @@
       <c r="X111" s="31"/>
     </row>
     <row r="112" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A112" s="108"/>
+      <c r="A112" s="111"/>
       <c r="B112" s="5" t="s">
         <v>119</v>
       </c>
@@ -17559,7 +17572,7 @@
       <c r="X112" s="31"/>
     </row>
     <row r="113" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A113" s="108"/>
+      <c r="A113" s="111"/>
       <c r="B113" s="5" t="s">
         <v>120</v>
       </c>
@@ -17587,7 +17600,7 @@
       <c r="X113" s="31"/>
     </row>
     <row r="114" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A114" s="108"/>
+      <c r="A114" s="111"/>
       <c r="B114" s="5" t="s">
         <v>121</v>
       </c>
@@ -17615,7 +17628,7 @@
       <c r="X114" s="31"/>
     </row>
     <row r="115" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A115" s="108"/>
+      <c r="A115" s="111"/>
       <c r="B115" s="5" t="s">
         <v>122</v>
       </c>
@@ -17643,7 +17656,7 @@
       <c r="X115" s="31"/>
     </row>
     <row r="116" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A116" s="108"/>
+      <c r="A116" s="111"/>
       <c r="B116" s="5" t="s">
         <v>205</v>
       </c>
@@ -17671,7 +17684,7 @@
       <c r="X116" s="31"/>
     </row>
     <row r="117" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A117" s="108"/>
+      <c r="A117" s="111"/>
       <c r="B117" s="5" t="s">
         <v>124</v>
       </c>
@@ -17699,7 +17712,7 @@
       <c r="X117" s="31"/>
     </row>
     <row r="118" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A118" s="108"/>
+      <c r="A118" s="111"/>
       <c r="B118" s="5" t="s">
         <v>125</v>
       </c>
@@ -17771,7 +17784,7 @@
       </c>
     </row>
     <row r="119" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A119" s="108"/>
+      <c r="A119" s="111"/>
       <c r="B119" s="6" t="s">
         <v>126</v>
       </c>
@@ -17799,7 +17812,7 @@
       <c r="X119" s="31"/>
     </row>
     <row r="120" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A120" s="108"/>
+      <c r="A120" s="111"/>
       <c r="B120" s="5" t="s">
         <v>127</v>
       </c>
@@ -17871,7 +17884,7 @@
       </c>
     </row>
     <row r="121" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A121" s="108"/>
+      <c r="A121" s="111"/>
       <c r="B121" s="5" t="s">
         <v>128</v>
       </c>
@@ -17943,7 +17956,7 @@
       </c>
     </row>
     <row r="122" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A122" s="108"/>
+      <c r="A122" s="111"/>
       <c r="B122" s="5" t="s">
         <v>129</v>
       </c>
@@ -17971,7 +17984,7 @@
       <c r="X122" s="31"/>
     </row>
     <row r="123" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A123" s="108"/>
+      <c r="A123" s="111"/>
       <c r="B123" s="7" t="s">
         <v>206</v>
       </c>
@@ -17999,7 +18012,7 @@
       <c r="X123" s="31"/>
     </row>
     <row r="124" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A124" s="109"/>
+      <c r="A124" s="112"/>
       <c r="B124" s="5" t="s">
         <v>131</v>
       </c>
@@ -18101,42 +18114,42 @@
     <row r="1" spans="1:123" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="114" t="s">
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="117" t="s">
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="124"/>
       <c r="AG1" s="36"/>
       <c r="AH1" s="36"/>
       <c r="AI1" s="36"/>
@@ -18597,7 +18610,7 @@
       </c>
     </row>
     <row r="3" spans="1:123" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="115" t="s">
         <v>177</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -18936,7 +18949,7 @@
       </c>
     </row>
     <row r="4" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A4" s="113"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="19" t="s">
         <v>136</v>
       </c>
@@ -19273,7 +19286,7 @@
       </c>
     </row>
     <row r="5" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A5" s="113"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="19" t="s">
         <v>137</v>
       </c>
@@ -19610,7 +19623,7 @@
       </c>
     </row>
     <row r="6" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A6" s="113"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="19" t="s">
         <v>138</v>
       </c>
@@ -19947,7 +19960,7 @@
       </c>
     </row>
     <row r="7" spans="1:123" s="21" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A7" s="113"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="19" t="s">
         <v>139</v>
       </c>
@@ -20284,7 +20297,7 @@
       </c>
     </row>
     <row r="8" spans="1:123" s="21" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="113"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="19" t="s">
         <v>140</v>
       </c>
@@ -20623,7 +20636,7 @@
       </c>
     </row>
     <row r="9" spans="1:123" s="21" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A9" s="113"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="19" t="s">
         <v>141</v>
       </c>
@@ -20962,7 +20975,7 @@
       </c>
     </row>
     <row r="10" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A10" s="113"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="19" t="s">
         <v>142</v>
       </c>
@@ -21301,7 +21314,7 @@
       </c>
     </row>
     <row r="11" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A11" s="113"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="19" t="s">
         <v>143</v>
       </c>
@@ -21640,7 +21653,7 @@
       </c>
     </row>
     <row r="12" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A12" s="113"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="19" t="s">
         <v>145</v>
       </c>
@@ -21767,7 +21780,7 @@
       <c r="DS12" s="33"/>
     </row>
     <row r="13" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A13" s="113"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="19" t="s">
         <v>146</v>
       </c>
@@ -21894,7 +21907,7 @@
       <c r="DS13" s="33"/>
     </row>
     <row r="14" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A14" s="113"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="19" t="s">
         <v>147</v>
       </c>
@@ -22021,7 +22034,7 @@
       <c r="DS14" s="33"/>
     </row>
     <row r="15" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A15" s="113"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="19" t="s">
         <v>148</v>
       </c>
@@ -22148,7 +22161,7 @@
       <c r="DS15" s="33"/>
     </row>
     <row r="16" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A16" s="113"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="19" t="s">
         <v>149</v>
       </c>
@@ -22275,7 +22288,7 @@
       <c r="DS16" s="33"/>
     </row>
     <row r="17" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A17" s="113"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="19" t="s">
         <v>150</v>
       </c>
@@ -22402,7 +22415,7 @@
       <c r="DS17" s="33"/>
     </row>
     <row r="18" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A18" s="113"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="19" t="s">
         <v>151</v>
       </c>
@@ -22741,7 +22754,7 @@
       </c>
     </row>
     <row r="19" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A19" s="113"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="19" t="s">
         <v>152</v>
       </c>
@@ -22868,7 +22881,7 @@
       <c r="DS19" s="40"/>
     </row>
     <row r="20" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A20" s="113"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="19" t="s">
         <v>153</v>
       </c>
@@ -23207,7 +23220,7 @@
       </c>
     </row>
     <row r="21" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A21" s="113"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="19" t="s">
         <v>154</v>
       </c>
@@ -23546,7 +23559,7 @@
       </c>
     </row>
     <row r="22" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A22" s="113"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="19" t="s">
         <v>155</v>
       </c>
@@ -23885,7 +23898,7 @@
       </c>
     </row>
     <row r="23" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A23" s="113"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="19" t="s">
         <v>156</v>
       </c>
@@ -24224,7 +24237,7 @@
       </c>
     </row>
     <row r="24" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A24" s="113"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="19" t="s">
         <v>157</v>
       </c>
@@ -24555,7 +24568,7 @@
       <c r="DS24" s="33"/>
     </row>
     <row r="25" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A25" s="113"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="19" t="s">
         <v>158</v>
       </c>
@@ -24682,7 +24695,7 @@
       <c r="DS25" s="34"/>
     </row>
     <row r="26" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A26" s="113"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="19" t="s">
         <v>159</v>
       </c>
@@ -24809,7 +24822,7 @@
       <c r="DS26" s="34"/>
     </row>
     <row r="27" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A27" s="113"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="19" t="s">
         <v>160</v>
       </c>
@@ -24936,7 +24949,7 @@
       <c r="DS27" s="34"/>
     </row>
     <row r="28" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A28" s="113"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="19" t="s">
         <v>208</v>
       </c>
@@ -25115,7 +25128,7 @@
       <c r="DS28" s="33"/>
     </row>
     <row r="29" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A29" s="113"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="19" t="s">
         <v>209</v>
       </c>
@@ -25294,7 +25307,7 @@
       <c r="DS29" s="33"/>
     </row>
     <row r="30" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A30" s="113"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="19" t="s">
         <v>210</v>
       </c>
@@ -25473,7 +25486,7 @@
       <c r="DS30" s="33"/>
     </row>
     <row r="31" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A31" s="113"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="19" t="s">
         <v>211</v>
       </c>
@@ -25652,7 +25665,7 @@
       <c r="DS31" s="33"/>
     </row>
     <row r="32" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A32" s="113"/>
+      <c r="A32" s="116"/>
       <c r="B32" s="19" t="s">
         <v>212</v>
       </c>
@@ -25831,7 +25844,7 @@
       <c r="DS32" s="33"/>
     </row>
     <row r="33" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A33" s="113"/>
+      <c r="A33" s="116"/>
       <c r="B33" s="19" t="s">
         <v>188</v>
       </c>
@@ -26166,7 +26179,7 @@
       </c>
     </row>
     <row r="34" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A34" s="113"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="20" t="s">
         <v>189</v>
       </c>
@@ -26503,7 +26516,7 @@
       </c>
     </row>
     <row r="35" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A35" s="113"/>
+      <c r="A35" s="116"/>
       <c r="B35" s="20" t="s">
         <v>190</v>
       </c>
@@ -26842,7 +26855,7 @@
       </c>
     </row>
     <row r="36" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A36" s="113"/>
+      <c r="A36" s="116"/>
       <c r="B36" s="20" t="s">
         <v>191</v>
       </c>
@@ -27181,7 +27194,7 @@
       </c>
     </row>
     <row r="37" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A37" s="113"/>
+      <c r="A37" s="116"/>
       <c r="B37" s="20" t="s">
         <v>192</v>
       </c>
@@ -27871,72 +27884,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="34.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
     </row>
     <row r="2" spans="1:55" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="134" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
       <c r="AW2" s="13"/>
       <c r="AX2" s="13"/>
       <c r="AY2" s="13"/>
@@ -27946,1578 +27959,1578 @@
       <c r="BC2" s="13"/>
     </row>
     <row r="3" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A4" s="122"/>
-      <c r="B4" s="133" t="s">
+      <c r="A4" s="125"/>
+      <c r="B4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A5" s="122"/>
-      <c r="B5" s="133" t="s">
+      <c r="A5" s="125"/>
+      <c r="B5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="133" t="s">
+      <c r="A6" s="125"/>
+      <c r="B6" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A7" s="122"/>
-      <c r="B7" s="133" t="s">
+      <c r="A7" s="125"/>
+      <c r="B7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="122"/>
-      <c r="B8" s="133" t="s">
+      <c r="A8" s="125"/>
+      <c r="B8" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
     </row>
     <row r="9" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A9" s="122"/>
-      <c r="B9" s="68" t="s">
+      <c r="A9" s="125"/>
+      <c r="B9" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A10" s="122"/>
-      <c r="B10" s="68" t="s">
+      <c r="A10" s="125"/>
+      <c r="B10" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A11" s="122"/>
-      <c r="B11" s="68" t="s">
+      <c r="A11" s="125"/>
+      <c r="B11" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A12" s="122"/>
-      <c r="B12" s="68" t="s">
+      <c r="A12" s="125"/>
+      <c r="B12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
     </row>
     <row r="13" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="68" t="s">
+      <c r="A13" s="125"/>
+      <c r="B13" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="68" t="s">
+      <c r="A14" s="125"/>
+      <c r="B14" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A15" s="122"/>
-      <c r="B15" s="68" t="s">
+      <c r="A15" s="125"/>
+      <c r="B15" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
     </row>
     <row r="16" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A16" s="122"/>
-      <c r="B16" s="68" t="s">
+      <c r="A16" s="125"/>
+      <c r="B16" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="68" t="s">
+      <c r="A17" s="125"/>
+      <c r="B17" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A18" s="122"/>
-      <c r="B18" s="68" t="s">
+      <c r="A18" s="125"/>
+      <c r="B18" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A19" s="122"/>
-      <c r="B19" s="68" t="s">
+      <c r="A19" s="125"/>
+      <c r="B19" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A20" s="122"/>
-      <c r="B20" s="68" t="s">
+      <c r="A20" s="125"/>
+      <c r="B20" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A21" s="122"/>
-      <c r="B21" s="68" t="s">
+      <c r="A21" s="125"/>
+      <c r="B21" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A22" s="122"/>
-      <c r="B22" s="68" t="s">
+      <c r="A22" s="125"/>
+      <c r="B22" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
     </row>
     <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A23" s="122"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="125"/>
+      <c r="B23" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
     </row>
     <row r="24" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A24" s="122"/>
-      <c r="B24" s="68" t="s">
+      <c r="A24" s="125"/>
+      <c r="B24" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
     </row>
     <row r="25" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A25" s="122"/>
-      <c r="B25" s="68" t="s">
+      <c r="A25" s="125"/>
+      <c r="B25" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A26" s="122"/>
-      <c r="B26" s="68" t="s">
+      <c r="A26" s="125"/>
+      <c r="B26" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
     </row>
     <row r="27" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A27" s="122"/>
-      <c r="B27" s="68" t="s">
+      <c r="A27" s="125"/>
+      <c r="B27" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A28" s="122"/>
-      <c r="B28" s="68" t="s">
+      <c r="A28" s="125"/>
+      <c r="B28" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A29" s="122"/>
-      <c r="B29" s="68" t="s">
+      <c r="A29" s="125"/>
+      <c r="B29" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
     </row>
     <row r="30" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A30" s="122"/>
-      <c r="B30" s="68" t="s">
+      <c r="A30" s="125"/>
+      <c r="B30" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
     </row>
     <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A31" s="122"/>
-      <c r="B31" s="68" t="s">
+      <c r="A31" s="125"/>
+      <c r="B31" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
     </row>
     <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A32" s="122"/>
-      <c r="B32" s="68" t="s">
+      <c r="A32" s="125"/>
+      <c r="B32" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
     </row>
     <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A33" s="122"/>
-      <c r="B33" s="68" t="s">
+      <c r="A33" s="125"/>
+      <c r="B33" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A34" s="122"/>
-      <c r="B34" s="68" t="s">
+      <c r="A34" s="125"/>
+      <c r="B34" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
     </row>
     <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A35" s="122"/>
-      <c r="B35" s="68" t="s">
+      <c r="A35" s="125"/>
+      <c r="B35" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
     </row>
     <row r="36" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A36" s="122"/>
-      <c r="B36" s="68" t="s">
+      <c r="A36" s="125"/>
+      <c r="B36" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
     </row>
     <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A37" s="122"/>
-      <c r="B37" s="68" t="s">
+      <c r="A37" s="125"/>
+      <c r="B37" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
     </row>
     <row r="38" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A38" s="122"/>
-      <c r="B38" s="68" t="s">
+      <c r="A38" s="125"/>
+      <c r="B38" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
     </row>
     <row r="39" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A39" s="122"/>
-      <c r="B39" s="68" t="s">
+      <c r="A39" s="125"/>
+      <c r="B39" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
     </row>
     <row r="40" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A40" s="122"/>
-      <c r="B40" s="68" t="s">
+      <c r="A40" s="125"/>
+      <c r="B40" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A41" s="122"/>
-      <c r="B41" s="68" t="s">
+      <c r="A41" s="125"/>
+      <c r="B41" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
     </row>
     <row r="42" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A42" s="122"/>
-      <c r="B42" s="68" t="s">
+      <c r="A42" s="125"/>
+      <c r="B42" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A43" s="122"/>
-      <c r="B43" s="68" t="s">
+      <c r="A43" s="125"/>
+      <c r="B43" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
     </row>
     <row r="44" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A44" s="122"/>
-      <c r="B44" s="68" t="s">
+      <c r="A44" s="125"/>
+      <c r="B44" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
     </row>
     <row r="45" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A45" s="122"/>
-      <c r="B45" s="68" t="s">
+      <c r="A45" s="125"/>
+      <c r="B45" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
     </row>
     <row r="46" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A46" s="122"/>
-      <c r="B46" s="68" t="s">
+      <c r="A46" s="125"/>
+      <c r="B46" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
     </row>
     <row r="47" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A47" s="122"/>
-      <c r="B47" s="68" t="s">
+      <c r="A47" s="125"/>
+      <c r="B47" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
     </row>
     <row r="48" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A48" s="122"/>
-      <c r="B48" s="68" t="s">
+      <c r="A48" s="125"/>
+      <c r="B48" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
     </row>
     <row r="49" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A49" s="122"/>
-      <c r="B49" s="68" t="s">
+      <c r="A49" s="125"/>
+      <c r="B49" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A50" s="122"/>
-      <c r="B50" s="68" t="s">
+      <c r="A50" s="125"/>
+      <c r="B50" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
     </row>
     <row r="51" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A51" s="122"/>
-      <c r="B51" s="68" t="s">
+      <c r="A51" s="125"/>
+      <c r="B51" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
     </row>
     <row r="52" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A52" s="122"/>
-      <c r="B52" s="68" t="s">
+      <c r="A52" s="125"/>
+      <c r="B52" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
     </row>
     <row r="53" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A53" s="122"/>
-      <c r="B53" s="68" t="s">
+      <c r="A53" s="125"/>
+      <c r="B53" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
     </row>
     <row r="54" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A54" s="122"/>
-      <c r="B54" s="68" t="s">
+      <c r="A54" s="125"/>
+      <c r="B54" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
     </row>
     <row r="55" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A55" s="122"/>
-      <c r="B55" s="68" t="s">
+      <c r="A55" s="125"/>
+      <c r="B55" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
     </row>
     <row r="56" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A56" s="122"/>
-      <c r="B56" s="68" t="s">
+      <c r="A56" s="125"/>
+      <c r="B56" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
     </row>
     <row r="57" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A57" s="122"/>
-      <c r="B57" s="68" t="s">
+      <c r="A57" s="125"/>
+      <c r="B57" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
     </row>
     <row r="58" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A58" s="122"/>
-      <c r="B58" s="68" t="s">
+      <c r="A58" s="125"/>
+      <c r="B58" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
     </row>
     <row r="59" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A59" s="122"/>
-      <c r="B59" s="68" t="s">
+      <c r="A59" s="125"/>
+      <c r="B59" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
     </row>
     <row r="60" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A60" s="122"/>
-      <c r="B60" s="68" t="s">
+      <c r="A60" s="125"/>
+      <c r="B60" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
     </row>
     <row r="61" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A61" s="122"/>
-      <c r="B61" s="68" t="s">
+      <c r="A61" s="125"/>
+      <c r="B61" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
     </row>
     <row r="62" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A62" s="122"/>
-      <c r="B62" s="68" t="s">
+      <c r="A62" s="125"/>
+      <c r="B62" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
     </row>
     <row r="63" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A63" s="122"/>
-      <c r="B63" s="68" t="s">
+      <c r="A63" s="125"/>
+      <c r="B63" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
     </row>
     <row r="64" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A64" s="122"/>
-      <c r="B64" s="68" t="s">
+      <c r="A64" s="125"/>
+      <c r="B64" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
     </row>
     <row r="65" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A65" s="122"/>
-      <c r="B65" s="68" t="s">
+      <c r="A65" s="125"/>
+      <c r="B65" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
     </row>
     <row r="66" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A66" s="122"/>
-      <c r="B66" s="68" t="s">
+      <c r="A66" s="125"/>
+      <c r="B66" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
     </row>
     <row r="67" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A67" s="122"/>
-      <c r="B67" s="68" t="s">
+      <c r="A67" s="125"/>
+      <c r="B67" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
     </row>
     <row r="68" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A68" s="122"/>
-      <c r="B68" s="69" t="s">
+      <c r="A68" s="125"/>
+      <c r="B68" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
     </row>
     <row r="69" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A69" s="122"/>
-      <c r="B69" s="69" t="s">
+      <c r="A69" s="125"/>
+      <c r="B69" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
     </row>
     <row r="70" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A70" s="122"/>
-      <c r="B70" s="69" t="s">
+      <c r="A70" s="125"/>
+      <c r="B70" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
     </row>
     <row r="71" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A71" s="122"/>
-      <c r="B71" s="69" t="s">
+      <c r="A71" s="125"/>
+      <c r="B71" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
     </row>
     <row r="72" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A72" s="122"/>
-      <c r="B72" s="69" t="s">
+      <c r="A72" s="125"/>
+      <c r="B72" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
     </row>
     <row r="73" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A73" s="122"/>
-      <c r="B73" s="69" t="s">
+      <c r="A73" s="125"/>
+      <c r="B73" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
     </row>
     <row r="74" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A74" s="122"/>
-      <c r="B74" s="69" t="s">
+      <c r="A74" s="125"/>
+      <c r="B74" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
     </row>
     <row r="75" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A75" s="122"/>
-      <c r="B75" s="69" t="s">
+      <c r="A75" s="125"/>
+      <c r="B75" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
     </row>
     <row r="76" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A76" s="122"/>
-      <c r="B76" s="69" t="s">
+      <c r="A76" s="125"/>
+      <c r="B76" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
     </row>
     <row r="77" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A77" s="122"/>
-      <c r="B77" s="69" t="s">
+      <c r="A77" s="125"/>
+      <c r="B77" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
     </row>
     <row r="78" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A78" s="122"/>
-      <c r="B78" s="69" t="s">
+      <c r="A78" s="125"/>
+      <c r="B78" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="67"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
     </row>
     <row r="79" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A79" s="122"/>
-      <c r="B79" s="69" t="s">
+      <c r="A79" s="125"/>
+      <c r="B79" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
     </row>
     <row r="80" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A80" s="122"/>
-      <c r="B80" s="69" t="s">
+      <c r="A80" s="125"/>
+      <c r="B80" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
     </row>
     <row r="81" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A81" s="122"/>
-      <c r="B81" s="69" t="s">
+      <c r="A81" s="125"/>
+      <c r="B81" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A82" s="122"/>
-      <c r="B82" s="69" t="s">
+      <c r="A82" s="125"/>
+      <c r="B82" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
     </row>
     <row r="83" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A83" s="122"/>
-      <c r="B83" s="69" t="s">
+      <c r="A83" s="125"/>
+      <c r="B83" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
     </row>
     <row r="84" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A84" s="122"/>
-      <c r="B84" s="69" t="s">
+      <c r="A84" s="125"/>
+      <c r="B84" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A85" s="122"/>
-      <c r="B85" s="69" t="s">
+      <c r="A85" s="125"/>
+      <c r="B85" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A86" s="122"/>
-      <c r="B86" s="69" t="s">
+      <c r="A86" s="125"/>
+      <c r="B86" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="67"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
     </row>
     <row r="87" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A87" s="122"/>
-      <c r="B87" s="69" t="s">
+      <c r="A87" s="125"/>
+      <c r="B87" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
     </row>
     <row r="88" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A88" s="122"/>
-      <c r="B88" s="69" t="s">
+      <c r="A88" s="125"/>
+      <c r="B88" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="67"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
     </row>
     <row r="89" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A89" s="122"/>
-      <c r="B89" s="69" t="s">
+      <c r="A89" s="125"/>
+      <c r="B89" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="67"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
     </row>
     <row r="90" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A90" s="122"/>
-      <c r="B90" s="69" t="s">
+      <c r="A90" s="125"/>
+      <c r="B90" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="67"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A91" s="122"/>
-      <c r="B91" s="69" t="s">
+      <c r="A91" s="125"/>
+      <c r="B91" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="67"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
     </row>
     <row r="92" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A92" s="122"/>
-      <c r="B92" s="69" t="s">
+      <c r="A92" s="125"/>
+      <c r="B92" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
     </row>
     <row r="93" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A93" s="122"/>
-      <c r="B93" s="69" t="s">
+      <c r="A93" s="125"/>
+      <c r="B93" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A94" s="122"/>
-      <c r="B94" s="69" t="s">
+      <c r="A94" s="125"/>
+      <c r="B94" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="67"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A95" s="122"/>
-      <c r="B95" s="69" t="s">
+      <c r="A95" s="125"/>
+      <c r="B95" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="67"/>
-      <c r="D95" s="67"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
     </row>
     <row r="96" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A96" s="122"/>
-      <c r="B96" s="69" t="s">
+      <c r="A96" s="125"/>
+      <c r="B96" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="67"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
     </row>
     <row r="97" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A97" s="122"/>
-      <c r="B97" s="69" t="s">
+      <c r="A97" s="125"/>
+      <c r="B97" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="67"/>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
     </row>
     <row r="98" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A98" s="122"/>
-      <c r="B98" s="69" t="s">
+      <c r="A98" s="125"/>
+      <c r="B98" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="67"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
     </row>
     <row r="99" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A99" s="122"/>
-      <c r="B99" s="69" t="s">
+      <c r="A99" s="125"/>
+      <c r="B99" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
     </row>
     <row r="100" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A100" s="122"/>
-      <c r="B100" s="69" t="s">
+      <c r="A100" s="125"/>
+      <c r="B100" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="67"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
     </row>
     <row r="101" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A101" s="122"/>
-      <c r="B101" s="69" t="s">
+      <c r="A101" s="125"/>
+      <c r="B101" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
     </row>
     <row r="102" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A102" s="122"/>
-      <c r="B102" s="69" t="s">
+      <c r="A102" s="125"/>
+      <c r="B102" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="67"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
     </row>
     <row r="103" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A103" s="122"/>
-      <c r="B103" s="69" t="s">
+      <c r="A103" s="125"/>
+      <c r="B103" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
+      <c r="C103" s="66"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
     </row>
     <row r="104" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A104" s="122"/>
-      <c r="B104" s="69" t="s">
+      <c r="A104" s="125"/>
+      <c r="B104" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="67"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
     </row>
     <row r="105" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A105" s="122"/>
-      <c r="B105" s="69" t="s">
+      <c r="A105" s="125"/>
+      <c r="B105" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66"/>
     </row>
     <row r="106" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A106" s="122"/>
-      <c r="B106" s="69" t="s">
+      <c r="A106" s="125"/>
+      <c r="B106" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="67"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
     </row>
     <row r="107" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A107" s="122"/>
-      <c r="B107" s="69" t="s">
+      <c r="A107" s="125"/>
+      <c r="B107" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="67"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
     </row>
     <row r="108" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A108" s="122"/>
-      <c r="B108" s="69" t="s">
+      <c r="A108" s="125"/>
+      <c r="B108" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="67"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
     </row>
     <row r="109" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A109" s="122"/>
-      <c r="B109" s="69" t="s">
+      <c r="A109" s="125"/>
+      <c r="B109" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="67"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
     </row>
     <row r="110" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A110" s="122"/>
-      <c r="B110" s="69" t="s">
+      <c r="A110" s="125"/>
+      <c r="B110" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="67"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="66"/>
     </row>
     <row r="111" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A111" s="122"/>
-      <c r="B111" s="69" t="s">
+      <c r="A111" s="125"/>
+      <c r="B111" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
     </row>
     <row r="112" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A112" s="122"/>
-      <c r="B112" s="69" t="s">
+      <c r="A112" s="125"/>
+      <c r="B112" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="66"/>
     </row>
     <row r="113" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A113" s="122"/>
-      <c r="B113" s="69" t="s">
+      <c r="A113" s="125"/>
+      <c r="B113" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
     </row>
     <row r="114" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A114" s="122"/>
-      <c r="B114" s="69" t="s">
+      <c r="A114" s="125"/>
+      <c r="B114" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
+      <c r="C114" s="66"/>
+      <c r="D114" s="66"/>
+      <c r="E114" s="66"/>
+      <c r="F114" s="66"/>
     </row>
     <row r="115" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A115" s="122"/>
-      <c r="B115" s="69" t="s">
+      <c r="A115" s="125"/>
+      <c r="B115" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="C115" s="67"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
     </row>
     <row r="116" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A116" s="122"/>
-      <c r="B116" s="69" t="s">
+      <c r="A116" s="125"/>
+      <c r="B116" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="67"/>
-      <c r="D116" s="67"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="67"/>
+      <c r="C116" s="66"/>
+      <c r="D116" s="66"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="66"/>
     </row>
     <row r="117" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A117" s="122"/>
-      <c r="B117" s="69" t="s">
+      <c r="A117" s="125"/>
+      <c r="B117" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="67"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
+      <c r="C117" s="66"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
     </row>
     <row r="118" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A118" s="122"/>
-      <c r="B118" s="69" t="s">
+      <c r="A118" s="125"/>
+      <c r="B118" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="67"/>
-      <c r="D118" s="67"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="67"/>
+      <c r="C118" s="66"/>
+      <c r="D118" s="66"/>
+      <c r="E118" s="66"/>
+      <c r="F118" s="66"/>
     </row>
     <row r="119" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A119" s="122"/>
-      <c r="B119" s="69" t="s">
+      <c r="A119" s="125"/>
+      <c r="B119" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="67"/>
-      <c r="D119" s="67"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="66"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="66"/>
     </row>
     <row r="120" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A120" s="122"/>
-      <c r="B120" s="69" t="s">
+      <c r="A120" s="125"/>
+      <c r="B120" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="67"/>
-      <c r="D120" s="67"/>
-      <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
+      <c r="C120" s="66"/>
+      <c r="D120" s="66"/>
+      <c r="E120" s="66"/>
+      <c r="F120" s="66"/>
     </row>
     <row r="121" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A121" s="122"/>
-      <c r="B121" s="69" t="s">
+      <c r="A121" s="125"/>
+      <c r="B121" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="67"/>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
+      <c r="C121" s="66"/>
+      <c r="D121" s="66"/>
+      <c r="E121" s="66"/>
+      <c r="F121" s="66"/>
     </row>
     <row r="122" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A122" s="122"/>
-      <c r="B122" s="69" t="s">
+      <c r="A122" s="125"/>
+      <c r="B122" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="C122" s="67"/>
-      <c r="D122" s="67"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="67"/>
+      <c r="C122" s="66"/>
+      <c r="D122" s="66"/>
+      <c r="E122" s="66"/>
+      <c r="F122" s="66"/>
     </row>
     <row r="123" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A123" s="122"/>
-      <c r="B123" s="69" t="s">
+      <c r="A123" s="125"/>
+      <c r="B123" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="67"/>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
+      <c r="C123" s="66"/>
+      <c r="D123" s="66"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="66"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A124" s="67"/>
-      <c r="B124" s="73"/>
-      <c r="C124" s="67"/>
-      <c r="D124" s="67"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="67"/>
+      <c r="A124" s="66"/>
+      <c r="B124" s="72"/>
+      <c r="C124" s="66"/>
+      <c r="D124" s="66"/>
+      <c r="E124" s="66"/>
+      <c r="F124" s="66"/>
     </row>
     <row r="125" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A125" s="123" t="s">
+      <c r="A125" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="B125" s="68" t="s">
+      <c r="B125" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="C125" s="67"/>
-      <c r="D125" s="67"/>
-      <c r="E125" s="67"/>
-      <c r="F125" s="67"/>
+      <c r="C125" s="66"/>
+      <c r="D125" s="66"/>
+      <c r="E125" s="66"/>
+      <c r="F125" s="66"/>
     </row>
     <row r="126" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A126" s="123"/>
-      <c r="B126" s="68" t="s">
+      <c r="A126" s="126"/>
+      <c r="B126" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C126" s="67"/>
-      <c r="D126" s="67"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
+      <c r="C126" s="66"/>
+      <c r="D126" s="66"/>
+      <c r="E126" s="66"/>
+      <c r="F126" s="66"/>
     </row>
     <row r="127" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A127" s="123"/>
-      <c r="B127" s="68" t="s">
+      <c r="A127" s="126"/>
+      <c r="B127" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="66"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
     </row>
     <row r="128" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A128" s="123"/>
-      <c r="B128" s="68" t="s">
+      <c r="A128" s="126"/>
+      <c r="B128" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C128" s="67"/>
-      <c r="D128" s="67"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
+      <c r="C128" s="66"/>
+      <c r="D128" s="66"/>
+      <c r="E128" s="66"/>
+      <c r="F128" s="66"/>
     </row>
     <row r="129" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A129" s="123"/>
-      <c r="B129" s="68" t="s">
+      <c r="A129" s="126"/>
+      <c r="B129" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
+      <c r="C129" s="66"/>
+      <c r="D129" s="66"/>
+      <c r="E129" s="66"/>
+      <c r="F129" s="66"/>
     </row>
     <row r="130" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A130" s="123"/>
-      <c r="B130" s="68" t="s">
+      <c r="A130" s="126"/>
+      <c r="B130" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="C130" s="67"/>
-      <c r="D130" s="67"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="67"/>
+      <c r="C130" s="66"/>
+      <c r="D130" s="66"/>
+      <c r="E130" s="66"/>
+      <c r="F130" s="66"/>
     </row>
     <row r="131" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A131" s="123"/>
-      <c r="B131" s="68" t="s">
+      <c r="A131" s="126"/>
+      <c r="B131" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C131" s="67"/>
-      <c r="D131" s="67"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="67"/>
+      <c r="C131" s="66"/>
+      <c r="D131" s="66"/>
+      <c r="E131" s="66"/>
+      <c r="F131" s="66"/>
     </row>
     <row r="132" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A132" s="123"/>
-      <c r="B132" s="68" t="s">
+      <c r="A132" s="126"/>
+      <c r="B132" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="C132" s="67"/>
-      <c r="D132" s="67"/>
-      <c r="E132" s="67"/>
-      <c r="F132" s="67"/>
+      <c r="C132" s="66"/>
+      <c r="D132" s="66"/>
+      <c r="E132" s="66"/>
+      <c r="F132" s="66"/>
     </row>
     <row r="133" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A133" s="123"/>
-      <c r="B133" s="68" t="s">
+      <c r="A133" s="126"/>
+      <c r="B133" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C133" s="67"/>
-      <c r="D133" s="67"/>
-      <c r="E133" s="67"/>
-      <c r="F133" s="67"/>
+      <c r="C133" s="66"/>
+      <c r="D133" s="66"/>
+      <c r="E133" s="66"/>
+      <c r="F133" s="66"/>
     </row>
     <row r="134" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A134" s="123"/>
-      <c r="B134" s="68" t="s">
+      <c r="A134" s="126"/>
+      <c r="B134" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="C134" s="67"/>
-      <c r="D134" s="67"/>
-      <c r="E134" s="67"/>
-      <c r="F134" s="67"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="66"/>
+      <c r="E134" s="66"/>
+      <c r="F134" s="66"/>
     </row>
     <row r="135" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A135" s="123"/>
-      <c r="B135" s="68" t="s">
+      <c r="A135" s="126"/>
+      <c r="B135" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="67"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="66"/>
+      <c r="E135" s="66"/>
+      <c r="F135" s="66"/>
     </row>
     <row r="136" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A136" s="123"/>
-      <c r="B136" s="68" t="s">
+      <c r="A136" s="126"/>
+      <c r="B136" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="67"/>
-      <c r="F136" s="67"/>
+      <c r="C136" s="66"/>
+      <c r="D136" s="66"/>
+      <c r="E136" s="66"/>
+      <c r="F136" s="66"/>
     </row>
     <row r="137" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A137" s="123"/>
-      <c r="B137" s="68" t="s">
+      <c r="A137" s="126"/>
+      <c r="B137" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="C137" s="67"/>
-      <c r="D137" s="67"/>
-      <c r="E137" s="67"/>
-      <c r="F137" s="67"/>
+      <c r="C137" s="66"/>
+      <c r="D137" s="66"/>
+      <c r="E137" s="66"/>
+      <c r="F137" s="66"/>
     </row>
     <row r="138" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A138" s="123"/>
-      <c r="B138" s="68" t="s">
+      <c r="A138" s="126"/>
+      <c r="B138" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="C138" s="67"/>
-      <c r="D138" s="67"/>
-      <c r="E138" s="67"/>
-      <c r="F138" s="67"/>
+      <c r="C138" s="66"/>
+      <c r="D138" s="66"/>
+      <c r="E138" s="66"/>
+      <c r="F138" s="66"/>
     </row>
     <row r="139" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A139" s="123"/>
-      <c r="B139" s="68" t="s">
+      <c r="A139" s="126"/>
+      <c r="B139" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="C139" s="67"/>
-      <c r="D139" s="67"/>
-      <c r="E139" s="67"/>
-      <c r="F139" s="67"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="66"/>
+      <c r="E139" s="66"/>
+      <c r="F139" s="66"/>
     </row>
     <row r="140" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A140" s="123"/>
-      <c r="B140" s="68" t="s">
+      <c r="A140" s="126"/>
+      <c r="B140" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C140" s="67"/>
-      <c r="D140" s="67"/>
-      <c r="E140" s="67"/>
-      <c r="F140" s="67"/>
+      <c r="C140" s="66"/>
+      <c r="D140" s="66"/>
+      <c r="E140" s="66"/>
+      <c r="F140" s="66"/>
     </row>
     <row r="141" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A141" s="123"/>
-      <c r="B141" s="68" t="s">
+      <c r="A141" s="126"/>
+      <c r="B141" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="C141" s="67"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="66"/>
+      <c r="E141" s="66"/>
+      <c r="F141" s="66"/>
     </row>
     <row r="142" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A142" s="123"/>
-      <c r="B142" s="68" t="s">
+      <c r="A142" s="126"/>
+      <c r="B142" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C142" s="67"/>
-      <c r="D142" s="67"/>
-      <c r="E142" s="67"/>
-      <c r="F142" s="67"/>
+      <c r="C142" s="66"/>
+      <c r="D142" s="66"/>
+      <c r="E142" s="66"/>
+      <c r="F142" s="66"/>
     </row>
     <row r="143" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A143" s="123"/>
-      <c r="B143" s="68" t="s">
+      <c r="A143" s="126"/>
+      <c r="B143" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="C143" s="67"/>
-      <c r="D143" s="67"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="67"/>
+      <c r="C143" s="66"/>
+      <c r="D143" s="66"/>
+      <c r="E143" s="66"/>
+      <c r="F143" s="66"/>
     </row>
     <row r="144" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A144" s="123"/>
-      <c r="B144" s="68" t="s">
+      <c r="A144" s="126"/>
+      <c r="B144" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="C144" s="67"/>
-      <c r="D144" s="67"/>
-      <c r="E144" s="67"/>
-      <c r="F144" s="67"/>
+      <c r="C144" s="66"/>
+      <c r="D144" s="66"/>
+      <c r="E144" s="66"/>
+      <c r="F144" s="66"/>
     </row>
     <row r="145" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A145" s="123"/>
-      <c r="B145" s="68" t="s">
+      <c r="A145" s="126"/>
+      <c r="B145" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C145" s="67"/>
-      <c r="D145" s="67"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
+      <c r="C145" s="66"/>
+      <c r="D145" s="66"/>
+      <c r="E145" s="66"/>
+      <c r="F145" s="66"/>
     </row>
     <row r="146" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A146" s="123"/>
-      <c r="B146" s="68" t="s">
+      <c r="A146" s="126"/>
+      <c r="B146" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C146" s="67"/>
-      <c r="D146" s="67"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
+      <c r="C146" s="66"/>
+      <c r="D146" s="66"/>
+      <c r="E146" s="66"/>
+      <c r="F146" s="66"/>
     </row>
     <row r="147" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A147" s="123"/>
-      <c r="B147" s="68" t="s">
+      <c r="A147" s="126"/>
+      <c r="B147" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="C147" s="67"/>
-      <c r="D147" s="67"/>
-      <c r="E147" s="67"/>
-      <c r="F147" s="67"/>
+      <c r="C147" s="66"/>
+      <c r="D147" s="66"/>
+      <c r="E147" s="66"/>
+      <c r="F147" s="66"/>
     </row>
     <row r="148" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A148" s="123"/>
-      <c r="B148" s="68" t="s">
+      <c r="A148" s="126"/>
+      <c r="B148" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C148" s="67"/>
-      <c r="D148" s="67"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="66"/>
+      <c r="E148" s="66"/>
+      <c r="F148" s="66"/>
     </row>
     <row r="149" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A149" s="123"/>
-      <c r="B149" s="68" t="s">
+      <c r="A149" s="126"/>
+      <c r="B149" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="C149" s="67"/>
-      <c r="D149" s="67"/>
-      <c r="E149" s="67"/>
-      <c r="F149" s="67"/>
+      <c r="C149" s="66"/>
+      <c r="D149" s="66"/>
+      <c r="E149" s="66"/>
+      <c r="F149" s="66"/>
     </row>
     <row r="150" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A150" s="123"/>
-      <c r="B150" s="68" t="s">
+      <c r="A150" s="126"/>
+      <c r="B150" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="C150" s="67"/>
-      <c r="D150" s="67"/>
-      <c r="E150" s="67"/>
-      <c r="F150" s="67"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="66"/>
+      <c r="E150" s="66"/>
+      <c r="F150" s="66"/>
     </row>
     <row r="151" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A151" s="123"/>
-      <c r="B151" s="68" t="s">
+      <c r="A151" s="126"/>
+      <c r="B151" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="C151" s="67"/>
-      <c r="D151" s="67"/>
-      <c r="E151" s="67"/>
-      <c r="F151" s="67"/>
+      <c r="C151" s="66"/>
+      <c r="D151" s="66"/>
+      <c r="E151" s="66"/>
+      <c r="F151" s="66"/>
     </row>
     <row r="152" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A152" s="123"/>
-      <c r="B152" s="68" t="s">
+      <c r="A152" s="126"/>
+      <c r="B152" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="C152" s="67"/>
-      <c r="D152" s="67"/>
-      <c r="E152" s="67"/>
-      <c r="F152" s="67"/>
+      <c r="C152" s="66"/>
+      <c r="D152" s="66"/>
+      <c r="E152" s="66"/>
+      <c r="F152" s="66"/>
     </row>
     <row r="153" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A153" s="123"/>
-      <c r="B153" s="68" t="s">
+      <c r="A153" s="126"/>
+      <c r="B153" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="C153" s="67"/>
-      <c r="D153" s="67"/>
-      <c r="E153" s="67"/>
-      <c r="F153" s="67"/>
+      <c r="C153" s="66"/>
+      <c r="D153" s="66"/>
+      <c r="E153" s="66"/>
+      <c r="F153" s="66"/>
     </row>
     <row r="154" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A154" s="123"/>
-      <c r="B154" s="68" t="s">
+      <c r="A154" s="126"/>
+      <c r="B154" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C154" s="67"/>
-      <c r="D154" s="67"/>
-      <c r="E154" s="67"/>
-      <c r="F154" s="67"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="66"/>
+      <c r="E154" s="66"/>
+      <c r="F154" s="66"/>
     </row>
     <row r="155" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A155" s="123"/>
-      <c r="B155" s="68" t="s">
+      <c r="A155" s="126"/>
+      <c r="B155" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="C155" s="67"/>
-      <c r="D155" s="67"/>
-      <c r="E155" s="67"/>
-      <c r="F155" s="67"/>
+      <c r="C155" s="66"/>
+      <c r="D155" s="66"/>
+      <c r="E155" s="66"/>
+      <c r="F155" s="66"/>
     </row>
     <row r="156" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A156" s="123"/>
-      <c r="B156" s="69" t="s">
+      <c r="A156" s="126"/>
+      <c r="B156" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="C156" s="67"/>
-      <c r="D156" s="67"/>
-      <c r="E156" s="67"/>
-      <c r="F156" s="67"/>
+      <c r="C156" s="66"/>
+      <c r="D156" s="66"/>
+      <c r="E156" s="66"/>
+      <c r="F156" s="66"/>
     </row>
     <row r="157" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A157" s="123"/>
-      <c r="B157" s="69" t="s">
+      <c r="A157" s="126"/>
+      <c r="B157" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="C157" s="67"/>
-      <c r="D157" s="67"/>
-      <c r="E157" s="67"/>
-      <c r="F157" s="67"/>
+      <c r="C157" s="66"/>
+      <c r="D157" s="66"/>
+      <c r="E157" s="66"/>
+      <c r="F157" s="66"/>
     </row>
     <row r="158" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A158" s="123"/>
-      <c r="B158" s="69" t="s">
+      <c r="A158" s="126"/>
+      <c r="B158" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="C158" s="67"/>
-      <c r="D158" s="67"/>
-      <c r="E158" s="67"/>
-      <c r="F158" s="67"/>
+      <c r="C158" s="66"/>
+      <c r="D158" s="66"/>
+      <c r="E158" s="66"/>
+      <c r="F158" s="66"/>
     </row>
     <row r="159" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A159" s="123"/>
-      <c r="B159" s="69" t="s">
+      <c r="A159" s="126"/>
+      <c r="B159" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="C159" s="67"/>
-      <c r="D159" s="67"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="67"/>
+      <c r="C159" s="66"/>
+      <c r="D159" s="66"/>
+      <c r="E159" s="66"/>
+      <c r="F159" s="66"/>
     </row>
     <row r="160" spans="1:6" ht="15" thickTop="1"/>
   </sheetData>
@@ -29536,7 +29549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
@@ -29549,1733 +29562,1733 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
     </row>
     <row r="3" spans="1:6" ht="22.2" thickTop="1" thickBot="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="70" t="s">
+      <c r="A3" s="143"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="69" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="73" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A5" s="122"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="125"/>
+      <c r="B5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74" t="s">
+      <c r="E5" s="73"/>
+      <c r="F5" s="73" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="68" t="s">
+      <c r="A6" s="125"/>
+      <c r="B6" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="73" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A7" s="122"/>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="125"/>
+      <c r="B7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="122"/>
-      <c r="B8" s="68" t="s">
+      <c r="A8" s="125"/>
+      <c r="B8" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74" t="s">
+      <c r="E8" s="73"/>
+      <c r="F8" s="73" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A9" s="122"/>
-      <c r="B9" s="68" t="s">
+      <c r="A9" s="125"/>
+      <c r="B9" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74" t="s">
+      <c r="E9" s="73"/>
+      <c r="F9" s="73" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A10" s="122"/>
-      <c r="B10" s="68" t="s">
+      <c r="A10" s="125"/>
+      <c r="B10" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="145" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="132"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="147"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A11" s="122"/>
-      <c r="B11" s="68" t="s">
+      <c r="A11" s="125"/>
+      <c r="B11" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A12" s="122"/>
-      <c r="B12" s="68" t="s">
+      <c r="A12" s="125"/>
+      <c r="B12" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74" t="s">
+      <c r="E12" s="73"/>
+      <c r="F12" s="73" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="68" t="s">
+      <c r="A13" s="125"/>
+      <c r="B13" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
     </row>
     <row r="14" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="68" t="s">
+      <c r="A14" s="125"/>
+      <c r="B14" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74" t="s">
+      <c r="E14" s="73"/>
+      <c r="F14" s="73" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A15" s="122"/>
-      <c r="B15" s="68" t="s">
+      <c r="A15" s="125"/>
+      <c r="B15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74" t="s">
+      <c r="E15" s="73"/>
+      <c r="F15" s="73" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A16" s="122"/>
-      <c r="B16" s="68" t="s">
+      <c r="A16" s="125"/>
+      <c r="B16" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74" t="s">
+      <c r="E16" s="73"/>
+      <c r="F16" s="73" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="68" t="s">
+      <c r="A17" s="125"/>
+      <c r="B17" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74" t="s">
+      <c r="E17" s="73"/>
+      <c r="F17" s="73" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A18" s="122"/>
-      <c r="B18" s="68" t="s">
+      <c r="A18" s="125"/>
+      <c r="B18" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A19" s="122"/>
-      <c r="B19" s="68" t="s">
+      <c r="A19" s="125"/>
+      <c r="B19" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A20" s="122"/>
-      <c r="B20" s="68" t="s">
+      <c r="A20" s="125"/>
+      <c r="B20" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A21" s="122"/>
-      <c r="B21" s="68" t="s">
+      <c r="A21" s="125"/>
+      <c r="B21" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A22" s="122"/>
-      <c r="B22" s="68" t="s">
+      <c r="A22" s="125"/>
+      <c r="B22" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
     </row>
     <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A23" s="122"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="125"/>
+      <c r="B23" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
     </row>
     <row r="24" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A24" s="122"/>
-      <c r="B24" s="68" t="s">
+      <c r="A24" s="125"/>
+      <c r="B24" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
     </row>
     <row r="25" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A25" s="122"/>
-      <c r="B25" s="68" t="s">
+      <c r="A25" s="125"/>
+      <c r="B25" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A26" s="122"/>
-      <c r="B26" s="68" t="s">
+      <c r="A26" s="125"/>
+      <c r="B26" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
     </row>
     <row r="27" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A27" s="122"/>
-      <c r="B27" s="68" t="s">
+      <c r="A27" s="125"/>
+      <c r="B27" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A28" s="122"/>
-      <c r="B28" s="68" t="s">
+      <c r="A28" s="125"/>
+      <c r="B28" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A29" s="122"/>
-      <c r="B29" s="68" t="s">
+      <c r="A29" s="125"/>
+      <c r="B29" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
     </row>
     <row r="30" spans="1:6" ht="17.399999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="122"/>
-      <c r="B30" s="68" t="s">
+      <c r="A30" s="125"/>
+      <c r="B30" s="67" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="E30" s="74"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="61" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A31" s="122"/>
-      <c r="B31" s="68" t="s">
+      <c r="A31" s="125"/>
+      <c r="B31" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
     </row>
     <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A32" s="122"/>
-      <c r="B32" s="68" t="s">
+      <c r="A32" s="125"/>
+      <c r="B32" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
     </row>
     <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A33" s="122"/>
-      <c r="B33" s="68" t="s">
+      <c r="A33" s="125"/>
+      <c r="B33" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A34" s="122"/>
-      <c r="B34" s="68" t="s">
+      <c r="A34" s="125"/>
+      <c r="B34" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
     </row>
     <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A35" s="122"/>
-      <c r="B35" s="68" t="s">
+      <c r="A35" s="125"/>
+      <c r="B35" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
     </row>
     <row r="36" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A36" s="122"/>
-      <c r="B36" s="68" t="s">
+      <c r="A36" s="125"/>
+      <c r="B36" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
     </row>
     <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A37" s="122"/>
-      <c r="B37" s="68" t="s">
+      <c r="A37" s="125"/>
+      <c r="B37" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
     </row>
     <row r="38" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A38" s="122"/>
-      <c r="B38" s="68" t="s">
+      <c r="A38" s="125"/>
+      <c r="B38" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
     </row>
     <row r="39" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A39" s="122"/>
-      <c r="B39" s="68" t="s">
+      <c r="A39" s="125"/>
+      <c r="B39" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
     </row>
     <row r="40" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A40" s="122"/>
-      <c r="B40" s="68" t="s">
+      <c r="A40" s="125"/>
+      <c r="B40" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A41" s="122"/>
-      <c r="B41" s="68" t="s">
+      <c r="A41" s="125"/>
+      <c r="B41" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
     </row>
     <row r="42" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A42" s="122"/>
-      <c r="B42" s="68" t="s">
+      <c r="A42" s="125"/>
+      <c r="B42" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A43" s="122"/>
-      <c r="B43" s="68" t="s">
+      <c r="A43" s="125"/>
+      <c r="B43" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
     </row>
     <row r="44" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A44" s="122"/>
-      <c r="B44" s="68" t="s">
+      <c r="A44" s="125"/>
+      <c r="B44" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
     </row>
     <row r="45" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A45" s="122"/>
-      <c r="B45" s="68" t="s">
+      <c r="A45" s="125"/>
+      <c r="B45" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
     </row>
     <row r="46" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A46" s="122"/>
-      <c r="B46" s="68" t="s">
+      <c r="A46" s="125"/>
+      <c r="B46" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
     </row>
     <row r="47" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A47" s="122"/>
-      <c r="B47" s="68" t="s">
+      <c r="A47" s="125"/>
+      <c r="B47" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
     </row>
     <row r="48" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A48" s="122"/>
-      <c r="B48" s="68" t="s">
+      <c r="A48" s="125"/>
+      <c r="B48" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
     </row>
     <row r="49" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A49" s="122"/>
-      <c r="B49" s="68" t="s">
+      <c r="A49" s="125"/>
+      <c r="B49" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A50" s="122"/>
-      <c r="B50" s="68" t="s">
+      <c r="A50" s="125"/>
+      <c r="B50" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
     </row>
     <row r="51" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A51" s="122"/>
-      <c r="B51" s="68" t="s">
+      <c r="A51" s="125"/>
+      <c r="B51" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
     </row>
     <row r="52" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A52" s="122"/>
-      <c r="B52" s="68" t="s">
+      <c r="A52" s="125"/>
+      <c r="B52" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
     </row>
     <row r="53" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A53" s="122"/>
-      <c r="B53" s="68" t="s">
+      <c r="A53" s="125"/>
+      <c r="B53" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
     </row>
     <row r="54" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A54" s="122"/>
-      <c r="B54" s="68" t="s">
+      <c r="A54" s="125"/>
+      <c r="B54" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
     </row>
     <row r="55" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A55" s="122"/>
-      <c r="B55" s="68" t="s">
+      <c r="A55" s="125"/>
+      <c r="B55" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
     </row>
     <row r="56" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A56" s="122"/>
-      <c r="B56" s="68" t="s">
+      <c r="A56" s="125"/>
+      <c r="B56" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
     </row>
     <row r="57" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A57" s="122"/>
-      <c r="B57" s="68" t="s">
+      <c r="A57" s="125"/>
+      <c r="B57" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
     </row>
     <row r="58" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A58" s="122"/>
-      <c r="B58" s="68" t="s">
+      <c r="A58" s="125"/>
+      <c r="B58" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
     </row>
     <row r="59" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A59" s="122"/>
-      <c r="B59" s="68" t="s">
+      <c r="A59" s="125"/>
+      <c r="B59" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
     </row>
     <row r="60" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A60" s="122"/>
-      <c r="B60" s="68" t="s">
+      <c r="A60" s="125"/>
+      <c r="B60" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
     </row>
     <row r="61" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A61" s="122"/>
-      <c r="B61" s="68" t="s">
+      <c r="A61" s="125"/>
+      <c r="B61" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
     </row>
     <row r="62" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A62" s="122"/>
-      <c r="B62" s="68" t="s">
+      <c r="A62" s="125"/>
+      <c r="B62" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
     </row>
     <row r="63" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A63" s="122"/>
-      <c r="B63" s="68" t="s">
+      <c r="A63" s="125"/>
+      <c r="B63" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
     </row>
     <row r="64" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A64" s="122"/>
-      <c r="B64" s="68" t="s">
+      <c r="A64" s="125"/>
+      <c r="B64" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
     </row>
     <row r="65" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A65" s="122"/>
-      <c r="B65" s="68" t="s">
+      <c r="A65" s="125"/>
+      <c r="B65" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
     </row>
     <row r="66" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A66" s="122"/>
-      <c r="B66" s="68" t="s">
+      <c r="A66" s="125"/>
+      <c r="B66" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
     </row>
     <row r="67" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A67" s="122"/>
-      <c r="B67" s="68" t="s">
+      <c r="A67" s="125"/>
+      <c r="B67" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
     </row>
     <row r="68" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A68" s="122"/>
-      <c r="B68" s="68" t="s">
+      <c r="A68" s="125"/>
+      <c r="B68" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
     </row>
     <row r="69" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A69" s="122"/>
-      <c r="B69" s="69" t="s">
+      <c r="A69" s="125"/>
+      <c r="B69" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
     </row>
     <row r="70" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A70" s="122"/>
-      <c r="B70" s="69" t="s">
+      <c r="A70" s="125"/>
+      <c r="B70" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
     </row>
     <row r="71" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A71" s="122"/>
-      <c r="B71" s="69" t="s">
+      <c r="A71" s="125"/>
+      <c r="B71" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
     </row>
     <row r="72" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A72" s="122"/>
-      <c r="B72" s="69" t="s">
+      <c r="A72" s="125"/>
+      <c r="B72" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
     </row>
     <row r="73" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A73" s="122"/>
-      <c r="B73" s="69" t="s">
+      <c r="A73" s="125"/>
+      <c r="B73" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="73"/>
     </row>
     <row r="74" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A74" s="122"/>
-      <c r="B74" s="69" t="s">
+      <c r="A74" s="125"/>
+      <c r="B74" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
     </row>
     <row r="75" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A75" s="122"/>
-      <c r="B75" s="69" t="s">
+      <c r="A75" s="125"/>
+      <c r="B75" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
     </row>
     <row r="76" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A76" s="122"/>
-      <c r="B76" s="69" t="s">
+      <c r="A76" s="125"/>
+      <c r="B76" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
     </row>
     <row r="77" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A77" s="122"/>
-      <c r="B77" s="69" t="s">
+      <c r="A77" s="125"/>
+      <c r="B77" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
     </row>
     <row r="78" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A78" s="122"/>
-      <c r="B78" s="69" t="s">
+      <c r="A78" s="125"/>
+      <c r="B78" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="73"/>
     </row>
     <row r="79" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A79" s="122"/>
-      <c r="B79" s="69" t="s">
+      <c r="A79" s="125"/>
+      <c r="B79" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73"/>
     </row>
     <row r="80" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A80" s="122"/>
-      <c r="B80" s="69" t="s">
+      <c r="A80" s="125"/>
+      <c r="B80" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="74"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
     </row>
     <row r="81" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A81" s="122"/>
-      <c r="B81" s="69" t="s">
+      <c r="A81" s="125"/>
+      <c r="B81" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="74"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A82" s="122"/>
-      <c r="B82" s="69" t="s">
+      <c r="A82" s="125"/>
+      <c r="B82" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="74"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="73"/>
     </row>
     <row r="83" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A83" s="122"/>
-      <c r="B83" s="69" t="s">
+      <c r="A83" s="125"/>
+      <c r="B83" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
     </row>
     <row r="84" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A84" s="122"/>
-      <c r="B84" s="69" t="s">
+      <c r="A84" s="125"/>
+      <c r="B84" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="74"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="74"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A85" s="122"/>
-      <c r="B85" s="69" t="s">
+      <c r="A85" s="125"/>
+      <c r="B85" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="74"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="74"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A86" s="122"/>
-      <c r="B86" s="69" t="s">
+      <c r="A86" s="125"/>
+      <c r="B86" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="74"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="73"/>
+      <c r="F86" s="73"/>
     </row>
     <row r="87" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A87" s="122"/>
-      <c r="B87" s="69" t="s">
+      <c r="A87" s="125"/>
+      <c r="B87" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
     </row>
     <row r="88" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A88" s="122"/>
-      <c r="B88" s="69" t="s">
+      <c r="A88" s="125"/>
+      <c r="B88" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
     </row>
     <row r="89" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A89" s="122"/>
-      <c r="B89" s="69" t="s">
+      <c r="A89" s="125"/>
+      <c r="B89" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="74"/>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
     </row>
     <row r="90" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A90" s="122"/>
-      <c r="B90" s="69" t="s">
+      <c r="A90" s="125"/>
+      <c r="B90" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A91" s="122"/>
-      <c r="B91" s="69" t="s">
+      <c r="A91" s="125"/>
+      <c r="B91" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="74"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="74"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="73"/>
     </row>
     <row r="92" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A92" s="122"/>
-      <c r="B92" s="69" t="s">
+      <c r="A92" s="125"/>
+      <c r="B92" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="74"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="74"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
     </row>
     <row r="93" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A93" s="122"/>
-      <c r="B93" s="69" t="s">
+      <c r="A93" s="125"/>
+      <c r="B93" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="74" t="s">
+      <c r="C93" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="D93" s="74" t="s">
+      <c r="D93" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="E93" s="74"/>
-      <c r="F93" s="74"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="73"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A94" s="122"/>
-      <c r="B94" s="69" t="s">
+      <c r="A94" s="125"/>
+      <c r="B94" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="74" t="s">
+      <c r="C94" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="D94" s="74" t="s">
+      <c r="D94" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="E94" s="74"/>
-      <c r="F94" s="74"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A95" s="122"/>
-      <c r="B95" s="69" t="s">
+      <c r="A95" s="125"/>
+      <c r="B95" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="74" t="s">
+      <c r="C95" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="D95" s="74" t="s">
+      <c r="D95" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
     </row>
     <row r="96" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A96" s="122"/>
-      <c r="B96" s="69" t="s">
+      <c r="A96" s="125"/>
+      <c r="B96" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="74" t="s">
+      <c r="C96" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="D96" s="74" t="s">
+      <c r="D96" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="73"/>
     </row>
     <row r="97" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A97" s="122"/>
-      <c r="B97" s="69" t="s">
+      <c r="A97" s="125"/>
+      <c r="B97" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="74" t="s">
+      <c r="C97" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="D97" s="74" t="s">
+      <c r="D97" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
+      <c r="E97" s="73"/>
+      <c r="F97" s="73"/>
     </row>
     <row r="98" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A98" s="122"/>
-      <c r="B98" s="69" t="s">
+      <c r="A98" s="125"/>
+      <c r="B98" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="74" t="s">
+      <c r="C98" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="D98" s="74" t="s">
+      <c r="D98" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="E98" s="74"/>
-      <c r="F98" s="74"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="73"/>
     </row>
     <row r="99" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A99" s="122"/>
-      <c r="B99" s="69" t="s">
+      <c r="A99" s="125"/>
+      <c r="B99" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="74" t="s">
+      <c r="C99" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="74" t="s">
+      <c r="D99" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="E99" s="74"/>
-      <c r="F99" s="74"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
     </row>
     <row r="100" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A100" s="122"/>
-      <c r="B100" s="69" t="s">
+      <c r="A100" s="125"/>
+      <c r="B100" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="74" t="s">
+      <c r="C100" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="D100" s="74" t="s">
+      <c r="D100" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="73"/>
     </row>
     <row r="101" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A101" s="122"/>
-      <c r="B101" s="69" t="s">
+      <c r="A101" s="125"/>
+      <c r="B101" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
     </row>
     <row r="102" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A102" s="122"/>
-      <c r="B102" s="69" t="s">
+      <c r="A102" s="125"/>
+      <c r="B102" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
     </row>
     <row r="103" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A103" s="122"/>
-      <c r="B103" s="69" t="s">
+      <c r="A103" s="125"/>
+      <c r="B103" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="73"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="73"/>
     </row>
     <row r="104" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A104" s="122"/>
-      <c r="B104" s="69" t="s">
+      <c r="A104" s="125"/>
+      <c r="B104" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="74"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="73"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="73"/>
     </row>
     <row r="105" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A105" s="122"/>
-      <c r="B105" s="69" t="s">
+      <c r="A105" s="125"/>
+      <c r="B105" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="74" t="s">
+      <c r="C105" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="D105" s="74" t="s">
+      <c r="D105" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
+      <c r="E105" s="73"/>
+      <c r="F105" s="73"/>
     </row>
     <row r="106" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A106" s="122"/>
-      <c r="B106" s="69" t="s">
+      <c r="A106" s="125"/>
+      <c r="B106" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="73"/>
+      <c r="F106" s="73"/>
     </row>
     <row r="107" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A107" s="122"/>
-      <c r="B107" s="69" t="s">
+      <c r="A107" s="125"/>
+      <c r="B107" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="73"/>
     </row>
     <row r="108" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A108" s="122"/>
-      <c r="B108" s="69" t="s">
+      <c r="A108" s="125"/>
+      <c r="B108" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="73"/>
     </row>
     <row r="109" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A109" s="122"/>
-      <c r="B109" s="69" t="s">
+      <c r="A109" s="125"/>
+      <c r="B109" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="73"/>
     </row>
     <row r="110" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A110" s="122"/>
-      <c r="B110" s="69" t="s">
+      <c r="A110" s="125"/>
+      <c r="B110" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C110" s="74"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="73"/>
+      <c r="E110" s="73"/>
+      <c r="F110" s="73"/>
     </row>
     <row r="111" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A111" s="122"/>
-      <c r="B111" s="69" t="s">
+      <c r="A111" s="125"/>
+      <c r="B111" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="73"/>
+      <c r="E111" s="73"/>
+      <c r="F111" s="73"/>
     </row>
     <row r="112" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A112" s="122"/>
-      <c r="B112" s="69" t="s">
+      <c r="A112" s="125"/>
+      <c r="B112" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73"/>
+      <c r="F112" s="73"/>
     </row>
     <row r="113" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A113" s="122"/>
-      <c r="B113" s="69" t="s">
+      <c r="A113" s="125"/>
+      <c r="B113" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="73"/>
+      <c r="E113" s="73"/>
+      <c r="F113" s="73"/>
     </row>
     <row r="114" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A114" s="122"/>
-      <c r="B114" s="69" t="s">
+      <c r="A114" s="125"/>
+      <c r="B114" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C114" s="74"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="73"/>
+      <c r="F114" s="73"/>
     </row>
     <row r="115" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A115" s="122"/>
-      <c r="B115" s="69" t="s">
+      <c r="A115" s="125"/>
+      <c r="B115" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="74"/>
-      <c r="D115" s="74"/>
-      <c r="E115" s="74"/>
-      <c r="F115" s="74"/>
+      <c r="C115" s="73"/>
+      <c r="D115" s="73"/>
+      <c r="E115" s="73"/>
+      <c r="F115" s="73"/>
     </row>
     <row r="116" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A116" s="122"/>
-      <c r="B116" s="69" t="s">
+      <c r="A116" s="125"/>
+      <c r="B116" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="C116" s="74"/>
-      <c r="D116" s="74"/>
-      <c r="E116" s="74"/>
-      <c r="F116" s="74"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="73"/>
+      <c r="F116" s="73"/>
     </row>
     <row r="117" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A117" s="122"/>
-      <c r="B117" s="69" t="s">
+      <c r="A117" s="125"/>
+      <c r="B117" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="C117" s="74"/>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74"/>
-      <c r="F117" s="74"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="73"/>
+      <c r="F117" s="73"/>
     </row>
     <row r="118" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A118" s="122"/>
-      <c r="B118" s="69" t="s">
+      <c r="A118" s="125"/>
+      <c r="B118" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="74"/>
-      <c r="D118" s="74"/>
-      <c r="E118" s="74"/>
-      <c r="F118" s="74"/>
+      <c r="C118" s="73"/>
+      <c r="D118" s="73"/>
+      <c r="E118" s="73"/>
+      <c r="F118" s="73"/>
     </row>
     <row r="119" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A119" s="122"/>
-      <c r="B119" s="69" t="s">
+      <c r="A119" s="125"/>
+      <c r="B119" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="C119" s="74"/>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="74"/>
+      <c r="C119" s="73"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="73"/>
     </row>
     <row r="120" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A120" s="122"/>
-      <c r="B120" s="69" t="s">
+      <c r="A120" s="125"/>
+      <c r="B120" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C120" s="74"/>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
+      <c r="C120" s="73"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="73"/>
+      <c r="F120" s="73"/>
     </row>
     <row r="121" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A121" s="122"/>
-      <c r="B121" s="69" t="s">
+      <c r="A121" s="125"/>
+      <c r="B121" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="C121" s="74"/>
-      <c r="D121" s="74"/>
-      <c r="E121" s="74"/>
-      <c r="F121" s="74"/>
+      <c r="C121" s="73"/>
+      <c r="D121" s="73"/>
+      <c r="E121" s="73"/>
+      <c r="F121" s="73"/>
     </row>
     <row r="122" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A122" s="122"/>
-      <c r="B122" s="69" t="s">
+      <c r="A122" s="125"/>
+      <c r="B122" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="C122" s="74"/>
-      <c r="D122" s="74"/>
-      <c r="E122" s="74"/>
-      <c r="F122" s="74"/>
+      <c r="C122" s="73"/>
+      <c r="D122" s="73"/>
+      <c r="E122" s="73"/>
+      <c r="F122" s="73"/>
     </row>
     <row r="123" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A123" s="122"/>
-      <c r="B123" s="69" t="s">
+      <c r="A123" s="125"/>
+      <c r="B123" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="C123" s="74"/>
-      <c r="D123" s="74"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="74"/>
+      <c r="C123" s="73"/>
+      <c r="D123" s="73"/>
+      <c r="E123" s="73"/>
+      <c r="F123" s="73"/>
     </row>
     <row r="124" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A124" s="122"/>
-      <c r="B124" s="69" t="s">
+      <c r="A124" s="125"/>
+      <c r="B124" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="C124" s="74"/>
-      <c r="D124" s="74"/>
-      <c r="E124" s="74"/>
-      <c r="F124" s="74"/>
+      <c r="C124" s="73"/>
+      <c r="D124" s="73"/>
+      <c r="E124" s="73"/>
+      <c r="F124" s="73"/>
     </row>
     <row r="125" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="B125" s="21"/>
-      <c r="C125" s="74"/>
-      <c r="D125" s="74"/>
-      <c r="E125" s="74"/>
-      <c r="F125" s="74"/>
+      <c r="C125" s="73"/>
+      <c r="D125" s="73"/>
+      <c r="E125" s="73"/>
+      <c r="F125" s="73"/>
     </row>
     <row r="126" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A126" s="126" t="s">
+      <c r="A126" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="B126" s="68" t="s">
+      <c r="B126" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="137" t="s">
+      <c r="C126" s="129" t="s">
         <v>243</v>
       </c>
-      <c r="D126" s="138"/>
-      <c r="E126" s="138"/>
-      <c r="F126" s="138"/>
+      <c r="D126" s="130"/>
+      <c r="E126" s="130"/>
+      <c r="F126" s="130"/>
     </row>
     <row r="127" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A127" s="127"/>
-      <c r="B127" s="68" t="s">
+      <c r="A127" s="142"/>
+      <c r="B127" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="141"/>
-      <c r="D127" s="142"/>
-      <c r="E127" s="142"/>
-      <c r="F127" s="142"/>
+      <c r="C127" s="132"/>
+      <c r="D127" s="133"/>
+      <c r="E127" s="133"/>
+      <c r="F127" s="133"/>
     </row>
     <row r="128" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A128" s="127"/>
-      <c r="B128" s="68" t="s">
+      <c r="A128" s="142"/>
+      <c r="B128" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="139"/>
-      <c r="D128" s="140"/>
-      <c r="E128" s="140"/>
-      <c r="F128" s="140"/>
+      <c r="C128" s="135"/>
+      <c r="D128" s="136"/>
+      <c r="E128" s="136"/>
+      <c r="F128" s="136"/>
     </row>
     <row r="129" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A129" s="127"/>
-      <c r="B129" s="68" t="s">
+      <c r="A129" s="142"/>
+      <c r="B129" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="74"/>
-      <c r="D129" s="74"/>
-      <c r="E129" s="74"/>
-      <c r="F129" s="74"/>
+      <c r="C129" s="73"/>
+      <c r="D129" s="73"/>
+      <c r="E129" s="73"/>
+      <c r="F129" s="73"/>
     </row>
     <row r="130" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A130" s="127"/>
-      <c r="B130" s="68" t="s">
+      <c r="A130" s="142"/>
+      <c r="B130" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="74"/>
-      <c r="D130" s="74"/>
-      <c r="E130" s="74"/>
-      <c r="F130" s="74"/>
+      <c r="C130" s="73"/>
+      <c r="D130" s="73"/>
+      <c r="E130" s="73"/>
+      <c r="F130" s="73"/>
     </row>
     <row r="131" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A131" s="127"/>
-      <c r="B131" s="68" t="s">
+      <c r="A131" s="142"/>
+      <c r="B131" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="136" t="s">
+      <c r="C131" s="138" t="s">
         <v>243</v>
       </c>
-      <c r="D131" s="143"/>
-      <c r="E131" s="143"/>
-      <c r="F131" s="144"/>
+      <c r="D131" s="139"/>
+      <c r="E131" s="139"/>
+      <c r="F131" s="140"/>
     </row>
     <row r="132" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A132" s="127"/>
-      <c r="B132" s="68" t="s">
+      <c r="A132" s="142"/>
+      <c r="B132" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="74"/>
-      <c r="D132" s="74"/>
-      <c r="E132" s="74"/>
-      <c r="F132" s="74"/>
+      <c r="C132" s="73"/>
+      <c r="D132" s="73"/>
+      <c r="E132" s="73"/>
+      <c r="F132" s="73"/>
     </row>
     <row r="133" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A133" s="127"/>
-      <c r="B133" s="68" t="s">
+      <c r="A133" s="142"/>
+      <c r="B133" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="C133" s="74"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="74"/>
-      <c r="F133" s="74"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="73"/>
+      <c r="F133" s="73"/>
     </row>
     <row r="134" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A134" s="127"/>
-      <c r="B134" s="68" t="s">
+      <c r="A134" s="142"/>
+      <c r="B134" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="74"/>
-      <c r="D134" s="74"/>
-      <c r="E134" s="74"/>
-      <c r="F134" s="74"/>
+      <c r="C134" s="73"/>
+      <c r="D134" s="73"/>
+      <c r="E134" s="73"/>
+      <c r="F134" s="73"/>
     </row>
     <row r="135" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A135" s="127"/>
-      <c r="B135" s="68" t="s">
+      <c r="A135" s="142"/>
+      <c r="B135" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="137" t="s">
+      <c r="C135" s="129" t="s">
         <v>243</v>
       </c>
-      <c r="D135" s="138"/>
-      <c r="E135" s="138"/>
-      <c r="F135" s="145"/>
+      <c r="D135" s="130"/>
+      <c r="E135" s="130"/>
+      <c r="F135" s="131"/>
     </row>
     <row r="136" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A136" s="127"/>
-      <c r="B136" s="68" t="s">
+      <c r="A136" s="142"/>
+      <c r="B136" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="141"/>
-      <c r="D136" s="142"/>
-      <c r="E136" s="142"/>
-      <c r="F136" s="147"/>
+      <c r="C136" s="132"/>
+      <c r="D136" s="133"/>
+      <c r="E136" s="133"/>
+      <c r="F136" s="134"/>
     </row>
     <row r="137" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A137" s="127"/>
-      <c r="B137" s="68" t="s">
+      <c r="A137" s="142"/>
+      <c r="B137" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C137" s="139"/>
-      <c r="D137" s="140"/>
-      <c r="E137" s="140"/>
-      <c r="F137" s="146"/>
+      <c r="C137" s="135"/>
+      <c r="D137" s="136"/>
+      <c r="E137" s="136"/>
+      <c r="F137" s="137"/>
     </row>
     <row r="138" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A138" s="127"/>
-      <c r="B138" s="68" t="s">
+      <c r="A138" s="142"/>
+      <c r="B138" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="74"/>
-      <c r="D138" s="74"/>
-      <c r="E138" s="74"/>
-      <c r="F138" s="74"/>
+      <c r="C138" s="73"/>
+      <c r="D138" s="73"/>
+      <c r="E138" s="73"/>
+      <c r="F138" s="73"/>
     </row>
     <row r="139" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A139" s="127"/>
-      <c r="B139" s="68" t="s">
+      <c r="A139" s="142"/>
+      <c r="B139" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="74"/>
-      <c r="D139" s="74"/>
-      <c r="E139" s="74"/>
-      <c r="F139" s="74"/>
+      <c r="C139" s="73"/>
+      <c r="D139" s="73"/>
+      <c r="E139" s="73"/>
+      <c r="F139" s="73"/>
     </row>
     <row r="140" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A140" s="127"/>
-      <c r="B140" s="68" t="s">
+      <c r="A140" s="142"/>
+      <c r="B140" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="C140" s="74"/>
-      <c r="D140" s="74"/>
-      <c r="E140" s="74"/>
-      <c r="F140" s="74"/>
+      <c r="C140" s="73"/>
+      <c r="D140" s="73"/>
+      <c r="E140" s="73"/>
+      <c r="F140" s="73"/>
     </row>
     <row r="141" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A141" s="127"/>
-      <c r="B141" s="68" t="s">
+      <c r="A141" s="142"/>
+      <c r="B141" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C141" s="74"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="74"/>
-      <c r="F141" s="74"/>
+      <c r="C141" s="73"/>
+      <c r="D141" s="73"/>
+      <c r="E141" s="73"/>
+      <c r="F141" s="73"/>
     </row>
     <row r="142" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A142" s="127"/>
-      <c r="B142" s="68" t="s">
+      <c r="A142" s="142"/>
+      <c r="B142" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="C142" s="74"/>
-      <c r="D142" s="74"/>
-      <c r="E142" s="74"/>
-      <c r="F142" s="74"/>
+      <c r="C142" s="73"/>
+      <c r="D142" s="73"/>
+      <c r="E142" s="73"/>
+      <c r="F142" s="73"/>
     </row>
     <row r="143" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A143" s="127"/>
-      <c r="B143" s="68" t="s">
+      <c r="A143" s="142"/>
+      <c r="B143" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C143" s="74"/>
-      <c r="D143" s="74"/>
-      <c r="E143" s="74"/>
-      <c r="F143" s="74"/>
+      <c r="C143" s="73"/>
+      <c r="D143" s="73"/>
+      <c r="E143" s="73"/>
+      <c r="F143" s="73"/>
     </row>
     <row r="144" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A144" s="127"/>
-      <c r="B144" s="68" t="s">
+      <c r="A144" s="142"/>
+      <c r="B144" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="C144" s="74"/>
-      <c r="D144" s="74"/>
-      <c r="E144" s="74"/>
-      <c r="F144" s="74"/>
+      <c r="C144" s="73"/>
+      <c r="D144" s="73"/>
+      <c r="E144" s="73"/>
+      <c r="F144" s="73"/>
     </row>
     <row r="145" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A145" s="127"/>
-      <c r="B145" s="68" t="s">
+      <c r="A145" s="142"/>
+      <c r="B145" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="C145" s="74"/>
-      <c r="D145" s="74"/>
-      <c r="E145" s="74"/>
-      <c r="F145" s="74"/>
+      <c r="C145" s="73"/>
+      <c r="D145" s="73"/>
+      <c r="E145" s="73"/>
+      <c r="F145" s="73"/>
     </row>
     <row r="146" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A146" s="127"/>
-      <c r="B146" s="68" t="s">
+      <c r="A146" s="142"/>
+      <c r="B146" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C146" s="74"/>
-      <c r="D146" s="74"/>
-      <c r="E146" s="74"/>
-      <c r="F146" s="74"/>
+      <c r="C146" s="73"/>
+      <c r="D146" s="73"/>
+      <c r="E146" s="73"/>
+      <c r="F146" s="73"/>
     </row>
     <row r="147" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A147" s="127"/>
-      <c r="B147" s="68" t="s">
+      <c r="A147" s="142"/>
+      <c r="B147" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C147" s="74"/>
-      <c r="D147" s="74"/>
-      <c r="E147" s="74"/>
-      <c r="F147" s="74"/>
+      <c r="C147" s="73"/>
+      <c r="D147" s="73"/>
+      <c r="E147" s="73"/>
+      <c r="F147" s="73"/>
     </row>
     <row r="148" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A148" s="127"/>
-      <c r="B148" s="68" t="s">
+      <c r="A148" s="142"/>
+      <c r="B148" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="C148" s="74"/>
-      <c r="D148" s="74"/>
-      <c r="E148" s="74"/>
-      <c r="F148" s="74"/>
+      <c r="C148" s="73"/>
+      <c r="D148" s="73"/>
+      <c r="E148" s="73"/>
+      <c r="F148" s="73"/>
     </row>
     <row r="149" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A149" s="127"/>
-      <c r="B149" s="68" t="s">
+      <c r="A149" s="142"/>
+      <c r="B149" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C149" s="137" t="s">
+      <c r="C149" s="129" t="s">
         <v>243</v>
       </c>
-      <c r="D149" s="138"/>
-      <c r="E149" s="138"/>
-      <c r="F149" s="145"/>
+      <c r="D149" s="130"/>
+      <c r="E149" s="130"/>
+      <c r="F149" s="131"/>
     </row>
     <row r="150" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A150" s="127"/>
-      <c r="B150" s="68" t="s">
+      <c r="A150" s="142"/>
+      <c r="B150" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="139"/>
-      <c r="D150" s="140"/>
-      <c r="E150" s="140"/>
-      <c r="F150" s="146"/>
+      <c r="C150" s="135"/>
+      <c r="D150" s="136"/>
+      <c r="E150" s="136"/>
+      <c r="F150" s="137"/>
     </row>
     <row r="151" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A151" s="127"/>
-      <c r="B151" s="68" t="s">
+      <c r="A151" s="142"/>
+      <c r="B151" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="C151" s="74"/>
-      <c r="D151" s="74"/>
-      <c r="E151" s="74"/>
-      <c r="F151" s="74"/>
+      <c r="C151" s="73"/>
+      <c r="D151" s="73"/>
+      <c r="E151" s="73"/>
+      <c r="F151" s="73"/>
     </row>
     <row r="152" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A152" s="127"/>
-      <c r="B152" s="68" t="s">
+      <c r="A152" s="142"/>
+      <c r="B152" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="C152" s="136" t="s">
+      <c r="C152" s="138" t="s">
         <v>243</v>
       </c>
-      <c r="D152" s="143"/>
-      <c r="E152" s="143"/>
-      <c r="F152" s="144"/>
+      <c r="D152" s="139"/>
+      <c r="E152" s="139"/>
+      <c r="F152" s="140"/>
     </row>
     <row r="153" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A153" s="127"/>
-      <c r="B153" s="68" t="s">
+      <c r="A153" s="142"/>
+      <c r="B153" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="C153" s="74"/>
-      <c r="D153" s="74"/>
-      <c r="E153" s="74"/>
-      <c r="F153" s="74"/>
+      <c r="C153" s="73"/>
+      <c r="D153" s="73"/>
+      <c r="E153" s="73"/>
+      <c r="F153" s="73"/>
     </row>
     <row r="154" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A154" s="127"/>
-      <c r="B154" s="68" t="s">
+      <c r="A154" s="142"/>
+      <c r="B154" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="C154" s="74"/>
-      <c r="D154" s="74"/>
-      <c r="E154" s="74"/>
-      <c r="F154" s="74"/>
+      <c r="C154" s="73"/>
+      <c r="D154" s="73"/>
+      <c r="E154" s="73"/>
+      <c r="F154" s="73"/>
     </row>
     <row r="155" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A155" s="127"/>
-      <c r="B155" s="68" t="s">
+      <c r="A155" s="142"/>
+      <c r="B155" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C155" s="136" t="s">
+      <c r="C155" s="138" t="s">
         <v>243</v>
       </c>
-      <c r="D155" s="143"/>
-      <c r="E155" s="143"/>
-      <c r="F155" s="144"/>
+      <c r="D155" s="139"/>
+      <c r="E155" s="139"/>
+      <c r="F155" s="140"/>
     </row>
     <row r="156" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A156" s="127"/>
-      <c r="B156" s="68" t="s">
+      <c r="A156" s="142"/>
+      <c r="B156" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="C156" s="74"/>
-      <c r="D156" s="74"/>
-      <c r="E156" s="74"/>
-      <c r="F156" s="74"/>
+      <c r="C156" s="73"/>
+      <c r="D156" s="73"/>
+      <c r="E156" s="73"/>
+      <c r="F156" s="73"/>
     </row>
     <row r="157" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A157" s="127"/>
-      <c r="B157" s="69" t="s">
+      <c r="A157" s="142"/>
+      <c r="B157" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="74"/>
-      <c r="D157" s="74"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="74"/>
+      <c r="C157" s="73"/>
+      <c r="D157" s="73"/>
+      <c r="E157" s="73"/>
+      <c r="F157" s="73"/>
     </row>
     <row r="158" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A158" s="127"/>
-      <c r="B158" s="69" t="s">
+      <c r="A158" s="142"/>
+      <c r="B158" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="74"/>
-      <c r="D158" s="74"/>
-      <c r="E158" s="74"/>
-      <c r="F158" s="74"/>
+      <c r="C158" s="73"/>
+      <c r="D158" s="73"/>
+      <c r="E158" s="73"/>
+      <c r="F158" s="73"/>
     </row>
     <row r="159" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A159" s="127"/>
-      <c r="B159" s="69" t="s">
+      <c r="A159" s="142"/>
+      <c r="B159" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="74"/>
-      <c r="D159" s="74"/>
-      <c r="E159" s="74"/>
-      <c r="F159" s="74"/>
+      <c r="C159" s="73"/>
+      <c r="D159" s="73"/>
+      <c r="E159" s="73"/>
+      <c r="F159" s="73"/>
     </row>
     <row r="160" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A160" s="127"/>
-      <c r="B160" s="69" t="s">
+      <c r="A160" s="142"/>
+      <c r="B160" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="74"/>
-      <c r="D160" s="74"/>
-      <c r="E160" s="74"/>
-      <c r="F160" s="74"/>
+      <c r="C160" s="73"/>
+      <c r="D160" s="73"/>
+      <c r="E160" s="73"/>
+      <c r="F160" s="73"/>
     </row>
     <row r="161" spans="3:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="C161" s="74"/>
-      <c r="D161" s="74"/>
-      <c r="E161" s="74"/>
-      <c r="F161" s="74"/>
+      <c r="C161" s="73"/>
+      <c r="D161" s="73"/>
+      <c r="E161" s="73"/>
+      <c r="F161" s="73"/>
     </row>
     <row r="162" spans="3:6" ht="15" thickTop="1"/>
   </sheetData>

--- a/trunk/SRS/Trazabilidad/SRS(Alimnova)TrazabilidadRequerimientosV1.3.0.xlsx
+++ b/trunk/SRS/Trazabilidad/SRS(Alimnova)TrazabilidadRequerimientosV1.3.0.xlsx
@@ -2146,9 +2146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H31" sqref="H31"/>
+      <selection pane="topRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2908,11 +2908,11 @@
         <v>40261</v>
       </c>
       <c r="F16" s="49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G16" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H16" s="53"/>
       <c r="I16" s="49">
@@ -2958,11 +2958,11 @@
         <v>40261</v>
       </c>
       <c r="F17" s="49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="49">
@@ -8842,7 +8842,7 @@
       <c r="F126" s="80"/>
       <c r="G126" s="49">
         <f>SUM(G5:G125)</f>
-        <v>4380</v>
+        <v>4880</v>
       </c>
       <c r="H126" s="102" t="s">
         <v>218</v>
@@ -8850,7 +8850,7 @@
       <c r="I126" s="103"/>
       <c r="J126" s="77">
         <f>(G126*100)/C126</f>
-        <v>34.488188976377955</v>
+        <v>38.425196850393704</v>
       </c>
       <c r="K126" s="49"/>
       <c r="L126" s="53"/>
